--- a/data_output/weekly_report_output.xlsx
+++ b/data_output/weekly_report_output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">CDC-061</t>
   </si>
   <si>
-    <t xml:space="preserve">BERTHOUD RESERVIOR</t>
+    <t xml:space="preserve">BERTHOUD RESERVOIR</t>
   </si>
   <si>
     <t xml:space="preserve">CDC-062</t>
@@ -728,18 +728,27 @@
     <t xml:space="preserve">abund_Tarsalis</t>
   </si>
   <si>
+    <t xml:space="preserve">abund_All</t>
+  </si>
+  <si>
     <t xml:space="preserve">pir_Pipiens</t>
   </si>
   <si>
     <t xml:space="preserve">pir_Tarsalis</t>
   </si>
   <si>
+    <t xml:space="preserve">pir_All</t>
+  </si>
+  <si>
     <t xml:space="preserve">vi_Pipiens</t>
   </si>
   <si>
     <t xml:space="preserve">vi_Tarsalis</t>
   </si>
   <si>
+    <t xml:space="preserve">vi_All</t>
+  </si>
+  <si>
     <t xml:space="preserve">all_vi</t>
   </si>
   <si>
@@ -800,6 +809,9 @@
     <t xml:space="preserve">collected_Tarsalis</t>
   </si>
   <si>
+    <t xml:space="preserve">collected_All</t>
+  </si>
+  <si>
     <t xml:space="preserve">all_collected</t>
   </si>
   <si>
@@ -863,6 +875,9 @@
     <t xml:space="preserve">examined_Tarsalis</t>
   </si>
   <si>
+    <t xml:space="preserve">examined_All</t>
+  </si>
+  <si>
     <t xml:space="preserve">all_examined</t>
   </si>
   <si>
@@ -872,6 +887,9 @@
     <t xml:space="preserve">pool_Tarsalis</t>
   </si>
   <si>
+    <t xml:space="preserve">pool_All</t>
+  </si>
+  <si>
     <t xml:space="preserve">all_pool</t>
   </si>
   <si>
@@ -879,6 +897,9 @@
   </si>
   <si>
     <t xml:space="preserve">pos_pool_Tarsalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pos_pool_All</t>
   </si>
   <si>
     <t xml:space="preserve">all_pos_pool</t>
@@ -8051,6 +8072,15 @@
       <c r="H1" t="s">
         <v>240</v>
       </c>
+      <c r="I1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -8063,7 +8093,7 @@
         <v>9.78</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18.56</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -8075,6 +8105,15 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8089,7 +8128,7 @@
         <v>14.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -8101,6 +8140,15 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8115,7 +8163,7 @@
         <v>20.33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -8127,6 +8175,15 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8141,7 +8198,7 @@
         <v>9.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -8153,6 +8210,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8167,7 +8233,7 @@
         <v>14.57</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>20.45</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -8179,6 +8245,15 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8193,7 +8268,7 @@
         <v>47.17</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -8205,6 +8280,15 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8219,18 +8303,27 @@
         <v>59.11</v>
       </c>
       <c r="D8" t="n">
+        <v>64.55</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.0179</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00150890782339272</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.0974</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.0974</v>
       </c>
     </row>
@@ -8242,10 +8335,10 @@
       <c r="C9" t="n">
         <v>45</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -8253,6 +8346,15 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8272,55 +8374,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
@@ -8494,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0121</v>
+        <v>0.0108833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -8506,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0042</v>
+        <v>0.00495</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8547,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0556</v>
+        <v>0.0472833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -8559,19 +8661,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02</v>
+        <v>0.0148333333333333</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0654</v>
+        <v>0.0538833333333333</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0433</v>
+        <v>0.0699833333333333</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8588,49 +8690,49 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0186</v>
+        <v>0.0148166666666667</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0198</v>
+        <v>0.0159166666666667</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1972</v>
+        <v>0.168533333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0876</v>
+        <v>0.0483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0978</v>
+        <v>0.0791</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0359</v>
+        <v>0.0269</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1098</v>
+        <v>0.0974</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.111833333333333</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1351</v>
+        <v>0.138333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -8639,35 +8741,35 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
-        <v>0.1592</v>
+        <v>0.0900666666666667</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>0.2522</v>
+        <v>0.209233333333333</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.2559</v>
+        <v>0.209516666666667</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="n">
-        <v>0.1465</v>
+        <v>0.153133333333333</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>0.2067</v>
+        <v>0.175416666666667</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.1323</v>
+        <v>0.142783333333333</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>0.0463</v>
+        <v>0.1026</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="n">
-        <v>0.2173</v>
+        <v>0.2489</v>
       </c>
     </row>
     <row r="9">
@@ -8676,35 +8778,35 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>0.0577</v>
+        <v>0.06815</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>0.1871</v>
+        <v>0.164333333333333</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.2048</v>
+        <v>0.168366666666667</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="n">
-        <v>0.1597</v>
+        <v>0.163933333333333</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>0.1591</v>
+        <v>0.14645</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>0.5115</v>
+        <v>0.510433333333333</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>0.0911</v>
+        <v>0.175916666666667</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="n">
-        <v>0.0647</v>
+        <v>0.0634666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -8713,35 +8815,35 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>0.1396</v>
+        <v>0.11595</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.089</v>
+        <v>0.0856333333333333</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>0.4422</v>
+        <v>0.407366666666667</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
-        <v>0.1263</v>
+        <v>0.110583333333333</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="n">
-        <v>0.2357</v>
+        <v>0.226333333333333</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>0.3126</v>
+        <v>0.264016666666667</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.0681</v>
+        <v>0.140983333333333</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="n">
-        <v>0.0687</v>
+        <v>0.0679333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -8750,35 +8852,35 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
-        <v>0.1792</v>
+        <v>0.199833333333333</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.2229</v>
+        <v>0.18375</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>0.2439</v>
+        <v>0.242816666666667</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.2371</v>
+        <v>0.200366666666667</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>0.2312</v>
+        <v>0.218516666666667</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>0.3653</v>
+        <v>0.345516666666667</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.2797</v>
+        <v>0.5082</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="n">
-        <v>0.1411</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="12">
@@ -8787,35 +8889,35 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>0.1574</v>
+        <v>0.13545</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>0.4383</v>
+        <v>0.497183333333333</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>0.2533</v>
+        <v>0.226766666666667</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.23</v>
+        <v>0.225083333333333</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.2705</v>
+        <v>0.272666666666667</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.3722</v>
+        <v>0.3657</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.0221</v>
+        <v>0.0362166666666667</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="n">
-        <v>0.0666</v>
+        <v>0.0620666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -8824,35 +8926,35 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>0.1761</v>
+        <v>0.155316666666667</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>0.346</v>
+        <v>0.338366666666667</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>0.329</v>
+        <v>0.271366666666667</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>0.2903</v>
+        <v>0.23865</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="n">
-        <v>0.2955</v>
+        <v>0.259483333333333</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>0.244</v>
+        <v>0.201133333333333</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.0974</v>
+        <v>0.2655</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="n">
-        <v>0.0683</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="14">
@@ -8861,31 +8963,31 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>0.0967</v>
+        <v>0.08825</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>0.2794</v>
+        <v>0.319216666666667</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>0.302</v>
+        <v>0.325816666666667</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>0.1184</v>
+        <v>0.0765</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="n">
-        <v>0.2162</v>
+        <v>0.229533333333333</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>0.3002</v>
+        <v>0.258666666666667</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.0683</v>
+        <v>0.0956333333333333</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="n">
@@ -8898,27 +9000,27 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>0.0542</v>
+        <v>0.0301</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>0.0847</v>
+        <v>0.0892833333333333</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>0.0838</v>
+        <v>0.0606666666666667</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>0.0314</v>
+        <v>0.0352</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>0.07</v>
+        <v>0.0651333333333333</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>0.1316</v>
+        <v>0.1397</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -8933,15 +9035,15 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.013675</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>0.1885</v>
+        <v>0.1714</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>0.0379</v>
+        <v>0.0285</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="n">
@@ -8949,7 +9051,7 @@
       </c>
       <c r="J16"/>
       <c r="K16" t="n">
-        <v>0.0546</v>
+        <v>0.054475</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -8979,25 +9081,31 @@
         <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="H1" t="s">
-        <v>262</v>
+      <c r="I1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -9014,15 +9122,21 @@
         <v>167</v>
       </c>
       <c r="E2" t="n">
+        <v>167</v>
+      </c>
+      <c r="F2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8.78</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>9.78</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="J2" t="n">
         <v>18.56</v>
       </c>
     </row>
@@ -9040,15 +9154,21 @@
         <v>205</v>
       </c>
       <c r="E3" t="n">
+        <v>205</v>
+      </c>
+      <c r="F3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>14.5</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J3" t="n">
         <v>20.5</v>
       </c>
     </row>
@@ -9066,15 +9186,21 @@
         <v>387</v>
       </c>
       <c r="E4" t="n">
+        <v>387</v>
+      </c>
+      <c r="F4" t="n">
         <v>15</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>5.47</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>20.33</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J4" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -9092,15 +9218,21 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3.25</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>9.25</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J5" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -9118,15 +9250,21 @@
         <v>859</v>
       </c>
       <c r="E6" t="n">
+        <v>859</v>
+      </c>
+      <c r="F6" t="n">
         <v>42</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5.88</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>14.57</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="J6" t="n">
         <v>20.45</v>
       </c>
     </row>
@@ -9144,15 +9282,21 @@
         <v>306</v>
       </c>
       <c r="E7" t="n">
+        <v>306</v>
+      </c>
+      <c r="F7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3.83</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>47.17</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>51</v>
+      </c>
+      <c r="J7" t="n">
         <v>51</v>
       </c>
     </row>
@@ -9170,15 +9314,21 @@
         <v>581</v>
       </c>
       <c r="E8" t="n">
+        <v>581</v>
+      </c>
+      <c r="F8" t="n">
         <v>9</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.44</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>59.11</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>64.55</v>
+      </c>
+      <c r="J8" t="n">
         <v>64.55</v>
       </c>
     </row>
@@ -9196,13 +9346,19 @@
         <v>225</v>
       </c>
       <c r="E9" t="n">
+        <v>225</v>
+      </c>
+      <c r="F9" t="n">
         <v>5</v>
       </c>
-      <c r="F9"/>
-      <c r="G9" t="n">
+      <c r="G9"/>
+      <c r="H9" t="n">
         <v>45</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>45</v>
+      </c>
+      <c r="J9" t="n">
         <v>45</v>
       </c>
     </row>
@@ -9222,55 +9378,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
@@ -9278,7 +9434,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="C2" t="n">
         <v>3.78</v>
@@ -9290,19 +9446,19 @@
         <v>3.45</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>5.73</v>
+        <v>5.735</v>
       </c>
       <c r="H2" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
         <v>4.89</v>
       </c>
       <c r="J2" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="K2" t="n">
         <v>4.62</v>
@@ -9314,10 +9470,10 @@
         <v>18.22</v>
       </c>
       <c r="N2" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="O2" t="n">
-        <v>6.15</v>
+        <v>12.2</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -9330,47 +9486,47 @@
         <v>1.67</v>
       </c>
       <c r="C3" t="n">
-        <v>4.96</v>
+        <v>6.3325</v>
       </c>
       <c r="D3" t="n">
         <v>1.9</v>
       </c>
       <c r="E3" t="n">
-        <v>4.68</v>
+        <v>5.04</v>
       </c>
       <c r="F3" t="n">
         <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.12</v>
+        <v>6.346</v>
       </c>
       <c r="H3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I3" t="n">
-        <v>2.89</v>
+        <v>3.044</v>
       </c>
       <c r="J3" t="n">
         <v>1.84</v>
       </c>
       <c r="K3" t="n">
-        <v>4.17</v>
+        <v>5.084</v>
       </c>
       <c r="L3" t="n">
-        <v>5.33</v>
+        <v>5.34</v>
       </c>
       <c r="M3" t="n">
-        <v>20.23</v>
+        <v>20.2233333333333</v>
       </c>
       <c r="N3" t="n">
-        <v>8.44</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
-        <v>7.6</v>
+        <v>15.5416666666667</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>15.4</v>
+        <v>15.725</v>
       </c>
     </row>
     <row r="4">
@@ -9378,50 +9534,50 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>5.89</v>
+        <v>6.63</v>
       </c>
       <c r="C4" t="n">
-        <v>6.13</v>
+        <v>5.61</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4</v>
+        <v>14.89</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5</v>
+        <v>9.26666666666667</v>
       </c>
       <c r="F4" t="n">
         <v>6.47</v>
       </c>
       <c r="G4" t="n">
-        <v>16.52</v>
+        <v>16.9683333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I4" t="n">
-        <v>3.73</v>
+        <v>3.64833333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>6.95</v>
+        <v>7.3</v>
       </c>
       <c r="K4" t="n">
-        <v>10.27</v>
+        <v>10.0083333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>16.67</v>
+        <v>16.66</v>
       </c>
       <c r="M4" t="n">
-        <v>41.43</v>
+        <v>37.6666666666667</v>
       </c>
       <c r="N4" t="n">
-        <v>18.89</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>15.07</v>
+        <v>25.375</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>18.67</v>
+        <v>18.5033333333333</v>
       </c>
     </row>
     <row r="5">
@@ -9429,52 +9585,52 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>34.38</v>
+        <v>32.3683333333333</v>
       </c>
       <c r="D5" t="n">
         <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>38.48</v>
+        <v>35.0166666666667</v>
       </c>
       <c r="F5" t="n">
         <v>15.6</v>
       </c>
       <c r="G5" t="n">
-        <v>60.44</v>
+        <v>56.7516666666667</v>
       </c>
       <c r="H5" t="n">
         <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>22.78</v>
+        <v>23.63</v>
       </c>
       <c r="J5" t="n">
-        <v>14.4</v>
+        <v>14.74</v>
       </c>
       <c r="K5" t="n">
-        <v>42</v>
+        <v>39.6616666666667</v>
       </c>
       <c r="L5" t="n">
         <v>34.33</v>
       </c>
       <c r="M5" t="n">
-        <v>111.07</v>
+        <v>96.9983333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>57.67</v>
+        <v>51.9</v>
       </c>
       <c r="O5" t="n">
-        <v>20.24</v>
+        <v>44.4666666666667</v>
       </c>
       <c r="P5" t="n">
         <v>20</v>
       </c>
       <c r="Q5" t="n">
-        <v>22.2</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="6">
@@ -9482,52 +9638,52 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="C6" t="n">
-        <v>25.33</v>
+        <v>27.89</v>
       </c>
       <c r="D6" t="n">
         <v>20.3</v>
       </c>
       <c r="E6" t="n">
-        <v>81.84</v>
+        <v>80.7</v>
       </c>
       <c r="F6" t="n">
         <v>9.87</v>
       </c>
       <c r="G6" t="n">
-        <v>111.17</v>
+        <v>103.38</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>16.76</v>
+        <v>18.1633333333333</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>66.62</v>
+        <v>64.4683333333333</v>
       </c>
       <c r="L6" t="n">
         <v>31.67</v>
       </c>
       <c r="M6" t="n">
-        <v>217.9</v>
+        <v>190.471666666667</v>
       </c>
       <c r="N6" t="n">
-        <v>62.78</v>
+        <v>56.5</v>
       </c>
       <c r="O6" t="n">
-        <v>30.96</v>
+        <v>74.1083333333333</v>
       </c>
       <c r="P6" t="n">
         <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.8</v>
+        <v>45.2733333333333</v>
       </c>
     </row>
     <row r="7">
@@ -9538,49 +9694,49 @@
         <v>18.56</v>
       </c>
       <c r="C7" t="n">
-        <v>61.87</v>
+        <v>59.7966666666667</v>
       </c>
       <c r="D7" t="n">
         <v>20.5</v>
       </c>
       <c r="E7" t="n">
-        <v>99.18</v>
+        <v>97.7333333333333</v>
       </c>
       <c r="F7" t="n">
         <v>25.8</v>
       </c>
       <c r="G7" t="n">
-        <v>164.35</v>
+        <v>150.365</v>
       </c>
       <c r="H7" t="n">
-        <v>11.11</v>
+        <v>12.5</v>
       </c>
       <c r="I7" t="n">
-        <v>72.98</v>
+        <v>65.15</v>
       </c>
       <c r="J7" t="n">
-        <v>19.98</v>
+        <v>20.45</v>
       </c>
       <c r="K7" t="n">
-        <v>108.62</v>
+        <v>101.335</v>
       </c>
       <c r="L7" t="n">
         <v>51</v>
       </c>
       <c r="M7" t="n">
-        <v>179.43</v>
+        <v>170.47</v>
       </c>
       <c r="N7" t="n">
-        <v>64.56</v>
+        <v>64.55</v>
       </c>
       <c r="O7" t="n">
-        <v>39.67</v>
+        <v>109.425</v>
       </c>
       <c r="P7" t="n">
         <v>45</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.73</v>
+        <v>39.3233333333333</v>
       </c>
     </row>
     <row r="8">
@@ -9589,35 +9745,35 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
-        <v>83.78</v>
+        <v>76.4066666666667</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>180.12</v>
+        <v>153.333333333333</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>159.96</v>
+        <v>140.753333333333</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="n">
-        <v>66.58</v>
+        <v>59.6116666666667</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>129.16</v>
+        <v>113.23</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>120.27</v>
+        <v>106.723333333333</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>42.13</v>
+        <v>77.7666666666667</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="n">
-        <v>42.6</v>
+        <v>42.17</v>
       </c>
     </row>
     <row r="9">
@@ -9626,35 +9782,35 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>48.11</v>
+        <v>47.705</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>133.64</v>
+        <v>124.3</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>93.08</v>
+        <v>81.2433333333333</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="n">
-        <v>48.4</v>
+        <v>42.2633333333333</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>83.75</v>
+        <v>76.0766666666667</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>108.83</v>
+        <v>96.3883333333333</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>43.38</v>
+        <v>83.375</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="n">
-        <v>46.2</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="10">
@@ -9663,35 +9819,35 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>34.89</v>
+        <v>35.5366666666667</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>98.88</v>
+        <v>93.5166666666667</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>92.13</v>
+        <v>85.555</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
-        <v>23.38</v>
+        <v>24.5</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="n">
-        <v>67.33</v>
+        <v>64.1566666666667</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>115.77</v>
+        <v>100.751666666667</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>27.24</v>
+        <v>57.0583333333333</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="n">
-        <v>62.47</v>
+        <v>61.0833333333333</v>
       </c>
     </row>
     <row r="11">
@@ -9700,35 +9856,35 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
-        <v>28.44</v>
+        <v>34.1666666666667</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>101.34</v>
+        <v>95.15</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>56.73</v>
+        <v>54.1566666666667</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>33.87</v>
+        <v>31.37</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>56.4</v>
+        <v>54.7383333333333</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>76.1</v>
+        <v>67.055</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>36.8</v>
+        <v>67.6833333333333</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="n">
-        <v>30.67</v>
+        <v>30.1833333333333</v>
       </c>
     </row>
     <row r="12">
@@ -9737,35 +9893,35 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>27.13</v>
+        <v>28.4233333333333</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>78.26</v>
+        <v>89.15</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>55.07</v>
+        <v>52.0666666666667</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>29.11</v>
+        <v>28.1333333333333</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>49.18</v>
+        <v>50.7333333333333</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>60.03</v>
+        <v>56.165</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>20.09</v>
+        <v>36.4416666666667</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="n">
-        <v>21.47</v>
+        <v>21.0066666666667</v>
       </c>
     </row>
     <row r="13">
@@ -9774,35 +9930,35 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>28.4</v>
+        <v>27.1666666666667</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>84.38</v>
+        <v>76.5333333333333</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>40.12</v>
+        <v>37.2683333333333</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>28.18</v>
+        <v>24.72</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="n">
-        <v>45.46</v>
+        <v>41.6583333333333</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>61</v>
+        <v>53.2783333333333</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>14.76</v>
+        <v>27.8416666666667</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="n">
-        <v>21.33</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="14">
@@ -9811,35 +9967,35 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>14.44</v>
+        <v>14.1666666666667</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>41.7</v>
+        <v>42.9833333333333</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>28.49</v>
+        <v>26.2883333333333</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>11.84</v>
+        <v>10.3883333333333</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="n">
-        <v>25.14</v>
+        <v>24.3066666666667</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>31.27</v>
+        <v>29.0816666666667</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>10.04</v>
+        <v>17.9833333333333</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="n">
-        <v>7.73</v>
+        <v>7.65666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -9848,33 +10004,33 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>9.67</v>
+        <v>10.39</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>40.32</v>
+        <v>42.5333333333333</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>17.84</v>
+        <v>15.99</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>6.16</v>
+        <v>5.55666666666667</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>18.91</v>
+        <v>18.8066666666667</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>14.0025</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15" t="n">
-        <v>3.93</v>
+        <v>3.95333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -9883,23 +10039,23 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>4.15</v>
+        <v>4.6125</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>53.87</v>
+        <v>45.45</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>17.22</v>
+        <v>13.2625</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.1375</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="n">
-        <v>20.24</v>
+        <v>16.82</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -9907,7 +10063,7 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16" t="n">
-        <v>4.8</v>
+        <v>5.02</v>
       </c>
     </row>
   </sheetData>
@@ -9929,40 +10085,52 @@
         <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K1" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="L1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" t="s">
         <v>237</v>
       </c>
-      <c r="M1" t="s">
-        <v>288</v>
+      <c r="O1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="2">
@@ -9979,19 +10147,19 @@
         <v>236</v>
       </c>
       <c r="E2" t="n">
+        <v>236</v>
+      </c>
+      <c r="F2" t="n">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>20</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -10003,6 +10171,18 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10020,19 +10200,19 @@
         <v>258</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
         <v>20</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10044,6 +10224,18 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10061,19 +10253,19 @@
         <v>494</v>
       </c>
       <c r="E4" t="n">
+        <v>494</v>
+      </c>
+      <c r="F4" t="n">
         <v>15</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>16</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>31</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -10085,6 +10277,18 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10102,19 +10306,19 @@
         <v>123</v>
       </c>
       <c r="E5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>8</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>15</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -10126,6 +10330,18 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10143,19 +10359,19 @@
         <v>1111</v>
       </c>
       <c r="E6" t="n">
+        <v>1111</v>
+      </c>
+      <c r="F6" t="n">
         <v>44</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>42</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>86</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -10167,6 +10383,18 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10184,19 +10412,19 @@
         <v>306</v>
       </c>
       <c r="E7" t="n">
+        <v>306</v>
+      </c>
+      <c r="F7" t="n">
         <v>4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>13</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -10208,6 +10436,18 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10225,30 +10465,42 @@
         <v>581</v>
       </c>
       <c r="E8" t="n">
+        <v>581</v>
+      </c>
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>19</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>25</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>17.9</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.50890782339272</v>
+      </c>
+      <c r="Q8" t="n">
         <v>17.9</v>
       </c>
     </row>
@@ -10266,28 +10518,40 @@
         <v>225</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10307,55 +10571,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="N1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
@@ -10529,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.0488348439977265</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -10541,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1</v>
+        <v>0.0320699708454811</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -10582,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.130880873953922</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -10594,19 +10858,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3</v>
+        <v>0.0802105301104923</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3</v>
+        <v>0.0969717693073702</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>0.495632672332389</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -10623,49 +10887,49 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3</v>
+        <v>0.078904391664004</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
+        <v>0.124058196934269</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>0.680068827845762</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2</v>
+        <v>0.32775418035304</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9</v>
+        <v>0.415157981868473</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2</v>
+        <v>0.18987788522623</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.50890782339272</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.628698800568405</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>4.56674683507056</v>
       </c>
     </row>
     <row r="8">
@@ -10674,35 +10938,35 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
-        <v>1.9</v>
+        <v>0.608873342937638</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>1.4</v>
+        <v>0.441980002816505</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>0.872190368120737</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>1.32372550576218</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>1.6</v>
+        <v>0.778380046701033</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.43071258556743</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>0.782545563530573</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="n">
-        <v>5.1</v>
+        <v>4.44464285714286</v>
       </c>
     </row>
     <row r="9">
@@ -10711,35 +10975,35 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>1.2</v>
+        <v>0.892646610088262</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>1.4</v>
+        <v>1.07996078299518</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.11773385898108</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>1.795590295031</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>1.9</v>
+        <v>1.52313889704446</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>4.7</v>
+        <v>4.86415334995998</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>2.1</v>
+        <v>2.18499439190477</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.13333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -10748,35 +11012,35 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3.87768465648582</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.9</v>
+        <v>0.999097435857026</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>4.8</v>
+        <v>4.397787656191</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>4.64047188482294</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.344914048253</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>2.7</v>
+        <v>1.98559838533558</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>2.5</v>
+        <v>5.65622564076896</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="n">
-        <v>1.1</v>
+        <v>1.43319268635724</v>
       </c>
     </row>
     <row r="11">
@@ -10785,35 +11049,35 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
-        <v>6.3</v>
+        <v>7.34184112640905</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>2.2</v>
+        <v>2.83790535304474</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>5.20568565768097</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>9.03245343614529</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.87597843391547</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>4.8</v>
+        <v>6.59683973903415</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>7.6</v>
+        <v>6.08469567678925</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="n">
-        <v>4.6</v>
+        <v>4.06675527987003</v>
       </c>
     </row>
     <row r="12">
@@ -10822,35 +11086,35 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>5.8</v>
+        <v>5.24863510057424</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>5.6</v>
+        <v>8.30504157843965</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>4.6</v>
+        <v>5.873634499645</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>7.9</v>
+        <v>9.11117884098841</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>7.38337341125182</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>6.2</v>
+        <v>6.4259319972273</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>1.1</v>
+        <v>3.41666666666667</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="n">
-        <v>3.1</v>
+        <v>1.8000773395205</v>
       </c>
     </row>
     <row r="13">
@@ -10859,35 +11123,35 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>6.2</v>
+        <v>6.74058657885458</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>4.1</v>
+        <v>6.0322123246442</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>8.2</v>
+        <v>7.78087306946193</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>10.3</v>
+        <v>7.90710682396344</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="n">
-        <v>6.5</v>
+        <v>7.0972450593708</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3.3564097551144</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>6.6</v>
+        <v>5.74742256125751</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="n">
-        <v>3.2</v>
+        <v>1.59990047275442</v>
       </c>
     </row>
     <row r="14">
@@ -10896,31 +11160,31 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>6.7</v>
+        <v>6.02728231102489</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>6.7</v>
+        <v>7.28962859503049</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>10.6</v>
+        <v>16.2936251843193</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>12.0987110058103</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="n">
-        <v>8.6</v>
+        <v>10.1003936779959</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>9.6</v>
+        <v>9.40586588639755</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>6.8</v>
+        <v>4.32644059763915</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="n">
@@ -10933,27 +11197,27 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>5.6</v>
+        <v>6.21877765730218</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>2.1</v>
+        <v>1.70444150216659</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>3.10651777155021</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>10.4948443449717</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.27578456958708</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>9.4</v>
+        <v>37.3883821648646</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
@@ -10968,15 +11232,15 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.27916666666667</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>3.5</v>
+        <v>3.84654422306516</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>3.41720491754739</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="n">
@@ -10984,7 +11248,7 @@
       </c>
       <c r="J16"/>
       <c r="K16" t="n">
-        <v>2.7</v>
+        <v>4.08348539424126</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>

--- a/data_output/weekly_report_output.xlsx
+++ b/data_output/weekly_report_output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Test Code (CSU Enters)</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00231</t>
+    <t xml:space="preserve">BOU-00236</t>
   </si>
   <si>
     <t xml:space="preserve">BC</t>
@@ -95,61 +95,133 @@
     <t xml:space="preserve">Negative</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOU-00233</t>
+    <t xml:space="preserve">BOU-00237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOU-00238</t>
   </si>
   <si>
     <t xml:space="preserve">BC-26</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00234</t>
+    <t xml:space="preserve">BOU-00239</t>
   </si>
   <si>
     <t xml:space="preserve">BC-13</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00235</t>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOU-00240</t>
   </si>
   <si>
     <t xml:space="preserve">BC-14</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22447</t>
+    <t xml:space="preserve">CDC-151</t>
   </si>
   <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
+    <t xml:space="preserve">BE-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22571</t>
+  </si>
+  <si>
     <t xml:space="preserve">LV</t>
   </si>
   <si>
     <t xml:space="preserve">LV-069</t>
   </si>
   <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22448</t>
+    <t xml:space="preserve">CSU-22572</t>
   </si>
   <si>
     <t xml:space="preserve">LV-095</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22451</t>
+    <t xml:space="preserve">CSU-22573</t>
   </si>
   <si>
     <t xml:space="preserve">FC</t>
@@ -161,25 +233,25 @@
     <t xml:space="preserve">NE</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22453</t>
+    <t xml:space="preserve">CSU-22574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22577</t>
   </si>
   <si>
     <t xml:space="preserve">FC-069</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22456</t>
+    <t xml:space="preserve">CSU-22578</t>
   </si>
   <si>
     <t xml:space="preserve">FC-040GR</t>
@@ -188,28 +260,55 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22459</t>
+    <t xml:space="preserve">CSU-22579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22582</t>
   </si>
   <si>
     <t xml:space="preserve">FC-006</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22462</t>
+    <t xml:space="preserve">CSU-22583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-092GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-091GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22589</t>
   </si>
   <si>
     <t xml:space="preserve">FC-036</t>
@@ -218,100 +317,79 @@
     <t xml:space="preserve">NW</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-092GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-091GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22470</t>
+    <t xml:space="preserve">CSU-22590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22595</t>
   </si>
   <si>
     <t xml:space="preserve">FC-066GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22473</t>
+    <t xml:space="preserve">CSU-22596</t>
   </si>
   <si>
     <t xml:space="preserve">FC-019</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22475</t>
+    <t xml:space="preserve">CSU-22597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22598</t>
   </si>
   <si>
     <t xml:space="preserve">FC-066</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22478</t>
+    <t xml:space="preserve">CSU-22599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22603</t>
   </si>
   <si>
     <t xml:space="preserve">LV-089</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22479</t>
+    <t xml:space="preserve">CSU-22604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22605</t>
   </si>
   <si>
     <t xml:space="preserve">LV-110</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22483</t>
+    <t xml:space="preserve">CSU-22606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22607</t>
   </si>
   <si>
     <t xml:space="preserve">FC-039</t>
@@ -320,397 +398,352 @@
     <t xml:space="preserve">SE</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22484</t>
+    <t xml:space="preserve">CSU-22608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22609</t>
   </si>
   <si>
     <t xml:space="preserve">FC-053</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22486</t>
+    <t xml:space="preserve">CSU-22610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22616</t>
   </si>
   <si>
     <t xml:space="preserve">FC-075GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22497</t>
+    <t xml:space="preserve">CSU-22617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22623</t>
   </si>
   <si>
     <t xml:space="preserve">FC-088GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22502</t>
+    <t xml:space="preserve">CSU-22624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22626</t>
   </si>
   <si>
     <t xml:space="preserve">FC-050</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22506</t>
+    <t xml:space="preserve">CSU-22627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22628</t>
   </si>
   <si>
     <t xml:space="preserve">FC-046</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22508</t>
+    <t xml:space="preserve">CSU-22629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22632</t>
   </si>
   <si>
     <t xml:space="preserve">FC-047</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22516</t>
+    <t xml:space="preserve">CSU-22633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22638</t>
   </si>
   <si>
     <t xml:space="preserve">LV-020</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
+    <t xml:space="preserve">CSU-22639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22645</t>
   </si>
   <si>
     <t xml:space="preserve">LC-054</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22524</t>
+    <t xml:space="preserve">CSU-22646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22647</t>
   </si>
   <si>
     <t xml:space="preserve">WC-055</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22531</t>
+    <t xml:space="preserve">CSU-22648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-090GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22656</t>
   </si>
   <si>
     <t xml:space="preserve">FC-073</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-090GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22536</t>
+    <t xml:space="preserve">CSU-22657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22658</t>
   </si>
   <si>
     <t xml:space="preserve">FC-060</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22537</t>
+    <t xml:space="preserve">CSU-22659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22660</t>
   </si>
   <si>
     <t xml:space="preserve">FC-011</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22539</t>
+    <t xml:space="preserve">CSU-22661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22662</t>
   </si>
   <si>
     <t xml:space="preserve">FC-063GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22541</t>
+    <t xml:space="preserve">CSU-22663</t>
   </si>
   <si>
     <t xml:space="preserve">FC-063</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22547</t>
+    <t xml:space="preserve">CSU-22664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22665</t>
   </si>
   <si>
     <t xml:space="preserve">FC-015</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22552</t>
+    <t xml:space="preserve">CSU-22666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-029GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22668</t>
   </si>
   <si>
     <t xml:space="preserve">FC-001</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22556</t>
+    <t xml:space="preserve">CSU-22669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22672</t>
   </si>
   <si>
     <t xml:space="preserve">FC-068</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-029GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22561</t>
+    <t xml:space="preserve">CSU-22673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22675</t>
   </si>
   <si>
     <t xml:space="preserve">FC-093</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22567</t>
+    <t xml:space="preserve">CSU-22676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22677</t>
   </si>
   <si>
     <t xml:space="preserve">FC-089GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22568</t>
+    <t xml:space="preserve">CSU-22678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22680</t>
   </si>
   <si>
     <t xml:space="preserve">FC-037</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-057</t>
+    <t xml:space="preserve">CSU-22681</t>
   </si>
   <si>
     <t xml:space="preserve">zone</t>
@@ -1331,10 +1364,10 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1364,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P2" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -1385,10 +1418,10 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1418,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P3" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -1439,10 +1472,10 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1472,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="P4" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
         <v>24</v>
@@ -1493,10 +1526,10 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1532,10 +1565,10 @@
         <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1543,14 +1576,14 @@
         <v>2024</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1559,7 +1592,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -1580,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="P6" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -1597,32 +1630,30 @@
         <v>2024</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -1632,16 +1663,16 @@
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1649,32 +1680,30 @@
         <v>2024</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G8"/>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
@@ -1705,41 +1734,39 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G9"/>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1753,45 +1780,43 @@
         <v>2024</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G10"/>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
-      <c r="N10"/>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10"/>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
@@ -1805,32 +1830,30 @@
         <v>2024</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G11"/>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
@@ -1840,10 +1863,10 @@
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
@@ -1857,45 +1880,43 @@
         <v>2024</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G12"/>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
         <v>24</v>
@@ -1909,32 +1930,30 @@
         <v>2024</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G13"/>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1944,10 +1963,10 @@
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="s">
         <v>24</v>
@@ -1961,45 +1980,43 @@
         <v>2024</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G14"/>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="s">
         <v>24</v>
@@ -2013,32 +2030,30 @@
         <v>2024</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G15"/>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -2046,12 +2061,12 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15"/>
-      <c r="O15" t="n">
-        <v>30</v>
-      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15"/>
       <c r="P15" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q15" t="s">
         <v>24</v>
@@ -2065,45 +2080,43 @@
         <v>2024</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G16"/>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16"/>
+      <c r="N16"/>
+      <c r="O16" t="n">
+        <v>11</v>
+      </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q16" t="s">
         <v>24</v>
@@ -2117,32 +2130,30 @@
         <v>2024</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>42</v>
@@ -2151,11 +2162,11 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="s">
         <v>24</v>
@@ -2169,45 +2180,43 @@
         <v>2024</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G18"/>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18"/>
+      <c r="N18"/>
+      <c r="O18" t="n">
+        <v>16</v>
+      </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q18" t="s">
         <v>24</v>
@@ -2221,32 +2230,30 @@
         <v>2024</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G19"/>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2254,12 +2261,12 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
-      <c r="N19"/>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19"/>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="s">
         <v>24</v>
@@ -2273,45 +2280,43 @@
         <v>2024</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
-      <c r="N20"/>
-      <c r="O20" t="n">
-        <v>10</v>
-      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20"/>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="s">
         <v>24</v>
@@ -2325,32 +2330,30 @@
         <v>2024</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G21"/>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
         <v>42</v>
@@ -2360,16 +2363,16 @@
       </c>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2377,32 +2380,30 @@
         <v>2024</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G22"/>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2410,12 +2411,12 @@
       <c r="M22" t="b">
         <v>0</v>
       </c>
-      <c r="N22"/>
-      <c r="O22" t="n">
-        <v>43</v>
-      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22"/>
       <c r="P22" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="Q22" t="s">
         <v>24</v>
@@ -2429,45 +2430,43 @@
         <v>2024</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23"/>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="P23" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="Q23" t="s">
         <v>24</v>
@@ -2481,51 +2480,49 @@
         <v>2024</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>45511</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" t="n">
+        <v>50</v>
+      </c>
+      <c r="P24" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>45502</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>21</v>
-      </c>
-      <c r="O24"/>
-      <c r="P24" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>24</v>
-      </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2533,32 +2530,30 @@
         <v>2024</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>45502</v>
+        <v>45511</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G25"/>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -2568,10 +2563,10 @@
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="P25" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="s">
         <v>24</v>
@@ -2585,26 +2580,26 @@
         <v>2024</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -2613,17 +2608,17 @@
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
       </c>
       <c r="N26"/>
       <c r="O26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
@@ -2637,26 +2632,26 @@
         <v>2024</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
@@ -2672,10 +2667,10 @@
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q27" t="s">
         <v>24</v>
@@ -2689,26 +2684,26 @@
         <v>2024</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
@@ -2717,17 +2712,17 @@
         <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Q28" t="s">
         <v>24</v>
@@ -2741,45 +2736,45 @@
         <v>2024</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
         <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
-      <c r="N29" t="n">
-        <v>10</v>
-      </c>
-      <c r="O29"/>
+      <c r="N29"/>
+      <c r="O29" t="n">
+        <v>15</v>
+      </c>
       <c r="P29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q29" t="s">
         <v>24</v>
@@ -2793,29 +2788,29 @@
         <v>2024</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
@@ -2826,12 +2821,12 @@
       <c r="M30" t="b">
         <v>0</v>
       </c>
-      <c r="N30" t="n">
-        <v>27</v>
-      </c>
-      <c r="O30"/>
+      <c r="N30"/>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
       <c r="P30" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="s">
         <v>24</v>
@@ -2845,26 +2840,26 @@
         <v>2024</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -2880,10 +2875,10 @@
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="P31" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q31" t="s">
         <v>24</v>
@@ -2897,26 +2892,26 @@
         <v>2024</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -2925,17 +2920,17 @@
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q32" t="s">
         <v>24</v>
@@ -2949,29 +2944,29 @@
         <v>2024</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
@@ -2982,12 +2977,12 @@
       <c r="M33" t="b">
         <v>0</v>
       </c>
-      <c r="N33"/>
-      <c r="O33" t="n">
-        <v>26</v>
-      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33"/>
       <c r="P33" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="s">
         <v>24</v>
@@ -3001,29 +2996,29 @@
         <v>2024</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -3034,12 +3029,12 @@
       <c r="M34" t="b">
         <v>0</v>
       </c>
-      <c r="N34"/>
-      <c r="O34" t="n">
-        <v>12</v>
-      </c>
+      <c r="N34" t="n">
+        <v>21</v>
+      </c>
+      <c r="O34"/>
       <c r="P34" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="s">
         <v>24</v>
@@ -3053,26 +3048,26 @@
         <v>2024</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
@@ -3088,16 +3083,16 @@
       </c>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="P35" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="Q35" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3105,26 +3100,26 @@
         <v>2024</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
@@ -3133,23 +3128,23 @@
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
       <c r="N36"/>
       <c r="O36" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q36" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3157,26 +3152,26 @@
         <v>2024</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
         <v>21</v>
@@ -3185,17 +3180,17 @@
         <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="s">
         <v>24</v>
@@ -3209,26 +3204,26 @@
         <v>2024</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
@@ -3237,17 +3232,17 @@
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="s">
         <v>24</v>
@@ -3261,51 +3256,51 @@
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
-      <c r="N39"/>
-      <c r="O39" t="n">
-        <v>44</v>
-      </c>
+      <c r="N39" t="n">
+        <v>18</v>
+      </c>
+      <c r="O39"/>
       <c r="P39" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q39" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3313,29 +3308,29 @@
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
@@ -3346,12 +3341,12 @@
       <c r="M40" t="b">
         <v>0</v>
       </c>
-      <c r="N40"/>
-      <c r="O40" t="n">
-        <v>4</v>
-      </c>
+      <c r="N40" t="n">
+        <v>14</v>
+      </c>
+      <c r="O40"/>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q40" t="s">
         <v>24</v>
@@ -3365,26 +3360,26 @@
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
         <v>21</v>
@@ -3400,10 +3395,10 @@
       </c>
       <c r="N41"/>
       <c r="O41" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="P41" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="s">
         <v>24</v>
@@ -3417,26 +3412,26 @@
         <v>2024</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
@@ -3452,10 +3447,10 @@
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="s">
         <v>24</v>
@@ -3469,26 +3464,26 @@
         <v>2024</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s">
         <v>21</v>
@@ -3504,16 +3499,16 @@
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P43" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q43" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3521,26 +3516,26 @@
         <v>2024</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
@@ -3556,10 +3551,10 @@
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P44" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Q44" t="s">
         <v>24</v>
@@ -3573,26 +3568,26 @@
         <v>2024</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J45" t="s">
         <v>21</v>
@@ -3601,17 +3596,17 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q45" t="s">
         <v>24</v>
@@ -3625,51 +3620,51 @@
         <v>2024</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46"/>
+      <c r="O46" t="n">
+        <v>50</v>
+      </c>
+      <c r="P46" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" t="n">
         <v>1</v>
-      </c>
-      <c r="O46"/>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3677,29 +3672,29 @@
         <v>2024</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
@@ -3710,12 +3705,12 @@
       <c r="M47" t="b">
         <v>0</v>
       </c>
-      <c r="N47" t="n">
-        <v>6</v>
-      </c>
-      <c r="O47"/>
+      <c r="N47"/>
+      <c r="O47" t="n">
+        <v>11</v>
+      </c>
       <c r="P47" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q47" t="s">
         <v>24</v>
@@ -3729,26 +3724,26 @@
         <v>2024</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J48" t="s">
         <v>21</v>
@@ -3764,16 +3759,16 @@
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P48" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q48" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3781,26 +3776,26 @@
         <v>2024</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
@@ -3816,10 +3811,10 @@
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q49" t="s">
         <v>24</v>
@@ -3833,45 +3828,45 @@
         <v>2024</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s">
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
       </c>
-      <c r="N50"/>
-      <c r="O50" t="n">
-        <v>15</v>
-      </c>
+      <c r="N50" t="n">
+        <v>7</v>
+      </c>
+      <c r="O50"/>
       <c r="P50" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q50" t="s">
         <v>24</v>
@@ -3885,26 +3880,26 @@
         <v>2024</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I51" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J51" t="s">
         <v>21</v>
@@ -3913,17 +3908,17 @@
         <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P51" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q51" t="s">
         <v>24</v>
@@ -3937,26 +3932,26 @@
         <v>2024</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I52" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
@@ -3965,17 +3960,17 @@
         <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="P52" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="Q52" t="s">
         <v>24</v>
@@ -3989,26 +3984,26 @@
         <v>2024</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I53" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
@@ -4017,17 +4012,17 @@
         <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="P53" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="Q53" t="s">
         <v>24</v>
@@ -4041,26 +4036,26 @@
         <v>2024</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I54" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
@@ -4076,16 +4071,16 @@
       </c>
       <c r="N54"/>
       <c r="O54" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="P54" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q54" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4093,26 +4088,26 @@
         <v>2024</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I55" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
@@ -4121,17 +4116,17 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P55" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q55" t="s">
         <v>24</v>
@@ -4145,26 +4140,26 @@
         <v>2024</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I56" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
@@ -4173,17 +4168,17 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="s">
         <v>24</v>
@@ -4197,29 +4192,29 @@
         <v>2024</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I57" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
         <v>22</v>
@@ -4230,12 +4225,12 @@
       <c r="M57" t="b">
         <v>0</v>
       </c>
-      <c r="N57" t="n">
-        <v>47</v>
-      </c>
-      <c r="O57"/>
+      <c r="N57"/>
+      <c r="O57" t="n">
+        <v>5</v>
+      </c>
       <c r="P57" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="s">
         <v>24</v>
@@ -4249,26 +4244,26 @@
         <v>2024</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I58" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
@@ -4284,16 +4279,16 @@
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="Q58" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4301,26 +4296,26 @@
         <v>2024</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I59" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="J59" t="s">
         <v>21</v>
@@ -4336,10 +4331,10 @@
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="s">
         <v>24</v>
@@ -4353,26 +4348,26 @@
         <v>2024</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
@@ -4388,10 +4383,10 @@
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P60" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q60" t="s">
         <v>24</v>
@@ -4405,26 +4400,26 @@
         <v>2024</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I61" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
@@ -4440,10 +4435,10 @@
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="s">
         <v>24</v>
@@ -4457,26 +4452,26 @@
         <v>2024</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -4492,10 +4487,10 @@
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P62" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q62" t="s">
         <v>24</v>
@@ -4509,26 +4504,26 @@
         <v>2024</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
@@ -4537,17 +4532,17 @@
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="s">
         <v>24</v>
@@ -4561,26 +4556,26 @@
         <v>2024</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
@@ -4596,10 +4591,10 @@
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="P64" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="Q64" t="s">
         <v>24</v>
@@ -4613,26 +4608,26 @@
         <v>2024</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
@@ -4648,10 +4643,10 @@
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="s">
         <v>24</v>
@@ -4665,26 +4660,26 @@
         <v>2024</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
@@ -4700,10 +4695,10 @@
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P66" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q66" t="s">
         <v>24</v>
@@ -4717,26 +4712,26 @@
         <v>2024</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
@@ -4752,10 +4747,10 @@
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="P67" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="Q67" t="s">
         <v>24</v>
@@ -4769,26 +4764,26 @@
         <v>2024</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
@@ -4804,10 +4799,10 @@
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="P68" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q68" t="s">
         <v>24</v>
@@ -4821,26 +4816,26 @@
         <v>2024</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H69" t="s">
         <v>137</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
@@ -4856,10 +4851,10 @@
       </c>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q69" t="s">
         <v>24</v>
@@ -4873,26 +4868,26 @@
         <v>2024</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H70" t="s">
         <v>137</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -4908,10 +4903,10 @@
       </c>
       <c r="N70"/>
       <c r="O70" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q70" t="s">
         <v>24</v>
@@ -4925,29 +4920,29 @@
         <v>2024</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s">
         <v>22</v>
@@ -4958,12 +4953,12 @@
       <c r="M71" t="b">
         <v>0</v>
       </c>
-      <c r="N71"/>
-      <c r="O71" t="n">
-        <v>50</v>
-      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71"/>
       <c r="P71" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="s">
         <v>24</v>
@@ -4977,45 +4972,45 @@
         <v>2024</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
       </c>
-      <c r="N72"/>
-      <c r="O72" t="n">
-        <v>50</v>
-      </c>
+      <c r="N72" t="n">
+        <v>18</v>
+      </c>
+      <c r="O72"/>
       <c r="P72" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q72" t="s">
         <v>24</v>
@@ -5029,26 +5024,26 @@
         <v>2024</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H73" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
@@ -5064,10 +5059,10 @@
       </c>
       <c r="N73"/>
       <c r="O73" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="s">
         <v>24</v>
@@ -5085,22 +5080,22 @@
       </c>
       <c r="C74"/>
       <c r="D74" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
@@ -5109,17 +5104,17 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="P74" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="Q74" t="s">
         <v>24</v>
@@ -5137,22 +5132,22 @@
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H75" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -5161,17 +5156,17 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M75" t="b">
         <v>0</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P75" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="s">
         <v>24</v>
@@ -5185,26 +5180,26 @@
         <v>2024</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I76" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
@@ -5220,10 +5215,10 @@
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="P76" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="s">
         <v>24</v>
@@ -5237,26 +5232,26 @@
         <v>2024</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I77" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
@@ -5265,17 +5260,17 @@
         <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="P77" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="Q77" t="s">
         <v>24</v>
@@ -5289,29 +5284,29 @@
         <v>2024</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H78" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I78" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
@@ -5322,12 +5317,12 @@
       <c r="M78" t="b">
         <v>0</v>
       </c>
-      <c r="N78"/>
-      <c r="O78" t="n">
-        <v>9</v>
-      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78"/>
       <c r="P78" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="s">
         <v>24</v>
@@ -5341,29 +5336,29 @@
         <v>2024</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I79" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J79" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s">
         <v>22</v>
@@ -5374,12 +5369,12 @@
       <c r="M79" t="b">
         <v>0</v>
       </c>
-      <c r="N79"/>
-      <c r="O79" t="n">
-        <v>1</v>
-      </c>
+      <c r="N79" t="n">
+        <v>50</v>
+      </c>
+      <c r="O79"/>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q79" t="s">
         <v>24</v>
@@ -5393,51 +5388,51 @@
         <v>2024</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I80" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J80" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
         <v>23</v>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80" t="n">
-        <v>50</v>
-      </c>
+      <c r="O80"/>
       <c r="P80" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Q80" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5449,22 +5444,22 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I81" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J81" t="s">
         <v>21</v>
@@ -5480,10 +5475,10 @@
       </c>
       <c r="N81"/>
       <c r="O81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q81" t="s">
         <v>24</v>
@@ -5497,26 +5492,26 @@
         <v>2024</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I82" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
@@ -5532,10 +5527,10 @@
       </c>
       <c r="N82"/>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q82" t="s">
         <v>24</v>
@@ -5549,26 +5544,26 @@
         <v>2024</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I83" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
@@ -5584,10 +5579,10 @@
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="P83" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="s">
         <v>24</v>
@@ -5601,26 +5596,26 @@
         <v>2024</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I84" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
@@ -5629,17 +5624,17 @@
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M84" t="b">
         <v>0</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P84" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q84" t="s">
         <v>24</v>
@@ -5657,22 +5652,22 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H85" t="s">
         <v>161</v>
       </c>
       <c r="I85" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
@@ -5688,10 +5683,10 @@
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q85" t="s">
         <v>24</v>
@@ -5709,22 +5704,22 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H86" t="s">
         <v>161</v>
       </c>
       <c r="I86" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
@@ -5740,10 +5735,10 @@
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="s">
         <v>24</v>
@@ -5761,22 +5756,22 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H87" t="s">
         <v>164</v>
       </c>
       <c r="I87" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
@@ -5792,10 +5787,10 @@
       </c>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P87" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q87" t="s">
         <v>24</v>
@@ -5813,22 +5808,22 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H88" t="s">
         <v>164</v>
       </c>
       <c r="I88" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J88" t="s">
         <v>21</v>
@@ -5837,17 +5832,17 @@
         <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
       </c>
       <c r="N88"/>
       <c r="O88" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P88" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q88" t="s">
         <v>24</v>
@@ -5865,22 +5860,22 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H89" t="s">
         <v>167</v>
       </c>
       <c r="I89" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
@@ -5889,17 +5884,17 @@
         <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M89" t="b">
         <v>0</v>
       </c>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="s">
         <v>24</v>
@@ -5913,26 +5908,26 @@
         <v>2024</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H90" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I90" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
@@ -5941,23 +5936,23 @@
         <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M90" t="b">
         <v>0</v>
       </c>
       <c r="N90"/>
       <c r="O90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q90" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5965,26 +5960,26 @@
         <v>2024</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H91" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I91" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="J91" t="s">
         <v>21</v>
@@ -6000,10 +5995,10 @@
       </c>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="P91" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Q91" t="s">
         <v>24</v>
@@ -6017,26 +6012,26 @@
         <v>2024</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H92" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I92" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="J92" t="s">
         <v>21</v>
@@ -6052,10 +6047,10 @@
       </c>
       <c r="N92"/>
       <c r="O92" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P92" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q92" t="s">
         <v>24</v>
@@ -6069,43 +6064,43 @@
         <v>2024</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
         <v>22</v>
       </c>
       <c r="L93" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
       </c>
-      <c r="N93" t="n">
+      <c r="N93"/>
+      <c r="O93" t="n">
         <v>50</v>
       </c>
-      <c r="O93"/>
       <c r="P93" t="n">
         <v>50</v>
       </c>
@@ -6121,43 +6116,43 @@
         <v>2024</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H94" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
         <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M94" t="b">
         <v>0</v>
       </c>
-      <c r="N94" t="n">
+      <c r="N94"/>
+      <c r="O94" t="n">
         <v>50</v>
       </c>
-      <c r="O94"/>
       <c r="P94" t="n">
         <v>50</v>
       </c>
@@ -6173,45 +6168,45 @@
         <v>2024</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H95" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
         <v>22</v>
       </c>
       <c r="L95" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M95" t="b">
         <v>0</v>
       </c>
-      <c r="N95" t="n">
-        <v>48</v>
-      </c>
-      <c r="O95"/>
+      <c r="N95"/>
+      <c r="O95" t="n">
+        <v>50</v>
+      </c>
       <c r="P95" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q95" t="s">
         <v>24</v>
@@ -6225,26 +6220,26 @@
         <v>2024</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I96" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J96" t="s">
         <v>21</v>
@@ -6260,16 +6255,16 @@
       </c>
       <c r="N96"/>
       <c r="O96" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="P96" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="Q96" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -6277,26 +6272,26 @@
         <v>2024</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H97" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J97" t="s">
         <v>21</v>
@@ -6312,10 +6307,10 @@
       </c>
       <c r="N97"/>
       <c r="O97" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P97" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q97" t="s">
         <v>24</v>
@@ -6333,22 +6328,22 @@
       </c>
       <c r="C98"/>
       <c r="D98" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I98" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J98" t="s">
         <v>21</v>
@@ -6385,25 +6380,25 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H99" t="s">
         <v>182</v>
       </c>
       <c r="I99" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
         <v>22</v>
@@ -6414,12 +6409,12 @@
       <c r="M99" t="b">
         <v>0</v>
       </c>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99"/>
+      <c r="N99"/>
+      <c r="O99" t="n">
+        <v>46</v>
+      </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Q99" t="s">
         <v>24</v>
@@ -6437,41 +6432,41 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I100" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K100" t="s">
         <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M100" t="b">
         <v>0</v>
       </c>
-      <c r="N100" t="n">
-        <v>42</v>
-      </c>
-      <c r="O100"/>
+      <c r="N100"/>
+      <c r="O100" t="n">
+        <v>39</v>
+      </c>
       <c r="P100" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q100" t="s">
         <v>24</v>
@@ -6485,26 +6480,26 @@
         <v>2024</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I101" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
@@ -6513,17 +6508,17 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
       </c>
       <c r="N101"/>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P101" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q101" t="s">
         <v>24</v>
@@ -6541,22 +6536,22 @@
       </c>
       <c r="C102"/>
       <c r="D102" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I102" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J102" t="s">
         <v>21</v>
@@ -6565,17 +6560,17 @@
         <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M102" t="b">
         <v>0</v>
       </c>
       <c r="N102"/>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q102" t="s">
         <v>24</v>
@@ -6589,26 +6584,26 @@
         <v>2024</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I103" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="J103" t="s">
         <v>21</v>
@@ -6641,26 +6636,26 @@
         <v>2024</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="J104" t="s">
         <v>21</v>
@@ -6676,16 +6671,16 @@
       </c>
       <c r="N104"/>
       <c r="O104" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P104" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="Q104" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6693,26 +6688,26 @@
         <v>2024</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I105" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="J105" t="s">
         <v>21</v>
@@ -6721,17 +6716,17 @@
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
       </c>
       <c r="N105"/>
       <c r="O105" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="P105" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="Q105" t="s">
         <v>24</v>
@@ -6745,26 +6740,26 @@
         <v>2024</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H106" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I106" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="J106" t="s">
         <v>21</v>
@@ -6773,17 +6768,17 @@
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
       </c>
       <c r="N106"/>
       <c r="O106" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="P106" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Q106" t="s">
         <v>24</v>
@@ -6797,26 +6792,26 @@
         <v>2024</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H107" t="s">
         <v>193</v>
       </c>
       <c r="I107" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J107" t="s">
         <v>21</v>
@@ -6832,10 +6827,10 @@
       </c>
       <c r="N107"/>
       <c r="O107" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P107" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q107" t="s">
         <v>24</v>
@@ -6849,26 +6844,26 @@
         <v>2024</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H108" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I108" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="J108" t="s">
         <v>21</v>
@@ -6877,7 +6872,7 @@
         <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
@@ -6901,26 +6896,26 @@
         <v>2024</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H109" t="s">
         <v>196</v>
       </c>
       <c r="I109" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J109" t="s">
         <v>21</v>
@@ -6929,17 +6924,17 @@
         <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
       </c>
       <c r="N109"/>
       <c r="O109" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P109" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q109" t="s">
         <v>24</v>
@@ -6957,41 +6952,41 @@
       </c>
       <c r="C110"/>
       <c r="D110" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H110" t="s">
         <v>199</v>
       </c>
       <c r="I110" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J110" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K110" t="s">
         <v>22</v>
       </c>
       <c r="L110" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
       </c>
-      <c r="N110"/>
-      <c r="O110" t="n">
-        <v>11</v>
-      </c>
+      <c r="N110" t="n">
+        <v>37</v>
+      </c>
+      <c r="O110"/>
       <c r="P110" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="Q110" t="s">
         <v>24</v>
@@ -7009,22 +7004,22 @@
       </c>
       <c r="C111"/>
       <c r="D111" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H111" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I111" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J111" t="s">
         <v>21</v>
@@ -7033,17 +7028,17 @@
         <v>22</v>
       </c>
       <c r="L111" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M111" t="b">
         <v>0</v>
       </c>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P111" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q111" t="s">
         <v>24</v>
@@ -7057,26 +7052,26 @@
         <v>2024</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I112" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
@@ -7085,17 +7080,17 @@
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
       </c>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P112" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q112" t="s">
         <v>24</v>
@@ -7113,22 +7108,22 @@
       </c>
       <c r="C113"/>
       <c r="D113" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H113" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I113" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J113" t="s">
         <v>21</v>
@@ -7137,7 +7132,7 @@
         <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M113" t="b">
         <v>0</v>
@@ -7150,10 +7145,10 @@
         <v>2</v>
       </c>
       <c r="Q113" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -7161,26 +7156,26 @@
         <v>2024</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C114"/>
       <c r="D114" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J114" t="s">
         <v>21</v>
@@ -7189,17 +7184,17 @@
         <v>22</v>
       </c>
       <c r="L114" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
       </c>
       <c r="N114"/>
       <c r="O114" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P114" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q114" t="s">
         <v>24</v>
@@ -7217,22 +7212,22 @@
       </c>
       <c r="C115"/>
       <c r="D115" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H115" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J115" t="s">
         <v>21</v>
@@ -7241,17 +7236,17 @@
         <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M115" t="b">
         <v>0</v>
       </c>
       <c r="N115"/>
       <c r="O115" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P115" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q115" t="s">
         <v>24</v>
@@ -7265,26 +7260,26 @@
         <v>2024</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C116"/>
       <c r="D116" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I116" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J116" t="s">
         <v>21</v>
@@ -7293,17 +7288,17 @@
         <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M116" t="b">
         <v>0</v>
       </c>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P116" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q116" t="s">
         <v>24</v>
@@ -7321,25 +7316,25 @@
       </c>
       <c r="C117"/>
       <c r="D117" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H117" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I117" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J117" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K117" t="s">
         <v>22</v>
@@ -7350,12 +7345,12 @@
       <c r="M117" t="b">
         <v>0</v>
       </c>
-      <c r="N117"/>
-      <c r="O117" t="n">
-        <v>1</v>
-      </c>
+      <c r="N117" t="n">
+        <v>14</v>
+      </c>
+      <c r="O117"/>
       <c r="P117" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q117" t="s">
         <v>24</v>
@@ -7369,26 +7364,26 @@
         <v>2024</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J118" t="s">
         <v>21</v>
@@ -7404,10 +7399,10 @@
       </c>
       <c r="N118"/>
       <c r="O118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q118" t="s">
         <v>24</v>
@@ -7421,26 +7416,26 @@
         <v>2024</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C119"/>
       <c r="D119" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J119" t="s">
         <v>21</v>
@@ -7473,45 +7468,45 @@
         <v>2024</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I120" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J120" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K120" t="s">
         <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M120" t="b">
         <v>0</v>
       </c>
-      <c r="N120" t="n">
-        <v>50</v>
-      </c>
-      <c r="O120"/>
+      <c r="N120"/>
+      <c r="O120" t="n">
+        <v>4</v>
+      </c>
       <c r="P120" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="Q120" t="s">
         <v>24</v>
@@ -7525,26 +7520,26 @@
         <v>2024</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I121" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="J121" t="s">
         <v>21</v>
@@ -7560,10 +7555,10 @@
       </c>
       <c r="N121"/>
       <c r="O121" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P121" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q121" t="s">
         <v>24</v>
@@ -7577,29 +7572,29 @@
         <v>2024</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H122" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I122" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K122" t="s">
         <v>22</v>
@@ -7610,18 +7605,18 @@
       <c r="M122" t="b">
         <v>0</v>
       </c>
-      <c r="N122"/>
-      <c r="O122" t="n">
-        <v>5</v>
-      </c>
+      <c r="N122" t="n">
+        <v>21</v>
+      </c>
+      <c r="O122"/>
       <c r="P122" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q122" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -7629,26 +7624,26 @@
         <v>2024</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H123" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I123" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J123" t="s">
         <v>21</v>
@@ -7664,10 +7659,10 @@
       </c>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P123" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q123" t="s">
         <v>24</v>
@@ -7681,26 +7676,26 @@
         <v>2024</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C124"/>
       <c r="D124" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H124" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I124" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J124" t="s">
         <v>21</v>
@@ -7716,10 +7711,10 @@
       </c>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P124" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q124" t="s">
         <v>24</v>
@@ -7733,26 +7728,26 @@
         <v>2024</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H125" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I125" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="J125" t="s">
         <v>21</v>
@@ -7768,10 +7763,10 @@
       </c>
       <c r="N125"/>
       <c r="O125" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P125" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q125" t="s">
         <v>24</v>
@@ -7785,26 +7780,26 @@
         <v>2024</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C126"/>
       <c r="D126" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H126" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I126" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="J126" t="s">
         <v>21</v>
@@ -7820,10 +7815,10 @@
       </c>
       <c r="N126"/>
       <c r="O126" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P126" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q126" t="s">
         <v>24</v>
@@ -7837,45 +7832,45 @@
         <v>2024</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C127"/>
       <c r="D127" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H127" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I127" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K127" t="s">
         <v>22</v>
       </c>
       <c r="L127" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
       </c>
-      <c r="N127" t="n">
-        <v>44</v>
-      </c>
-      <c r="O127"/>
+      <c r="N127"/>
+      <c r="O127" t="n">
+        <v>6</v>
+      </c>
       <c r="P127" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="Q127" t="s">
         <v>24</v>
@@ -7889,26 +7884,26 @@
         <v>2024</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C128"/>
       <c r="D128" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H128" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I128" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J128" t="s">
         <v>21</v>
@@ -7924,10 +7919,10 @@
       </c>
       <c r="N128"/>
       <c r="O128" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="P128" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="Q128" t="s">
         <v>24</v>
@@ -7941,26 +7936,26 @@
         <v>2024</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I129" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J129" t="s">
         <v>21</v>
@@ -7976,10 +7971,10 @@
       </c>
       <c r="N129"/>
       <c r="O129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q129" t="s">
         <v>24</v>
@@ -7993,26 +7988,26 @@
         <v>2024</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I130" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J130" t="s">
         <v>21</v>
@@ -8028,15 +8023,327 @@
       </c>
       <c r="N130"/>
       <c r="O130" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P130" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q130" t="s">
         <v>24</v>
       </c>
       <c r="R130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B131" t="s">
+        <v>233</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131" t="n">
+        <v>32</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>45512</v>
+      </c>
+      <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" t="s">
+        <v>232</v>
+      </c>
+      <c r="I131" t="s">
+        <v>168</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" t="s">
+        <v>42</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131"/>
+      <c r="O131" t="n">
+        <v>10</v>
+      </c>
+      <c r="P131" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>24</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B132" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132" t="n">
+        <v>32</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>45512</v>
+      </c>
+      <c r="F132" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
+        <v>68</v>
+      </c>
+      <c r="H132" t="s">
+        <v>235</v>
+      </c>
+      <c r="I132" t="s">
+        <v>168</v>
+      </c>
+      <c r="J132" t="s">
+        <v>79</v>
+      </c>
+      <c r="K132" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132" t="s">
+        <v>42</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>16</v>
+      </c>
+      <c r="O132"/>
+      <c r="P132" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>24</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B133" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133" t="n">
+        <v>32</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>45512</v>
+      </c>
+      <c r="F133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" t="s">
+        <v>237</v>
+      </c>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+      <c r="J133" t="s">
+        <v>21</v>
+      </c>
+      <c r="K133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133" t="s">
+        <v>23</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133" t="n">
+        <v>5</v>
+      </c>
+      <c r="P133" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>24</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134" t="n">
+        <v>32</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>45512</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
+        <v>68</v>
+      </c>
+      <c r="H134" t="s">
+        <v>237</v>
+      </c>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+      <c r="J134" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134" t="s">
+        <v>42</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134" t="n">
+        <v>2</v>
+      </c>
+      <c r="P134" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>24</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B135" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135" t="n">
+        <v>32</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>45512</v>
+      </c>
+      <c r="F135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" t="s">
+        <v>68</v>
+      </c>
+      <c r="H135" t="s">
+        <v>240</v>
+      </c>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+      <c r="J135" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" t="s">
+        <v>23</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+      <c r="N135"/>
+      <c r="O135" t="n">
+        <v>14</v>
+      </c>
+      <c r="P135" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>24</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B136" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136" t="n">
+        <v>32</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>45512</v>
+      </c>
+      <c r="F136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136" t="s">
+        <v>68</v>
+      </c>
+      <c r="H136" t="s">
+        <v>240</v>
+      </c>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+      <c r="J136" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" t="s">
+        <v>42</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+      <c r="N136"/>
+      <c r="O136" t="n">
+        <v>9</v>
+      </c>
+      <c r="P136" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>24</v>
+      </c>
+      <c r="R136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8056,144 +8363,144 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="I1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
-        <v>5.33</v>
+        <v>15.75</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15.75</v>
       </c>
       <c r="D2" t="n">
-        <v>18.33</v>
+        <v>31.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0145</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0103015873015873</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.0961</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.2284</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.3245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1</v>
+        <v>8.2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.3</v>
+        <v>27.9</v>
       </c>
       <c r="D3" t="n">
-        <v>29.4</v>
+        <v>36.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.0151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0044</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00348639455782313</v>
+        <v>0.00342936288088643</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.1238</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1025</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1025</v>
+        <v>0.1238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B4" t="n">
-        <v>5.87</v>
+        <v>8.2</v>
       </c>
       <c r="C4" t="n">
-        <v>37.33</v>
+        <v>14.87</v>
       </c>
       <c r="D4" t="n">
-        <v>43.2</v>
+        <v>23.07</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00492592592592593</v>
+        <v>0.00312960554833117</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0722</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2128</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2128</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B5" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="C5" t="n">
-        <v>8.78</v>
+        <v>6.62</v>
       </c>
       <c r="D5" t="n">
-        <v>12.22</v>
+        <v>10.12</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -8216,98 +8523,98 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B6" t="n">
-        <v>5.3</v>
+        <v>8.76</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>16.61</v>
       </c>
       <c r="D6" t="n">
-        <v>28.3</v>
+        <v>25.37</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0043</v>
+        <v>0.0029</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00349469964664311</v>
+        <v>0.00507686243594797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0806</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0989</v>
+        <v>0.0482</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0989</v>
+        <v>0.1288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B7" t="n">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="C7" t="n">
-        <v>43.83</v>
+        <v>50.5</v>
       </c>
       <c r="D7" t="n">
-        <v>46.16</v>
+        <v>53.17</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0035</v>
+        <v>0.0072</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00332322357019064</v>
+        <v>0.00683844273086327</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1534</v>
+        <v>0.3636</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1534</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>1.1</v>
+        <v>8.8</v>
       </c>
       <c r="C8" t="n">
-        <v>32.3</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>33.4</v>
+        <v>64.8</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0129</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0031</v>
+        <v>0.0018</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00299700598802395</v>
+        <v>0.0033070987654321</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1135</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1001</v>
+        <v>0.1008</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1001</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="9">
@@ -8316,26 +8623,26 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>34.4</v>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>34.4</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.00609883720930233</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.2098</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.2098</v>
       </c>
     </row>
   </sheetData>
@@ -8354,55 +8661,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="L1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="O1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="Q1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
@@ -8878,35 +9185,51 @@
       <c r="A11" t="n">
         <v>32</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>0.3245</v>
+      </c>
       <c r="C11" t="n">
         <v>0.187577777777778</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="n">
+        <v>0.1238</v>
+      </c>
       <c r="E11" t="n">
         <v>0.219</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" t="n">
+        <v>0.0722</v>
+      </c>
       <c r="G11" t="n">
         <v>0.226222222222222</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" t="n">
         <v>0.165577777777778</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="n">
+        <v>0.1288</v>
+      </c>
       <c r="K11" t="n">
         <v>0.214766666666667</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="n">
+        <v>0.3636</v>
+      </c>
       <c r="M11" t="n">
         <v>0.2886</v>
       </c>
-      <c r="N11"/>
+      <c r="N11" t="n">
+        <v>0.2143</v>
+      </c>
       <c r="O11" t="n">
         <v>0.4356</v>
       </c>
-      <c r="P11"/>
+      <c r="P11" t="n">
+        <v>0.2098</v>
+      </c>
       <c r="Q11" t="n">
         <v>0.1336</v>
       </c>
@@ -9106,210 +9429,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C2" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>5.33</v>
+        <v>15.75</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>15.75</v>
       </c>
       <c r="H2" t="n">
-        <v>18.33</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="D3" t="n">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>6.1</v>
+        <v>8.2</v>
       </c>
       <c r="G3" t="n">
-        <v>23.3</v>
+        <v>27.9</v>
       </c>
       <c r="H3" t="n">
-        <v>29.4</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C4" t="n">
-        <v>560</v>
+        <v>223</v>
       </c>
       <c r="D4" t="n">
-        <v>648</v>
+        <v>346</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>5.87</v>
+        <v>8.2</v>
       </c>
       <c r="G4" t="n">
-        <v>37.33</v>
+        <v>14.87</v>
       </c>
       <c r="H4" t="n">
-        <v>43.2</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>8.78</v>
+        <v>6.62</v>
       </c>
       <c r="H5" t="n">
-        <v>12.22</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B6" t="n">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="C6" t="n">
-        <v>989</v>
+        <v>681</v>
       </c>
       <c r="D6" t="n">
-        <v>1217</v>
+        <v>1040</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>5.3</v>
+        <v>8.76</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>16.61</v>
       </c>
       <c r="H6" t="n">
-        <v>28.3</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="G7" t="n">
-        <v>43.83</v>
+        <v>50.5</v>
       </c>
       <c r="H7" t="n">
-        <v>46.16</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C8" t="n">
-        <v>323</v>
+        <v>560</v>
       </c>
       <c r="D8" t="n">
-        <v>334</v>
+        <v>648</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1</v>
+        <v>8.8</v>
       </c>
       <c r="G8" t="n">
-        <v>32.3</v>
+        <v>56</v>
       </c>
       <c r="H8" t="n">
-        <v>33.4</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="9">
@@ -9320,20 +9643,20 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="D9" t="n">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>34.4</v>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>34.4</v>
       </c>
     </row>
   </sheetData>
@@ -9352,55 +9675,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="N1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="O1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="P1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
@@ -9876,35 +10199,51 @@
       <c r="A11" t="n">
         <v>32</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>31.5</v>
+      </c>
       <c r="C11" t="n">
         <v>35.9255555555556</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="n">
+        <v>36.1</v>
+      </c>
       <c r="E11" t="n">
         <v>84.4</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" t="n">
+        <v>23.07</v>
+      </c>
       <c r="G11" t="n">
         <v>47.0155555555556</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" t="n">
+        <v>10.12</v>
+      </c>
       <c r="I11" t="n">
         <v>23.95</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="n">
+        <v>25.37</v>
+      </c>
       <c r="K11" t="n">
         <v>48.5611111111111</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="n">
+        <v>53.17</v>
+      </c>
       <c r="M11" t="n">
         <v>59.9455555555556</v>
       </c>
-      <c r="N11"/>
+      <c r="N11" t="n">
+        <v>64.8</v>
+      </c>
       <c r="O11" t="n">
         <v>61.9071428571429</v>
       </c>
-      <c r="P11"/>
+      <c r="P11" t="n">
+        <v>34.4</v>
+      </c>
       <c r="Q11" t="n">
         <v>30.1833333333333</v>
       </c>
@@ -10104,189 +10443,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="K1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="L1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10.3015873015873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C3" t="n">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="D3" t="n">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
         <v>13</v>
       </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.48639455782313</v>
+        <v>3.42936288088643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B4" t="n">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="C4" t="n">
-        <v>561</v>
+        <v>227</v>
       </c>
       <c r="D4" t="n">
-        <v>752</v>
+        <v>462</v>
       </c>
       <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
         <v>17</v>
       </c>
-      <c r="F4" t="n">
-        <v>21</v>
-      </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8.8</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.92592592592593</v>
+        <v>3.12960554833117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B5" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -10309,125 +10648,125 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B6" t="n">
-        <v>677</v>
+        <v>598</v>
       </c>
       <c r="C6" t="n">
-        <v>992</v>
+        <v>687</v>
       </c>
       <c r="D6" t="n">
-        <v>1669</v>
+        <v>1285</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="M6" t="n">
-        <v>3.49469964664311</v>
+        <v>5.07686243594797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
-        <v>3.32322357019064</v>
+        <v>6.83844273086327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C8" t="n">
-        <v>323</v>
+        <v>560</v>
       </c>
       <c r="D8" t="n">
-        <v>334</v>
+        <v>648</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M8" t="n">
-        <v>2.99700598802395</v>
+        <v>3.3070987654321</v>
       </c>
     </row>
     <row r="9">
@@ -10438,10 +10777,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="D9" t="n">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10456,17 +10795,17 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.09883720930233</v>
       </c>
     </row>
   </sheetData>
@@ -10485,55 +10824,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="H1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="M1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="N1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="O1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="P1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
@@ -11009,35 +11348,51 @@
       <c r="A11" t="n">
         <v>32</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>10.3015873015873</v>
+      </c>
       <c r="C11" t="n">
         <v>5.92145171877057</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="n">
+        <v>3.42936288088643</v>
+      </c>
       <c r="E11" t="n">
         <v>3.24396578536631</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" t="n">
+        <v>3.12960554833117</v>
+      </c>
       <c r="G11" t="n">
         <v>5.29979652721352</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" t="n">
         <v>9.96643293773782</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="n">
+        <v>5.07686243594797</v>
+      </c>
       <c r="K11" t="n">
         <v>4.94243358988684</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="n">
+        <v>6.83844273086327</v>
+      </c>
       <c r="M11" t="n">
         <v>5.20509221097804</v>
       </c>
-      <c r="N11"/>
+      <c r="N11" t="n">
+        <v>3.3070987654321</v>
+      </c>
       <c r="O11" t="n">
         <v>5.21545343724793</v>
       </c>
-      <c r="P11"/>
+      <c r="P11" t="n">
+        <v>6.09883720930233</v>
+      </c>
       <c r="Q11" t="n">
         <v>4.06675527987003</v>
       </c>

--- a/data_output/weekly_report_output.xlsx
+++ b/data_output/weekly_report_output.xlsx
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Test Code (CSU Enters)</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00236</t>
+    <t xml:space="preserve">BOU-00241</t>
   </si>
   <si>
     <t xml:space="preserve">BC</t>
@@ -95,118 +95,103 @@
     <t xml:space="preserve">Negative</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOU-00238</t>
+    <t xml:space="preserve">BOU-00242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOU-00243</t>
   </si>
   <si>
     <t xml:space="preserve">BC-26</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00239</t>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOU-00244</t>
   </si>
   <si>
     <t xml:space="preserve">BC-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOU-00240</t>
+    <t xml:space="preserve">BOU-00245</t>
   </si>
   <si>
     <t xml:space="preserve">BC-14</t>
   </si>
   <si>
-    <t xml:space="preserve">CDC-151</t>
+    <t xml:space="preserve">CDC-180</t>
   </si>
   <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
+    <t xml:space="preserve">BE-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-174</t>
+  </si>
+  <si>
     <t xml:space="preserve">BE-001</t>
   </si>
   <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-153</t>
+    <t xml:space="preserve">CDC-175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-178</t>
   </si>
   <si>
     <t xml:space="preserve">BE-005</t>
   </si>
   <si>
-    <t xml:space="preserve">Pipiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22571</t>
+    <t xml:space="preserve">CDC-179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22682</t>
   </si>
   <si>
     <t xml:space="preserve">LV</t>
@@ -215,13 +200,19 @@
     <t xml:space="preserve">LV-069</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22572</t>
+    <t xml:space="preserve">CSU-22683</t>
   </si>
   <si>
     <t xml:space="preserve">LV-095</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22573</t>
+    <t xml:space="preserve">CSU-22684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22686</t>
   </si>
   <si>
     <t xml:space="preserve">FC</t>
@@ -233,25 +224,49 @@
     <t xml:space="preserve">NE</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22576</t>
+    <t xml:space="preserve">CSU-22687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22689</t>
   </si>
   <si>
     <t xml:space="preserve">FC-034</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22577</t>
+    <t xml:space="preserve">CSU-22690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22691</t>
   </si>
   <si>
     <t xml:space="preserve">FC-069</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22578</t>
+    <t xml:space="preserve">CSU-22692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22696</t>
   </si>
   <si>
     <t xml:space="preserve">FC-040GR</t>
@@ -260,265 +275,361 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22584</t>
+    <t xml:space="preserve">CSU-22697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22699</t>
   </si>
   <si>
     <t xml:space="preserve">FC-092GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22585</t>
+    <t xml:space="preserve">CSU-22700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22705</t>
   </si>
   <si>
     <t xml:space="preserve">FC-091GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22588</t>
+    <t xml:space="preserve">CSU-22706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-066GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22709</t>
   </si>
   <si>
     <t xml:space="preserve">FC-067</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-066GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22601</t>
+    <t xml:space="preserve">CSU-22710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22711</t>
   </si>
   <si>
     <t xml:space="preserve">LV-104</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22603</t>
+    <t xml:space="preserve">CSU-22712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22714</t>
   </si>
   <si>
     <t xml:space="preserve">LV-089</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22605</t>
+    <t xml:space="preserve">CSU-22715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22718</t>
   </si>
   <si>
     <t xml:space="preserve">LV-110</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22608</t>
+    <t xml:space="preserve">CSU-22719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-075GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22721</t>
   </si>
   <si>
     <t xml:space="preserve">FC-064</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22609</t>
+    <t xml:space="preserve">CSU-22722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22724</t>
   </si>
   <si>
     <t xml:space="preserve">FC-053</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22611</t>
+    <t xml:space="preserve">CSU-22725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22727</t>
   </si>
   <si>
     <t xml:space="preserve">FC-075</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22614</t>
+    <t xml:space="preserve">CSU-22728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22731</t>
   </si>
   <si>
     <t xml:space="preserve">FC-004</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-075GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22620</t>
+    <t xml:space="preserve">CSU-22732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22735</t>
   </si>
   <si>
     <t xml:space="preserve">FC-059</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22623</t>
+    <t xml:space="preserve">CSU-22736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22739</t>
   </si>
   <si>
     <t xml:space="preserve">FC-088GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22630</t>
+    <t xml:space="preserve">CSU-22740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22746</t>
   </si>
   <si>
     <t xml:space="preserve">FC-031</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22632</t>
+    <t xml:space="preserve">CSU-22747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22748</t>
   </si>
   <si>
     <t xml:space="preserve">FC-047</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22634</t>
+    <t xml:space="preserve">CSU-22749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-090GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-063GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22775</t>
   </si>
   <si>
     <t xml:space="preserve">FC-058</t>
@@ -527,223 +638,112 @@
     <t xml:space="preserve">SW</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WC-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-090GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-063GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22663</t>
+    <t xml:space="preserve">CSU-22776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22779</t>
   </si>
   <si>
     <t xml:space="preserve">FC-063</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22666</t>
+    <t xml:space="preserve">CSU-22780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22783</t>
   </si>
   <si>
     <t xml:space="preserve">FC-054</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22667</t>
+    <t xml:space="preserve">CSU-22784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22789</t>
   </si>
   <si>
     <t xml:space="preserve">FC-029GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22673</t>
+    <t xml:space="preserve">CSU-22790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22792</t>
   </si>
   <si>
     <t xml:space="preserve">FC-062</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22677</t>
+    <t xml:space="preserve">CSU-22793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22796</t>
   </si>
   <si>
     <t xml:space="preserve">FC-089GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22680</t>
+    <t xml:space="preserve">CSU-22797</t>
   </si>
   <si>
     <t xml:space="preserve">FC-037</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22681</t>
+    <t xml:space="preserve">CSU-22798</t>
   </si>
   <si>
     <t xml:space="preserve">zone</t>
@@ -1364,10 +1364,10 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -1418,10 +1418,10 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -1472,10 +1472,10 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>49</v>
+      </c>
+      <c r="P4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1522,14 +1522,14 @@
         <v>2024</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1538,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -1559,16 +1559,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="P5" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1580,10 +1580,10 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -1634,10 +1634,10 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -1663,10 +1663,10 @@
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P7" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -1684,10 +1684,10 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1711,12 +1711,12 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="N8"/>
-      <c r="O8" t="n">
-        <v>50</v>
-      </c>
+      <c r="N8" t="n">
+        <v>33</v>
+      </c>
+      <c r="O8"/>
       <c r="P8" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
@@ -1734,17 +1734,17 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
@@ -1756,17 +1756,17 @@
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="N9"/>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
+      <c r="N9" t="n">
+        <v>37</v>
+      </c>
+      <c r="O9"/>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1780,21 +1780,21 @@
         <v>2024</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
@@ -1806,17 +1806,17 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10"/>
+      <c r="N10"/>
+      <c r="O10" t="n">
+        <v>13</v>
+      </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
@@ -1830,21 +1830,21 @@
         <v>2024</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -1863,10 +1863,10 @@
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
@@ -1884,17 +1884,17 @@
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
@@ -1906,17 +1906,17 @@
         <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="s">
         <v>24</v>
@@ -1934,17 +1934,17 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -1961,18 +1961,18 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-      <c r="N13"/>
-      <c r="O13" t="n">
-        <v>9</v>
-      </c>
+      <c r="N13" t="n">
+        <v>23</v>
+      </c>
+      <c r="O13"/>
       <c r="P13" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1980,21 +1980,21 @@
         <v>2024</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -2013,10 +2013,10 @@
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="s">
         <v>24</v>
@@ -2034,17 +2034,17 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
@@ -2061,12 +2061,12 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15"/>
+      <c r="N15"/>
+      <c r="O15" t="n">
+        <v>50</v>
+      </c>
       <c r="P15" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q15" t="s">
         <v>24</v>
@@ -2080,21 +2080,21 @@
         <v>2024</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
@@ -2106,17 +2106,17 @@
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
         <v>24</v>
@@ -2130,21 +2130,21 @@
         <v>2024</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
@@ -2156,17 +2156,17 @@
         <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="s">
         <v>24</v>
@@ -2180,21 +2180,21 @@
         <v>2024</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
@@ -2206,17 +2206,17 @@
         <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="s">
         <v>24</v>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -2261,10 +2261,10 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19"/>
+      <c r="O19" t="n">
         <v>4</v>
       </c>
-      <c r="O19"/>
       <c r="P19" t="n">
         <v>4</v>
       </c>
@@ -2280,21 +2280,21 @@
         <v>2024</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
         <v>37</v>
@@ -2306,17 +2306,17 @@
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20"/>
+      <c r="N20"/>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="s">
         <v>24</v>
@@ -2334,45 +2334,47 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
-      <c r="G21"/>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2380,30 +2382,32 @@
         <v>2024</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="G22"/>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2411,12 +2415,12 @@
       <c r="M22" t="b">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>7</v>
-      </c>
-      <c r="O22"/>
+      <c r="N22"/>
+      <c r="O22" t="n">
+        <v>50</v>
+      </c>
       <c r="P22" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Q22" t="s">
         <v>24</v>
@@ -2430,30 +2434,32 @@
         <v>2024</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="G23"/>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2463,10 +2469,10 @@
       </c>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="s">
         <v>24</v>
@@ -2480,49 +2486,51 @@
         <v>2024</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="F24" t="s">
         <v>35</v>
       </c>
-      <c r="G24"/>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,30 +2538,32 @@
         <v>2024</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="F25" t="s">
         <v>35</v>
       </c>
-      <c r="G25"/>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -2563,10 +2573,10 @@
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="Q25" t="s">
         <v>24</v>
@@ -2580,26 +2590,26 @@
         <v>2024</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F26" t="s">
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -2615,10 +2625,10 @@
       </c>
       <c r="N26"/>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
@@ -2632,26 +2642,26 @@
         <v>2024</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
@@ -2660,17 +2670,17 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="s">
         <v>24</v>
@@ -2684,26 +2694,26 @@
         <v>2024</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F28" t="s">
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
@@ -2719,10 +2729,10 @@
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="P28" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="Q28" t="s">
         <v>24</v>
@@ -2736,26 +2746,26 @@
         <v>2024</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
@@ -2764,17 +2774,17 @@
         <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="s">
         <v>24</v>
@@ -2788,26 +2798,26 @@
         <v>2024</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
@@ -2816,17 +2826,17 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="s">
         <v>24</v>
@@ -2840,26 +2850,26 @@
         <v>2024</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -2875,10 +2885,10 @@
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P31" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="s">
         <v>24</v>
@@ -2892,26 +2902,26 @@
         <v>2024</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -2920,17 +2930,17 @@
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P32" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="s">
         <v>24</v>
@@ -2944,29 +2954,29 @@
         <v>2024</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
@@ -2977,12 +2987,12 @@
       <c r="M33" t="b">
         <v>0</v>
       </c>
-      <c r="N33" t="n">
-        <v>2</v>
-      </c>
-      <c r="O33"/>
+      <c r="N33"/>
+      <c r="O33" t="n">
+        <v>24</v>
+      </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q33" t="s">
         <v>24</v>
@@ -2996,45 +3006,45 @@
         <v>2024</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F34" t="s">
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
-      <c r="N34" t="n">
-        <v>21</v>
-      </c>
-      <c r="O34"/>
+      <c r="N34"/>
+      <c r="O34" t="n">
+        <v>24</v>
+      </c>
       <c r="P34" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="s">
         <v>24</v>
@@ -3048,45 +3058,45 @@
         <v>2024</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F35" t="s">
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s">
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
-      <c r="N35"/>
-      <c r="O35" t="n">
-        <v>27</v>
-      </c>
+      <c r="N35" t="n">
+        <v>40</v>
+      </c>
+      <c r="O35"/>
       <c r="P35" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q35" t="s">
         <v>24</v>
@@ -3100,26 +3110,26 @@
         <v>2024</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F36" t="s">
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
@@ -3128,23 +3138,23 @@
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
       <c r="N36"/>
       <c r="O36" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P36" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q36" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3152,26 +3162,26 @@
         <v>2024</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F37" t="s">
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J37" t="s">
         <v>21</v>
@@ -3180,23 +3190,23 @@
         <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Q37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3204,45 +3214,45 @@
         <v>2024</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
-      <c r="N38"/>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38"/>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="s">
         <v>24</v>
@@ -3256,51 +3266,51 @@
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F39" t="s">
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Q39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3308,45 +3318,45 @@
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F40" t="s">
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
-      <c r="N40" t="n">
-        <v>14</v>
-      </c>
-      <c r="O40"/>
+      <c r="N40"/>
+      <c r="O40" t="n">
+        <v>29</v>
+      </c>
       <c r="P40" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Q40" t="s">
         <v>24</v>
@@ -3360,26 +3370,26 @@
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F41" t="s">
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H41" t="s">
         <v>92</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
         <v>21</v>
@@ -3388,17 +3398,17 @@
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="Q41" t="s">
         <v>24</v>
@@ -3412,26 +3422,26 @@
         <v>2024</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F42" t="s">
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
@@ -3440,17 +3450,17 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P42" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q42" t="s">
         <v>24</v>
@@ -3464,26 +3474,26 @@
         <v>2024</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F43" t="s">
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
         <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
         <v>21</v>
@@ -3492,17 +3502,17 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q43" t="s">
         <v>24</v>
@@ -3516,45 +3526,45 @@
         <v>2024</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F44" t="s">
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
       </c>
-      <c r="N44"/>
-      <c r="O44" t="n">
-        <v>50</v>
-      </c>
+      <c r="N44" t="n">
+        <v>10</v>
+      </c>
+      <c r="O44"/>
       <c r="P44" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q44" t="s">
         <v>24</v>
@@ -3572,47 +3582,47 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F45" t="s">
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H45" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
-      <c r="N45"/>
-      <c r="O45" t="n">
-        <v>8</v>
-      </c>
+      <c r="N45" t="n">
+        <v>37</v>
+      </c>
+      <c r="O45"/>
       <c r="P45" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="Q45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3620,26 +3630,26 @@
         <v>2024</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F46" t="s">
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
         <v>21</v>
@@ -3648,23 +3658,23 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P46" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q46" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3672,26 +3682,26 @@
         <v>2024</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F47" t="s">
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
@@ -3700,17 +3710,17 @@
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P47" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="s">
         <v>24</v>
@@ -3724,26 +3734,26 @@
         <v>2024</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F48" t="s">
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J48" t="s">
         <v>21</v>
@@ -3759,10 +3769,10 @@
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P48" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q48" t="s">
         <v>24</v>
@@ -3776,26 +3786,26 @@
         <v>2024</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="F49" t="s">
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
@@ -3804,17 +3814,17 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="s">
         <v>24</v>
@@ -3828,45 +3838,45 @@
         <v>2024</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="F50" t="s">
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
       </c>
-      <c r="N50" t="n">
-        <v>7</v>
-      </c>
-      <c r="O50"/>
+      <c r="N50"/>
+      <c r="O50" t="n">
+        <v>50</v>
+      </c>
       <c r="P50" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Q50" t="s">
         <v>24</v>
@@ -3880,26 +3890,26 @@
         <v>2024</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="F51" t="s">
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
         <v>108</v>
       </c>
       <c r="I51" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J51" t="s">
         <v>21</v>
@@ -3915,10 +3925,10 @@
       </c>
       <c r="N51"/>
       <c r="O51" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P51" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q51" t="s">
         <v>24</v>
@@ -3932,26 +3942,26 @@
         <v>2024</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="F52" t="s">
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H52" t="s">
         <v>108</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
@@ -3960,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
@@ -3984,26 +3994,26 @@
         <v>2024</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I53" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
@@ -4019,10 +4029,10 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="P53" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Q53" t="s">
         <v>24</v>
@@ -4036,26 +4046,26 @@
         <v>2024</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="F54" t="s">
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I54" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
@@ -4064,17 +4074,17 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="P54" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="s">
         <v>24</v>
@@ -4088,26 +4098,26 @@
         <v>2024</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="F55" t="s">
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
@@ -4116,17 +4126,17 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P55" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q55" t="s">
         <v>24</v>
@@ -4140,26 +4150,26 @@
         <v>2024</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F56" t="s">
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H56" t="s">
         <v>115</v>
       </c>
       <c r="I56" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
@@ -4168,17 +4178,17 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="s">
         <v>24</v>
@@ -4192,26 +4202,26 @@
         <v>2024</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F57" t="s">
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J57" t="s">
         <v>21</v>
@@ -4220,17 +4230,17 @@
         <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="s">
         <v>24</v>
@@ -4244,26 +4254,26 @@
         <v>2024</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F58" t="s">
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
@@ -4272,23 +4282,23 @@
         <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4296,51 +4306,51 @@
         <v>2024</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F59" t="s">
         <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
       </c>
-      <c r="N59"/>
-      <c r="O59" t="n">
-        <v>4</v>
-      </c>
+      <c r="N59" t="n">
+        <v>13</v>
+      </c>
+      <c r="O59"/>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q59" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4348,26 +4358,26 @@
         <v>2024</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F60" t="s">
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
@@ -4383,10 +4393,10 @@
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P60" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q60" t="s">
         <v>24</v>
@@ -4400,26 +4410,26 @@
         <v>2024</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F61" t="s">
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
@@ -4428,17 +4438,17 @@
         <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M61" t="b">
         <v>0</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="s">
         <v>24</v>
@@ -4452,26 +4462,26 @@
         <v>2024</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F62" t="s">
         <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -4487,10 +4497,10 @@
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P62" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q62" t="s">
         <v>24</v>
@@ -4504,26 +4514,26 @@
         <v>2024</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F63" t="s">
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I63" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
@@ -4539,10 +4549,10 @@
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P63" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Q63" t="s">
         <v>24</v>
@@ -4556,26 +4566,26 @@
         <v>2024</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H64" t="s">
         <v>129</v>
       </c>
       <c r="I64" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
@@ -4591,10 +4601,10 @@
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P64" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q64" t="s">
         <v>24</v>
@@ -4608,26 +4618,26 @@
         <v>2024</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F65" t="s">
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H65" t="s">
         <v>129</v>
       </c>
       <c r="I65" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
@@ -4636,17 +4646,17 @@
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M65" t="b">
         <v>0</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q65" t="s">
         <v>24</v>
@@ -4660,26 +4670,26 @@
         <v>2024</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F66" t="s">
         <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
@@ -4695,10 +4705,10 @@
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P66" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Q66" t="s">
         <v>24</v>
@@ -4712,26 +4722,26 @@
         <v>2024</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
@@ -4740,17 +4750,17 @@
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="P67" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="Q67" t="s">
         <v>24</v>
@@ -4764,26 +4774,26 @@
         <v>2024</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F68" t="s">
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I68" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
@@ -4799,10 +4809,10 @@
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P68" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q68" t="s">
         <v>24</v>
@@ -4816,26 +4826,26 @@
         <v>2024</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F69" t="s">
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I69" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
@@ -4844,17 +4854,17 @@
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
       </c>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P69" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q69" t="s">
         <v>24</v>
@@ -4872,22 +4882,22 @@
       </c>
       <c r="C70"/>
       <c r="D70" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F70" t="s">
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I70" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -4896,17 +4906,17 @@
         <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
       </c>
       <c r="N70"/>
       <c r="O70" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P70" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q70" t="s">
         <v>24</v>
@@ -4920,45 +4930,45 @@
         <v>2024</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F71" t="s">
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I71" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J71" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
         <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
       </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71"/>
+      <c r="N71"/>
+      <c r="O71" t="n">
+        <v>8</v>
+      </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q71" t="s">
         <v>24</v>
@@ -4976,41 +4986,41 @@
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F72" t="s">
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I72" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
       </c>
-      <c r="N72" t="n">
-        <v>18</v>
-      </c>
-      <c r="O72"/>
+      <c r="N72"/>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
       <c r="P72" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="s">
         <v>24</v>
@@ -5024,26 +5034,26 @@
         <v>2024</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F73" t="s">
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I73" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
@@ -5052,17 +5062,17 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M73" t="b">
         <v>0</v>
       </c>
       <c r="N73"/>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="s">
         <v>24</v>
@@ -5080,22 +5090,22 @@
       </c>
       <c r="C74"/>
       <c r="D74" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F74" t="s">
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I74" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
@@ -5104,17 +5114,17 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="s">
         <v>24</v>
@@ -5128,26 +5138,26 @@
         <v>2024</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F75" t="s">
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I75" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -5156,17 +5166,17 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M75" t="b">
         <v>0</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q75" t="s">
         <v>24</v>
@@ -5184,22 +5194,22 @@
       </c>
       <c r="C76"/>
       <c r="D76" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F76" t="s">
         <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H76" t="s">
         <v>148</v>
       </c>
       <c r="I76" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
@@ -5215,10 +5225,10 @@
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="s">
         <v>24</v>
@@ -5236,22 +5246,22 @@
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F77" t="s">
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H77" t="s">
         <v>148</v>
       </c>
       <c r="I77" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
@@ -5260,17 +5270,17 @@
         <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P77" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="s">
         <v>24</v>
@@ -5288,25 +5298,25 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F78" t="s">
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H78" t="s">
         <v>151</v>
       </c>
       <c r="I78" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J78" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
@@ -5318,11 +5328,11 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="s">
         <v>24</v>
@@ -5340,31 +5350,31 @@
       </c>
       <c r="C79"/>
       <c r="D79" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F79" t="s">
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H79" t="s">
         <v>151</v>
       </c>
       <c r="I79" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J79" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s">
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
@@ -5392,47 +5402,47 @@
       </c>
       <c r="C80"/>
       <c r="D80" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F80" t="s">
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H80" t="s">
         <v>151</v>
       </c>
       <c r="I80" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J80" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q80" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5444,41 +5454,41 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F81" t="s">
         <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I81" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K81" t="s">
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
       </c>
-      <c r="N81"/>
-      <c r="O81" t="n">
-        <v>7</v>
-      </c>
+      <c r="N81" t="n">
+        <v>50</v>
+      </c>
+      <c r="O81"/>
       <c r="P81" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Q81" t="s">
         <v>24</v>
@@ -5492,45 +5502,45 @@
         <v>2024</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F82" t="s">
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I82" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s">
         <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
       </c>
-      <c r="N82"/>
-      <c r="O82" t="n">
-        <v>11</v>
-      </c>
+      <c r="N82" t="n">
+        <v>50</v>
+      </c>
+      <c r="O82"/>
       <c r="P82" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q82" t="s">
         <v>24</v>
@@ -5544,45 +5554,45 @@
         <v>2024</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F83" t="s">
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H83" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
       </c>
-      <c r="N83"/>
-      <c r="O83" t="n">
-        <v>4</v>
-      </c>
+      <c r="N83" t="n">
+        <v>50</v>
+      </c>
+      <c r="O83"/>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="Q83" t="s">
         <v>24</v>
@@ -5596,43 +5606,43 @@
         <v>2024</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F84" t="s">
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H84" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I84" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s">
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M84" t="b">
         <v>0</v>
       </c>
-      <c r="N84"/>
-      <c r="O84" t="n">
+      <c r="N84" t="n">
         <v>8</v>
       </c>
+      <c r="O84"/>
       <c r="P84" t="n">
         <v>8</v>
       </c>
@@ -5648,26 +5658,26 @@
         <v>2024</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F85" t="s">
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I85" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
@@ -5683,10 +5693,10 @@
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="P85" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Q85" t="s">
         <v>24</v>
@@ -5700,26 +5710,26 @@
         <v>2024</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F86" t="s">
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I86" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
@@ -5728,7 +5738,7 @@
         <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
@@ -5752,26 +5762,26 @@
         <v>2024</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F87" t="s">
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I87" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
@@ -5787,10 +5797,10 @@
       </c>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="P87" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="s">
         <v>24</v>
@@ -5804,26 +5814,26 @@
         <v>2024</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F88" t="s">
         <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I88" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J88" t="s">
         <v>21</v>
@@ -5832,17 +5842,17 @@
         <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
       </c>
       <c r="N88"/>
       <c r="O88" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="s">
         <v>24</v>
@@ -5856,26 +5866,26 @@
         <v>2024</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F89" t="s">
         <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I89" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
@@ -5884,17 +5894,17 @@
         <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M89" t="b">
         <v>0</v>
       </c>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Q89" t="s">
         <v>24</v>
@@ -5908,26 +5918,26 @@
         <v>2024</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F90" t="s">
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I90" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
@@ -5936,23 +5946,23 @@
         <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M90" t="b">
         <v>0</v>
       </c>
       <c r="N90"/>
       <c r="O90" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P90" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q90" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5960,26 +5970,26 @@
         <v>2024</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F91" t="s">
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I91" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J91" t="s">
         <v>21</v>
@@ -5995,10 +6005,10 @@
       </c>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="P91" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Q91" t="s">
         <v>24</v>
@@ -6012,26 +6022,26 @@
         <v>2024</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F92" t="s">
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H92" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I92" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J92" t="s">
         <v>21</v>
@@ -6040,17 +6050,17 @@
         <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M92" t="b">
         <v>0</v>
       </c>
       <c r="N92"/>
       <c r="O92" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="P92" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="Q92" t="s">
         <v>24</v>
@@ -6064,26 +6074,26 @@
         <v>2024</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F93" t="s">
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H93" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I93" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
@@ -6092,17 +6102,17 @@
         <v>22</v>
       </c>
       <c r="L93" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
       </c>
       <c r="N93"/>
       <c r="O93" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="P93" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q93" t="s">
         <v>24</v>
@@ -6116,26 +6126,26 @@
         <v>2024</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F94" t="s">
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I94" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J94" t="s">
         <v>21</v>
@@ -6151,10 +6161,10 @@
       </c>
       <c r="N94"/>
       <c r="O94" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="P94" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Q94" t="s">
         <v>24</v>
@@ -6168,26 +6178,26 @@
         <v>2024</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F95" t="s">
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I95" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J95" t="s">
         <v>21</v>
@@ -6196,17 +6206,17 @@
         <v>22</v>
       </c>
       <c r="L95" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M95" t="b">
         <v>0</v>
       </c>
       <c r="N95"/>
       <c r="O95" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P95" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="Q95" t="s">
         <v>24</v>
@@ -6220,26 +6230,26 @@
         <v>2024</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F96" t="s">
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H96" t="s">
         <v>175</v>
       </c>
       <c r="I96" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J96" t="s">
         <v>21</v>
@@ -6255,16 +6265,16 @@
       </c>
       <c r="N96"/>
       <c r="O96" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="P96" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="Q96" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -6272,26 +6282,26 @@
         <v>2024</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F97" t="s">
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H97" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I97" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J97" t="s">
         <v>21</v>
@@ -6307,10 +6317,10 @@
       </c>
       <c r="N97"/>
       <c r="O97" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P97" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Q97" t="s">
         <v>24</v>
@@ -6324,26 +6334,26 @@
         <v>2024</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F98" t="s">
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H98" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I98" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J98" t="s">
         <v>21</v>
@@ -6352,17 +6362,17 @@
         <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M98" t="b">
         <v>0</v>
       </c>
       <c r="N98"/>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P98" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q98" t="s">
         <v>24</v>
@@ -6376,14 +6386,14 @@
         <v>2024</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F99" t="s">
         <v>35</v>
@@ -6392,7 +6402,7 @@
         <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I99" t="s">
         <v>37</v>
@@ -6404,17 +6414,17 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M99" t="b">
         <v>0</v>
       </c>
       <c r="N99"/>
       <c r="O99" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="Q99" t="s">
         <v>24</v>
@@ -6428,14 +6438,14 @@
         <v>2024</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -6444,7 +6454,7 @@
         <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I100" t="s">
         <v>37</v>
@@ -6463,16 +6473,16 @@
       </c>
       <c r="N100"/>
       <c r="O100" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P100" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q100" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -6480,14 +6490,14 @@
         <v>2024</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F101" t="s">
         <v>35</v>
@@ -6496,7 +6506,7 @@
         <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I101" t="s">
         <v>37</v>
@@ -6508,17 +6518,17 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
       </c>
       <c r="N101"/>
       <c r="O101" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="P101" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q101" t="s">
         <v>24</v>
@@ -6532,26 +6542,26 @@
         <v>2024</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F102" t="s">
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I102" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J102" t="s">
         <v>21</v>
@@ -6567,10 +6577,10 @@
       </c>
       <c r="N102"/>
       <c r="O102" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P102" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q102" t="s">
         <v>24</v>
@@ -6584,26 +6594,26 @@
         <v>2024</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F103" t="s">
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I103" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J103" t="s">
         <v>21</v>
@@ -6612,17 +6622,17 @@
         <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
       </c>
       <c r="N103"/>
       <c r="O103" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P103" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="Q103" t="s">
         <v>24</v>
@@ -6636,26 +6646,26 @@
         <v>2024</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F104" t="s">
         <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H104" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I104" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s">
         <v>21</v>
@@ -6671,10 +6681,10 @@
       </c>
       <c r="N104"/>
       <c r="O104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q104" t="s">
         <v>24</v>
@@ -6688,26 +6698,26 @@
         <v>2024</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F105" t="s">
         <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I105" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J105" t="s">
         <v>21</v>
@@ -6716,17 +6726,17 @@
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
       </c>
       <c r="N105"/>
       <c r="O105" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q105" t="s">
         <v>24</v>
@@ -6740,26 +6750,26 @@
         <v>2024</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F106" t="s">
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H106" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I106" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J106" t="s">
         <v>21</v>
@@ -6775,10 +6785,10 @@
       </c>
       <c r="N106"/>
       <c r="O106" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Q106" t="s">
         <v>24</v>
@@ -6792,26 +6802,26 @@
         <v>2024</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F107" t="s">
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I107" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J107" t="s">
         <v>21</v>
@@ -6827,10 +6837,10 @@
       </c>
       <c r="N107"/>
       <c r="O107" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P107" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q107" t="s">
         <v>24</v>
@@ -6844,45 +6854,45 @@
         <v>2024</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F108" t="s">
         <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H108" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I108" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J108" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K108" t="s">
         <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
       </c>
-      <c r="N108"/>
-      <c r="O108" t="n">
-        <v>2</v>
-      </c>
+      <c r="N108" t="n">
+        <v>16</v>
+      </c>
+      <c r="O108"/>
       <c r="P108" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q108" t="s">
         <v>24</v>
@@ -6896,26 +6906,26 @@
         <v>2024</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F109" t="s">
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H109" t="s">
         <v>196</v>
       </c>
       <c r="I109" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J109" t="s">
         <v>21</v>
@@ -6924,17 +6934,17 @@
         <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
       </c>
       <c r="N109"/>
       <c r="O109" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P109" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q109" t="s">
         <v>24</v>
@@ -6948,45 +6958,45 @@
         <v>2024</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F110" t="s">
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H110" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I110" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J110" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K110" t="s">
         <v>22</v>
       </c>
       <c r="L110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
       </c>
-      <c r="N110" t="n">
-        <v>37</v>
-      </c>
-      <c r="O110"/>
+      <c r="N110"/>
+      <c r="O110" t="n">
+        <v>6</v>
+      </c>
       <c r="P110" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="Q110" t="s">
         <v>24</v>
@@ -7000,26 +7010,26 @@
         <v>2024</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C111"/>
       <c r="D111" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F111" t="s">
         <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H111" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I111" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J111" t="s">
         <v>21</v>
@@ -7035,10 +7045,10 @@
       </c>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P111" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q111" t="s">
         <v>24</v>
@@ -7052,26 +7062,26 @@
         <v>2024</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F112" t="s">
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I112" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
@@ -7080,17 +7090,17 @@
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
       </c>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P112" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q112" t="s">
         <v>24</v>
@@ -7104,51 +7114,51 @@
         <v>2024</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C113"/>
       <c r="D113" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F113" t="s">
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I113" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K113" t="s">
         <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M113" t="b">
         <v>0</v>
       </c>
-      <c r="N113"/>
-      <c r="O113" t="n">
-        <v>2</v>
-      </c>
+      <c r="N113" t="n">
+        <v>17</v>
+      </c>
+      <c r="O113"/>
       <c r="P113" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q113" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -7156,26 +7166,26 @@
         <v>2024</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C114"/>
       <c r="D114" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F114" t="s">
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H114" t="s">
         <v>204</v>
       </c>
       <c r="I114" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="J114" t="s">
         <v>21</v>
@@ -7184,17 +7194,17 @@
         <v>22</v>
       </c>
       <c r="L114" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
       </c>
       <c r="N114"/>
       <c r="O114" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P114" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q114" t="s">
         <v>24</v>
@@ -7212,22 +7222,22 @@
       </c>
       <c r="C115"/>
       <c r="D115" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F115" t="s">
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I115" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="J115" t="s">
         <v>21</v>
@@ -7236,17 +7246,17 @@
         <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M115" t="b">
         <v>0</v>
       </c>
       <c r="N115"/>
       <c r="O115" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P115" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q115" t="s">
         <v>24</v>
@@ -7260,26 +7270,26 @@
         <v>2024</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C116"/>
       <c r="D116" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F116" t="s">
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I116" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J116" t="s">
         <v>21</v>
@@ -7288,17 +7298,17 @@
         <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M116" t="b">
         <v>0</v>
       </c>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P116" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q116" t="s">
         <v>24</v>
@@ -7316,41 +7326,41 @@
       </c>
       <c r="C117"/>
       <c r="D117" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F117" t="s">
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I117" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J117" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K117" t="s">
         <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M117" t="b">
         <v>0</v>
       </c>
-      <c r="N117" t="n">
-        <v>14</v>
-      </c>
-      <c r="O117"/>
+      <c r="N117"/>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
       <c r="P117" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q117" t="s">
         <v>24</v>
@@ -7364,26 +7374,26 @@
         <v>2024</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F118" t="s">
         <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I118" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J118" t="s">
         <v>21</v>
@@ -7399,10 +7409,10 @@
       </c>
       <c r="N118"/>
       <c r="O118" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P118" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q118" t="s">
         <v>24</v>
@@ -7416,26 +7426,26 @@
         <v>2024</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C119"/>
       <c r="D119" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F119" t="s">
         <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I119" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J119" t="s">
         <v>21</v>
@@ -7444,17 +7454,17 @@
         <v>22</v>
       </c>
       <c r="L119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M119" t="b">
         <v>0</v>
       </c>
       <c r="N119"/>
       <c r="O119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q119" t="s">
         <v>24</v>
@@ -7468,26 +7478,26 @@
         <v>2024</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="F120" t="s">
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I120" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="J120" t="s">
         <v>21</v>
@@ -7503,10 +7513,10 @@
       </c>
       <c r="N120"/>
       <c r="O120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q120" t="s">
         <v>24</v>
@@ -7520,26 +7530,26 @@
         <v>2024</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="F121" t="s">
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I121" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="J121" t="s">
         <v>21</v>
@@ -7548,17 +7558,17 @@
         <v>22</v>
       </c>
       <c r="L121" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M121" t="b">
         <v>0</v>
       </c>
       <c r="N121"/>
       <c r="O121" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P121" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q121" t="s">
         <v>24</v>
@@ -7572,51 +7582,51 @@
         <v>2024</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F122" t="s">
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I122" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J122" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K122" t="s">
         <v>22</v>
       </c>
       <c r="L122" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M122" t="b">
         <v>0</v>
       </c>
-      <c r="N122" t="n">
-        <v>21</v>
-      </c>
-      <c r="O122"/>
+      <c r="N122"/>
+      <c r="O122" t="n">
+        <v>6</v>
+      </c>
       <c r="P122" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q122" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -7624,26 +7634,26 @@
         <v>2024</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F123" t="s">
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H123" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I123" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="J123" t="s">
         <v>21</v>
@@ -7652,17 +7662,17 @@
         <v>22</v>
       </c>
       <c r="L123" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M123" t="b">
         <v>0</v>
       </c>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P123" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q123" t="s">
         <v>24</v>
@@ -7676,26 +7686,26 @@
         <v>2024</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C124"/>
       <c r="D124" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F124" t="s">
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I124" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J124" t="s">
         <v>21</v>
@@ -7704,17 +7714,17 @@
         <v>22</v>
       </c>
       <c r="L124" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M124" t="b">
         <v>0</v>
       </c>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P124" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q124" t="s">
         <v>24</v>
@@ -7728,26 +7738,26 @@
         <v>2024</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F125" t="s">
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I125" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J125" t="s">
         <v>21</v>
@@ -7780,26 +7790,26 @@
         <v>2024</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C126"/>
       <c r="D126" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F126" t="s">
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H126" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I126" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J126" t="s">
         <v>21</v>
@@ -7808,17 +7818,17 @@
         <v>22</v>
       </c>
       <c r="L126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
       </c>
       <c r="N126"/>
       <c r="O126" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P126" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q126" t="s">
         <v>24</v>
@@ -7832,26 +7842,26 @@
         <v>2024</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C127"/>
       <c r="D127" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F127" t="s">
         <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I127" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J127" t="s">
         <v>21</v>
@@ -7860,17 +7870,17 @@
         <v>22</v>
       </c>
       <c r="L127" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
       </c>
       <c r="N127"/>
       <c r="O127" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P127" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q127" t="s">
         <v>24</v>
@@ -7884,45 +7894,45 @@
         <v>2024</v>
       </c>
       <c r="B128" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C128"/>
       <c r="D128" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F128" t="s">
         <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I128" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="J128" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K128" t="s">
         <v>22</v>
       </c>
       <c r="L128" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
       </c>
-      <c r="N128"/>
-      <c r="O128" t="n">
-        <v>9</v>
-      </c>
+      <c r="N128" t="n">
+        <v>19</v>
+      </c>
+      <c r="O128"/>
       <c r="P128" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q128" t="s">
         <v>24</v>
@@ -7936,26 +7946,26 @@
         <v>2024</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F129" t="s">
         <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H129" t="s">
         <v>229</v>
       </c>
       <c r="I129" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J129" t="s">
         <v>21</v>
@@ -7964,17 +7974,17 @@
         <v>22</v>
       </c>
       <c r="L129" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
       </c>
       <c r="N129"/>
       <c r="O129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q129" t="s">
         <v>24</v>
@@ -7988,26 +7998,26 @@
         <v>2024</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F130" t="s">
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H130" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I130" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J130" t="s">
         <v>21</v>
@@ -8016,17 +8026,17 @@
         <v>22</v>
       </c>
       <c r="L130" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
       </c>
       <c r="N130"/>
       <c r="O130" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q130" t="s">
         <v>24</v>
@@ -8040,26 +8050,26 @@
         <v>2024</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F131" t="s">
         <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H131" t="s">
         <v>232</v>
       </c>
       <c r="I131" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J131" t="s">
         <v>21</v>
@@ -8068,7 +8078,7 @@
         <v>22</v>
       </c>
       <c r="L131" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M131" t="b">
         <v>0</v>
@@ -8092,45 +8102,45 @@
         <v>2024</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F132" t="s">
         <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H132" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I132" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J132" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K132" t="s">
         <v>22</v>
       </c>
       <c r="L132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M132" t="b">
         <v>0</v>
       </c>
-      <c r="N132" t="n">
-        <v>16</v>
-      </c>
-      <c r="O132"/>
+      <c r="N132"/>
+      <c r="O132" t="n">
+        <v>2</v>
+      </c>
       <c r="P132" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q132" t="s">
         <v>24</v>
@@ -8144,26 +8154,26 @@
         <v>2024</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C133"/>
       <c r="D133" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F133" t="s">
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I133" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J133" t="s">
         <v>21</v>
@@ -8179,10 +8189,10 @@
       </c>
       <c r="N133"/>
       <c r="O133" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P133" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q133" t="s">
         <v>24</v>
@@ -8196,26 +8206,26 @@
         <v>2024</v>
       </c>
       <c r="B134" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C134"/>
       <c r="D134" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F134" t="s">
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H134" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I134" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J134" t="s">
         <v>21</v>
@@ -8224,17 +8234,17 @@
         <v>22</v>
       </c>
       <c r="L134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M134" t="b">
         <v>0</v>
       </c>
       <c r="N134"/>
       <c r="O134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q134" t="s">
         <v>24</v>
@@ -8248,45 +8258,45 @@
         <v>2024</v>
       </c>
       <c r="B135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C135"/>
       <c r="D135" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F135" t="s">
         <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H135" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I135" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J135" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K135" t="s">
         <v>22</v>
       </c>
       <c r="L135" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M135" t="b">
         <v>0</v>
       </c>
-      <c r="N135"/>
-      <c r="O135" t="n">
-        <v>14</v>
-      </c>
+      <c r="N135" t="n">
+        <v>19</v>
+      </c>
+      <c r="O135"/>
       <c r="P135" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q135" t="s">
         <v>24</v>
@@ -8300,26 +8310,26 @@
         <v>2024</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="F136" t="s">
         <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H136" t="s">
         <v>240</v>
       </c>
       <c r="I136" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="J136" t="s">
         <v>21</v>
@@ -8328,22 +8338,74 @@
         <v>22</v>
       </c>
       <c r="L136" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M136" t="b">
         <v>0</v>
       </c>
       <c r="N136"/>
       <c r="O136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q136" t="s">
         <v>24</v>
       </c>
       <c r="R136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B137" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137" t="n">
+        <v>33</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>45519</v>
+      </c>
+      <c r="F137" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" t="s">
+        <v>65</v>
+      </c>
+      <c r="H137" t="s">
+        <v>240</v>
+      </c>
+      <c r="I137" t="s">
+        <v>205</v>
+      </c>
+      <c r="J137" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" t="s">
+        <v>41</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137" t="n">
+        <v>4</v>
+      </c>
+      <c r="P137" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>24</v>
+      </c>
+      <c r="R137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8395,112 +8457,112 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>15.75</v>
+        <v>4.78</v>
       </c>
       <c r="C2" t="n">
-        <v>15.75</v>
+        <v>6.44</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5</v>
+        <v>11.22</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0103015873015873</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0961</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2284</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>8.2</v>
+        <v>8.5</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9</v>
+        <v>23.2</v>
       </c>
       <c r="D3" t="n">
-        <v>36.1</v>
+        <v>31.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0151</v>
+        <v>0.0102</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00342936288088643</v>
+        <v>0.00273501577287066</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1238</v>
+        <v>0.0867</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1238</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
-        <v>8.2</v>
+        <v>4.6</v>
       </c>
       <c r="C4" t="n">
-        <v>14.87</v>
+        <v>18.07</v>
       </c>
       <c r="D4" t="n">
-        <v>23.07</v>
+        <v>22.67</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0088</v>
+        <v>0.0027</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00312960554833117</v>
+        <v>0.00054697838553153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0722</v>
+        <v>0.0124</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0722</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B5" t="n">
-        <v>3.5</v>
+        <v>1.56</v>
       </c>
       <c r="C5" t="n">
-        <v>6.62</v>
+        <v>4.44</v>
       </c>
       <c r="D5" t="n">
-        <v>10.12</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -8523,66 +8585,66 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
-        <v>8.76</v>
+        <v>4.91</v>
       </c>
       <c r="C6" t="n">
-        <v>16.61</v>
+        <v>13.98</v>
       </c>
       <c r="D6" t="n">
-        <v>25.37</v>
+        <v>18.89</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0092</v>
+        <v>0.0045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0029</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00507686243594797</v>
+        <v>0.00116993118051879</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0806</v>
+        <v>0.0221</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0482</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1288</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>2.67</v>
+        <v>5.17</v>
       </c>
       <c r="C7" t="n">
-        <v>50.5</v>
+        <v>41.5</v>
       </c>
       <c r="D7" t="n">
-        <v>53.17</v>
+        <v>46.67</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00683844273086327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3636</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8590,31 +8652,31 @@
         <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>8.8</v>
+        <v>9.7</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>37.6</v>
       </c>
       <c r="D8" t="n">
-        <v>64.8</v>
+        <v>47.3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0129</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0018</v>
+        <v>0.0055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0033070987654321</v>
+        <v>0.00437209302325581</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1135</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1008</v>
+        <v>0.2068</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2143</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="9">
@@ -8623,26 +8685,26 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>34.4</v>
+        <v>27.2</v>
       </c>
       <c r="D9" t="n">
-        <v>34.4</v>
+        <v>27.2</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.0061</v>
+        <v>0.0079</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00609883720930233</v>
+        <v>0.00790073529411765</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2098</v>
+        <v>0.2149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2098</v>
+        <v>0.2149</v>
       </c>
     </row>
   </sheetData>
@@ -9238,35 +9300,51 @@
       <c r="A12" t="n">
         <v>33</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="n">
         <v>0.135466666666667</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="n">
+        <v>0.0867</v>
+      </c>
       <c r="E12" t="n">
         <v>0.470088888888889</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" t="n">
+        <v>0.0124</v>
+      </c>
       <c r="G12" t="n">
         <v>0.2291</v>
       </c>
-      <c r="H12"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" t="n">
         <v>0.1617</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" t="n">
+        <v>0.0221</v>
+      </c>
       <c r="K12" t="n">
         <v>0.256688888888889</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
       <c r="M12" t="n">
         <v>0.305855555555556</v>
       </c>
-      <c r="N12"/>
+      <c r="N12" t="n">
+        <v>0.2068</v>
+      </c>
       <c r="O12" t="n">
         <v>0.0310428571428571</v>
       </c>
-      <c r="P12"/>
+      <c r="P12" t="n">
+        <v>0.2149</v>
+      </c>
       <c r="Q12" t="n">
         <v>0.0620666666666667</v>
       </c>
@@ -9455,158 +9533,158 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>15.75</v>
+        <v>4.78</v>
       </c>
       <c r="G2" t="n">
-        <v>15.75</v>
+        <v>6.44</v>
       </c>
       <c r="H2" t="n">
-        <v>31.5</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" t="n">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="D3" t="n">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>8.2</v>
+        <v>8.5</v>
       </c>
       <c r="G3" t="n">
-        <v>27.9</v>
+        <v>23.2</v>
       </c>
       <c r="H3" t="n">
-        <v>36.1</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="D4" t="n">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>8.2</v>
+        <v>4.6</v>
       </c>
       <c r="G4" t="n">
-        <v>14.87</v>
+        <v>18.07</v>
       </c>
       <c r="H4" t="n">
-        <v>23.07</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>1.56</v>
       </c>
       <c r="G5" t="n">
-        <v>6.62</v>
+        <v>4.44</v>
       </c>
       <c r="H5" t="n">
-        <v>10.12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="C6" t="n">
-        <v>681</v>
+        <v>601</v>
       </c>
       <c r="D6" t="n">
-        <v>1040</v>
+        <v>812</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>8.76</v>
+        <v>4.91</v>
       </c>
       <c r="G6" t="n">
-        <v>16.61</v>
+        <v>13.98</v>
       </c>
       <c r="H6" t="n">
-        <v>25.37</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="D7" t="n">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>2.67</v>
+        <v>5.17</v>
       </c>
       <c r="G7" t="n">
-        <v>50.5</v>
+        <v>41.5</v>
       </c>
       <c r="H7" t="n">
-        <v>53.17</v>
+        <v>46.67</v>
       </c>
     </row>
     <row r="8">
@@ -9614,25 +9692,25 @@
         <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
-        <v>560</v>
+        <v>376</v>
       </c>
       <c r="D8" t="n">
-        <v>648</v>
+        <v>473</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>8.8</v>
+        <v>9.7</v>
       </c>
       <c r="G8" t="n">
-        <v>56</v>
+        <v>37.6</v>
       </c>
       <c r="H8" t="n">
-        <v>64.8</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="9">
@@ -9643,20 +9721,20 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D9" t="n">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>34.4</v>
+        <v>27.2</v>
       </c>
       <c r="H9" t="n">
-        <v>34.4</v>
+        <v>27.2</v>
       </c>
     </row>
   </sheetData>
@@ -10252,35 +10330,51 @@
       <c r="A12" t="n">
         <v>33</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>11.22</v>
+      </c>
       <c r="C12" t="n">
         <v>27.0855555555556</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="n">
+        <v>31.7</v>
+      </c>
       <c r="E12" t="n">
         <v>75.2888888888889</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" t="n">
+        <v>22.67</v>
+      </c>
       <c r="G12" t="n">
         <v>41.6077777777778</v>
       </c>
-      <c r="H12"/>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
       <c r="I12" t="n">
         <v>21.4344444444444</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" t="n">
+        <v>18.89</v>
+      </c>
       <c r="K12" t="n">
         <v>42.18</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="n">
+        <v>46.67</v>
+      </c>
       <c r="M12" t="n">
         <v>47.5733333333333</v>
       </c>
-      <c r="N12"/>
+      <c r="N12" t="n">
+        <v>47.3</v>
+      </c>
       <c r="O12" t="n">
         <v>33.7714285714286</v>
       </c>
-      <c r="P12"/>
+      <c r="P12" t="n">
+        <v>27.2</v>
+      </c>
       <c r="Q12" t="n">
         <v>21.0066666666667</v>
       </c>
@@ -10484,66 +10578,66 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>10.3015873015873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="C3" t="n">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="D3" t="n">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
         <v>11</v>
       </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -10555,77 +10649,77 @@
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>15.1</v>
+        <v>10.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.42936288088643</v>
+        <v>2.73501577287066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
-        <v>235</v>
+        <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D4" t="n">
-        <v>462</v>
+        <v>631</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>8.8</v>
+        <v>2.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.12960554833117</v>
+        <v>0.546978385531539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -10648,63 +10742,63 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
-        <v>598</v>
+        <v>680</v>
       </c>
       <c r="C6" t="n">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="D6" t="n">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>9.2</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5.07686243594797</v>
+        <v>1.16993118051879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="D7" t="n">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>14</v>
@@ -10713,19 +10807,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.83844273086327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10733,40 +10827,40 @@
         <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
-        <v>560</v>
+        <v>376</v>
       </c>
       <c r="D8" t="n">
-        <v>648</v>
+        <v>473</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>3.3070987654321</v>
+        <v>4.37209302325581</v>
       </c>
     </row>
     <row r="9">
@@ -10777,10 +10871,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D9" t="n">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10802,10 +10896,10 @@
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>6.09883720930233</v>
+        <v>7.90073529411765</v>
       </c>
     </row>
   </sheetData>
@@ -11401,35 +11495,51 @@
       <c r="A12" t="n">
         <v>33</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="n">
         <v>5.38912599561096</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="n">
+        <v>2.73501577287066</v>
+      </c>
       <c r="E12" t="n">
         <v>8.10582914289949</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" t="n">
+        <v>0.546978385531539</v>
+      </c>
       <c r="G12" t="n">
         <v>7.51435454869825</v>
       </c>
-      <c r="H12"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" t="n">
         <v>7.07278513165189</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" t="n">
+        <v>1.16993118051879</v>
+      </c>
       <c r="K12" t="n">
         <v>7.57187941843704</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
       <c r="M12" t="n">
         <v>5.9573828258051</v>
       </c>
-      <c r="N12"/>
+      <c r="N12" t="n">
+        <v>4.37209302325581</v>
+      </c>
       <c r="O12" t="n">
         <v>2.92857142857143</v>
       </c>
-      <c r="P12"/>
+      <c r="P12" t="n">
+        <v>7.90073529411765</v>
+      </c>
       <c r="Q12" t="n">
         <v>1.8000773395205</v>
       </c>

--- a/data_output/weekly_report_output.xlsx
+++ b/data_output/weekly_report_output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -74,34 +74,34 @@
     <t xml:space="preserve">Test Code (CSU Enters)</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00241</t>
+    <t xml:space="preserve">BOU-00246</t>
   </si>
   <si>
     <t xml:space="preserve">BC</t>
   </si>
   <si>
+    <t xml:space="preserve">BC-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarsalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOU-00247</t>
+  </si>
+  <si>
     <t xml:space="preserve">BC-04</t>
   </si>
   <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarsalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOU-00242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOU-00243</t>
+    <t xml:space="preserve">BOU-00248</t>
   </si>
   <si>
     <t xml:space="preserve">BC-26</t>
@@ -110,109 +110,106 @@
     <t xml:space="preserve">Positive</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00244</t>
+    <t xml:space="preserve">BOU-00249</t>
   </si>
   <si>
     <t xml:space="preserve">BC-13</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00245</t>
+    <t xml:space="preserve">BOU-00250</t>
   </si>
   <si>
     <t xml:space="preserve">BC-14</t>
   </si>
   <si>
-    <t xml:space="preserve">CDC-180</t>
+    <t xml:space="preserve">CDC-188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC-186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22799</t>
   </si>
   <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
-    <t xml:space="preserve">BE-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22682</t>
-  </si>
-  <si>
     <t xml:space="preserve">LV</t>
   </si>
   <si>
-    <t xml:space="preserve">LV-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22683</t>
-  </si>
-  <si>
     <t xml:space="preserve">LV-095</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22686</t>
+    <t xml:space="preserve">CSU-22800</t>
   </si>
   <si>
     <t xml:space="preserve">FC</t>
@@ -224,37 +221,40 @@
     <t xml:space="preserve">NE</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22689</t>
+    <t xml:space="preserve">CSU-22801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22803</t>
   </si>
   <si>
     <t xml:space="preserve">FC-034</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22692</t>
+    <t xml:space="preserve">CSU-22804</t>
   </si>
   <si>
     <t xml:space="preserve">FC-040</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22694</t>
+    <t xml:space="preserve">CSU-22805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22808</t>
   </si>
   <si>
     <t xml:space="preserve">FC-036</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">NW</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22696</t>
+    <t xml:space="preserve">CSU-22809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22810</t>
   </si>
   <si>
     <t xml:space="preserve">FC-040GR</t>
@@ -275,94 +275,115 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22697</t>
+    <t xml:space="preserve">CSU-22811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-091GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-092GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22820</t>
   </si>
   <si>
     <t xml:space="preserve">FC-072</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-092GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22701</t>
+    <t xml:space="preserve">CSU-22821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22822</t>
   </si>
   <si>
     <t xml:space="preserve">FC-066</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22703</t>
+    <t xml:space="preserve">CSU-22823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22824</t>
   </si>
   <si>
     <t xml:space="preserve">FC-019</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-091GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22706</t>
+    <t xml:space="preserve">CSU-22825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22826</t>
   </si>
   <si>
     <t xml:space="preserve">FC-066GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22707</t>
+    <t xml:space="preserve">CSU-22827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22828</t>
   </si>
   <si>
     <t xml:space="preserve">FC-014</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22711</t>
+    <t xml:space="preserve">CSU-22829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV-089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22832</t>
   </si>
   <si>
     <t xml:space="preserve">LV-104</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22716</t>
+    <t xml:space="preserve">CSU-22833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22836</t>
   </si>
   <si>
     <t xml:space="preserve">FC-039</t>
@@ -371,265 +392,280 @@
     <t xml:space="preserve">SE</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22720</t>
+    <t xml:space="preserve">CSU-22837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22838</t>
   </si>
   <si>
     <t xml:space="preserve">FC-075GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22721</t>
+    <t xml:space="preserve">CSU-22839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22842</t>
   </si>
   <si>
     <t xml:space="preserve">FC-064</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22729</t>
+    <t xml:space="preserve">CSU-22843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22844</t>
   </si>
   <si>
     <t xml:space="preserve">FC-027</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22731</t>
+    <t xml:space="preserve">CSU-22845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22850</t>
   </si>
   <si>
     <t xml:space="preserve">FC-004</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22733</t>
+    <t xml:space="preserve">CSU-22851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22852</t>
   </si>
   <si>
     <t xml:space="preserve">FC-050</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22737</t>
+    <t xml:space="preserve">CSU-22853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22854</t>
   </si>
   <si>
     <t xml:space="preserve">FC-046</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22739</t>
+    <t xml:space="preserve">CSU-22855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22860</t>
   </si>
   <si>
     <t xml:space="preserve">FC-088GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22750</t>
+    <t xml:space="preserve">CSU-22861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-090GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22874</t>
   </si>
   <si>
     <t xml:space="preserve">LC-054</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22752</t>
+    <t xml:space="preserve">CSU-22875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22882</t>
   </si>
   <si>
     <t xml:space="preserve">LV-020</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22755</t>
+    <t xml:space="preserve">CSU-22883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22894</t>
   </si>
   <si>
     <t xml:space="preserve">LC-049</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WC-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-090GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22774</t>
+    <t xml:space="preserve">CSU-22895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22896</t>
   </si>
   <si>
     <t xml:space="preserve">FC-063GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22775</t>
+    <t xml:space="preserve">CSU-22897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22899</t>
   </si>
   <si>
     <t xml:space="preserve">FC-058</t>
@@ -638,112 +674,82 @@
     <t xml:space="preserve">SW</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22783</t>
+    <t xml:space="preserve">CSU-22900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22903</t>
   </si>
   <si>
     <t xml:space="preserve">FC-054</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22786</t>
+    <t xml:space="preserve">CSU-22904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-029GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22905</t>
   </si>
   <si>
     <t xml:space="preserve">FC-029</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22788</t>
+    <t xml:space="preserve">CSU-22906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22907</t>
   </si>
   <si>
     <t xml:space="preserve">FC-068</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-029GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22792</t>
+    <t xml:space="preserve">CSU-22908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22910</t>
   </si>
   <si>
     <t xml:space="preserve">FC-062</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22794</t>
+    <t xml:space="preserve">CSU-22911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-089GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-22913</t>
   </si>
   <si>
     <t xml:space="preserve">FC-057</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-089GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22797</t>
+    <t xml:space="preserve">CSU-22914</t>
   </si>
   <si>
     <t xml:space="preserve">FC-037</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22798</t>
+    <t xml:space="preserve">CSU-22915</t>
   </si>
   <si>
     <t xml:space="preserve">zone</t>
@@ -1364,10 +1370,10 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1397,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -1418,10 +1424,10 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1451,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -1472,10 +1478,10 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1505,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="s">
         <v>29</v>
@@ -1526,10 +1532,10 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1559,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -1580,10 +1586,10 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1613,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -1634,10 +1640,10 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -1653,7 +1659,7 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -1663,10 +1669,10 @@
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -1680,14 +1686,14 @@
         <v>2024</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1703,20 +1709,20 @@
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="N8" t="n">
-        <v>33</v>
-      </c>
-      <c r="O8"/>
+      <c r="N8"/>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
@@ -1734,17 +1740,17 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
@@ -1753,20 +1759,20 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="N9" t="n">
-        <v>37</v>
-      </c>
-      <c r="O9"/>
+      <c r="N9"/>
+      <c r="O9" t="n">
+        <v>17</v>
+      </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1784,17 +1790,17 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
@@ -1803,20 +1809,20 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
-      <c r="N10"/>
-      <c r="O10" t="n">
-        <v>13</v>
-      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10"/>
       <c r="P10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
@@ -1834,17 +1840,17 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -1853,20 +1859,20 @@
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
@@ -1880,21 +1886,21 @@
         <v>2024</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
@@ -1903,20 +1909,20 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
-      <c r="N12"/>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12"/>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="s">
         <v>24</v>
@@ -1934,17 +1940,17 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -1953,7 +1959,7 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1961,18 +1967,18 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-      <c r="N13" t="n">
-        <v>23</v>
-      </c>
-      <c r="O13"/>
+      <c r="N13"/>
+      <c r="O13" t="n">
+        <v>14</v>
+      </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1980,21 +1986,21 @@
         <v>2024</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -2003,20 +2009,20 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="s">
         <v>24</v>
@@ -2030,21 +2036,21 @@
         <v>2024</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
@@ -2053,20 +2059,20 @@
         <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="s">
         <v>24</v>
@@ -2080,21 +2086,21 @@
         <v>2024</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
@@ -2103,7 +2109,7 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
@@ -2111,12 +2117,12 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N16"/>
-      <c r="O16" t="n">
-        <v>34</v>
-      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16"/>
       <c r="P16" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="s">
         <v>24</v>
@@ -2130,21 +2136,21 @@
         <v>2024</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
@@ -2153,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -2161,12 +2167,12 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17"/>
+      <c r="N17"/>
+      <c r="O17" t="n">
+        <v>22</v>
+      </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q17" t="s">
         <v>24</v>
@@ -2180,21 +2186,21 @@
         <v>2024</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
@@ -2203,26 +2209,24 @@
         <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18"/>
-      <c r="O18" t="n">
-        <v>4</v>
-      </c>
+      <c r="O18"/>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="Q18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2234,17 +2238,17 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -2253,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2261,12 +2265,12 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
-      <c r="N19"/>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19"/>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="s">
         <v>24</v>
@@ -2280,21 +2284,21 @@
         <v>2024</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>37</v>
@@ -2303,20 +2307,20 @@
         <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q20" t="s">
         <v>24</v>
@@ -2330,26 +2334,24 @@
         <v>2024</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>45516</v>
+        <v>45525</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
-      <c r="G21" t="s">
-        <v>58</v>
-      </c>
+      <c r="G21"/>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
@@ -2358,23 +2360,23 @@
         <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2382,26 +2384,24 @@
         <v>2024</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>45516</v>
+        <v>45525</v>
       </c>
       <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="G22" t="s">
-        <v>58</v>
-      </c>
+      <c r="G22"/>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
@@ -2410,17 +2410,17 @@
         <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
       <c r="N22"/>
       <c r="O22" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="P22" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="s">
         <v>24</v>
@@ -2434,26 +2434,24 @@
         <v>2024</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>45516</v>
+        <v>45525</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
+      <c r="G23"/>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
@@ -2462,17 +2460,17 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
-      <c r="N23"/>
-      <c r="O23" t="n">
-        <v>5</v>
-      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23"/>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q23" t="s">
         <v>24</v>
@@ -2486,27 +2484,27 @@
         <v>2024</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
         <v>61</v>
       </c>
-      <c r="I24" t="s">
-        <v>58</v>
-      </c>
       <c r="J24" t="s">
         <v>21</v>
       </c>
@@ -2514,17 +2512,17 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="s">
         <v>24</v>
@@ -2538,26 +2536,26 @@
         <v>2024</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
         <v>65</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>66</v>
-      </c>
-      <c r="I25" t="s">
-        <v>67</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -2573,16 +2571,16 @@
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2590,27 +2588,27 @@
         <v>2024</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
         <v>65</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>66</v>
       </c>
-      <c r="I26" t="s">
-        <v>67</v>
-      </c>
       <c r="J26" t="s">
         <v>21</v>
       </c>
@@ -2618,17 +2616,17 @@
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
       </c>
       <c r="N26"/>
       <c r="O26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
@@ -2642,27 +2640,27 @@
         <v>2024</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
         <v>66</v>
       </c>
-      <c r="I27" t="s">
-        <v>67</v>
-      </c>
       <c r="J27" t="s">
         <v>21</v>
       </c>
@@ -2670,17 +2668,17 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="s">
         <v>24</v>
@@ -2698,22 +2696,22 @@
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
         <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
@@ -2729,10 +2727,10 @@
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P28" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="s">
         <v>24</v>
@@ -2750,22 +2748,22 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
@@ -2774,17 +2772,17 @@
         <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="s">
         <v>24</v>
@@ -2798,26 +2796,26 @@
         <v>2024</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
@@ -2826,17 +2824,17 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="s">
         <v>24</v>
@@ -2854,22 +2852,22 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" t="s">
         <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -2885,10 +2883,10 @@
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
         <v>24</v>
@@ -2906,22 +2904,22 @@
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -2930,23 +2928,23 @@
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2958,16 +2956,16 @@
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>79</v>
@@ -2989,10 +2987,10 @@
       </c>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="P33" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Q33" t="s">
         <v>24</v>
@@ -3010,16 +3008,16 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>79</v>
@@ -3034,17 +3032,17 @@
         <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P34" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="s">
         <v>24</v>
@@ -3062,22 +3060,22 @@
       </c>
       <c r="C35"/>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J35" t="s">
         <v>84</v>
@@ -3086,17 +3084,17 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q35" t="s">
         <v>24</v>
@@ -3114,41 +3112,41 @@
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
-      <c r="N36"/>
-      <c r="O36" t="n">
-        <v>28</v>
-      </c>
+      <c r="N36" t="n">
+        <v>50</v>
+      </c>
+      <c r="O36"/>
       <c r="P36" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="Q36" t="s">
         <v>24</v>
@@ -3162,51 +3160,51 @@
         <v>2024</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s">
         <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
-      <c r="N37"/>
-      <c r="O37" t="n">
-        <v>22</v>
-      </c>
+      <c r="N37" t="n">
+        <v>50</v>
+      </c>
+      <c r="O37"/>
       <c r="P37" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Q37" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3214,26 +3212,26 @@
         <v>2024</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
         <v>84</v>
@@ -3242,23 +3240,23 @@
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Q38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3266,26 +3264,26 @@
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J39" t="s">
         <v>84</v>
@@ -3294,23 +3292,23 @@
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3318,45 +3316,45 @@
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
-      <c r="N40"/>
-      <c r="O40" t="n">
-        <v>29</v>
-      </c>
+      <c r="N40" t="n">
+        <v>7</v>
+      </c>
+      <c r="O40"/>
       <c r="P40" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="Q40" t="s">
         <v>24</v>
@@ -3370,45 +3368,45 @@
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s">
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
-      <c r="N41"/>
-      <c r="O41" t="n">
-        <v>36</v>
-      </c>
+      <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41"/>
       <c r="P41" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Q41" t="s">
         <v>24</v>
@@ -3422,26 +3420,26 @@
         <v>2024</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
@@ -3457,10 +3455,10 @@
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P42" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="s">
         <v>24</v>
@@ -3474,51 +3472,51 @@
         <v>2024</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H43" t="s">
         <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
       </c>
-      <c r="N43"/>
-      <c r="O43" t="n">
-        <v>12</v>
-      </c>
+      <c r="N43" t="n">
+        <v>50</v>
+      </c>
+      <c r="O43"/>
       <c r="P43" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3526,26 +3524,26 @@
         <v>2024</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
         <v>84</v>
@@ -3554,17 +3552,17 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O44"/>
       <c r="P44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="s">
         <v>24</v>
@@ -3578,51 +3576,51 @@
         <v>2024</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
-      <c r="N45" t="n">
-        <v>37</v>
-      </c>
-      <c r="O45"/>
+      <c r="N45"/>
+      <c r="O45" t="n">
+        <v>13</v>
+      </c>
       <c r="P45" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Q45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3630,26 +3628,26 @@
         <v>2024</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
         <v>21</v>
@@ -3658,17 +3656,17 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="s">
         <v>24</v>
@@ -3682,26 +3680,26 @@
         <v>2024</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
@@ -3710,23 +3708,23 @@
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3734,26 +3732,26 @@
         <v>2024</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
         <v>21</v>
@@ -3762,17 +3760,17 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q48" t="s">
         <v>24</v>
@@ -3786,26 +3784,26 @@
         <v>2024</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
@@ -3814,17 +3812,17 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Q49" t="s">
         <v>24</v>
@@ -3838,26 +3836,26 @@
         <v>2024</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>45517</v>
+        <v>45523</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
@@ -3866,17 +3864,17 @@
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="P50" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q50" t="s">
         <v>24</v>
@@ -3890,29 +3888,29 @@
         <v>2024</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>45517</v>
+        <v>45523</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -3923,12 +3921,12 @@
       <c r="M51" t="b">
         <v>0</v>
       </c>
-      <c r="N51"/>
-      <c r="O51" t="n">
-        <v>12</v>
-      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51"/>
       <c r="P51" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="s">
         <v>24</v>
@@ -3942,51 +3940,51 @@
         <v>2024</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>45517</v>
+        <v>45523</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K52" t="s">
         <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
       </c>
-      <c r="N52"/>
-      <c r="O52" t="n">
-        <v>8</v>
-      </c>
+      <c r="N52" t="n">
+        <v>42</v>
+      </c>
+      <c r="O52"/>
       <c r="P52" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="Q52" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3994,26 +3992,26 @@
         <v>2024</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>45517</v>
+        <v>45523</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
@@ -4029,10 +4027,10 @@
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P53" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q53" t="s">
         <v>24</v>
@@ -4046,26 +4044,26 @@
         <v>2024</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>45517</v>
+        <v>45523</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
@@ -4074,17 +4072,17 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="Q54" t="s">
         <v>24</v>
@@ -4098,26 +4096,26 @@
         <v>2024</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
@@ -4133,10 +4131,10 @@
       </c>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P55" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q55" t="s">
         <v>24</v>
@@ -4150,26 +4148,26 @@
         <v>2024</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
@@ -4178,17 +4176,17 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q56" t="s">
         <v>24</v>
@@ -4202,26 +4200,26 @@
         <v>2024</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J57" t="s">
         <v>21</v>
@@ -4237,10 +4235,10 @@
       </c>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="Q57" t="s">
         <v>24</v>
@@ -4254,26 +4252,26 @@
         <v>2024</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
@@ -4282,17 +4280,17 @@
         <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q58" t="s">
         <v>24</v>
@@ -4306,51 +4304,51 @@
         <v>2024</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I59" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J59" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
       </c>
-      <c r="N59" t="n">
-        <v>13</v>
-      </c>
-      <c r="O59"/>
+      <c r="N59"/>
+      <c r="O59" t="n">
+        <v>36</v>
+      </c>
       <c r="P59" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q59" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4358,26 +4356,26 @@
         <v>2024</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
@@ -4393,10 +4391,10 @@
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="P60" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="Q60" t="s">
         <v>24</v>
@@ -4410,26 +4408,26 @@
         <v>2024</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
@@ -4438,17 +4436,17 @@
         <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M61" t="b">
         <v>0</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q61" t="s">
         <v>24</v>
@@ -4462,26 +4460,26 @@
         <v>2024</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -4490,17 +4488,17 @@
         <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="s">
         <v>24</v>
@@ -4514,45 +4512,45 @@
         <v>2024</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I63" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s">
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
       </c>
-      <c r="N63"/>
-      <c r="O63" t="n">
-        <v>50</v>
-      </c>
+      <c r="N63" t="n">
+        <v>9</v>
+      </c>
+      <c r="O63"/>
       <c r="P63" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="Q63" t="s">
         <v>24</v>
@@ -4566,26 +4564,26 @@
         <v>2024</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I64" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
@@ -4601,10 +4599,10 @@
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="P64" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="s">
         <v>24</v>
@@ -4618,26 +4616,26 @@
         <v>2024</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I65" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
@@ -4646,17 +4644,17 @@
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M65" t="b">
         <v>0</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P65" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q65" t="s">
         <v>24</v>
@@ -4670,26 +4668,26 @@
         <v>2024</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
@@ -4698,17 +4696,17 @@
         <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M66" t="b">
         <v>0</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="P66" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Q66" t="s">
         <v>24</v>
@@ -4722,26 +4720,26 @@
         <v>2024</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H67" t="s">
         <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
@@ -4750,17 +4748,17 @@
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P67" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q67" t="s">
         <v>24</v>
@@ -4774,26 +4772,26 @@
         <v>2024</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I68" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
@@ -4802,17 +4800,17 @@
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q68" t="s">
         <v>24</v>
@@ -4826,26 +4824,26 @@
         <v>2024</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" t="s">
         <v>136</v>
       </c>
       <c r="I69" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
@@ -4854,17 +4852,17 @@
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
       </c>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="s">
         <v>24</v>
@@ -4878,26 +4876,26 @@
         <v>2024</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I70" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -4906,17 +4904,17 @@
         <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
       </c>
       <c r="N70"/>
       <c r="O70" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P70" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q70" t="s">
         <v>24</v>
@@ -4930,26 +4928,26 @@
         <v>2024</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H71" t="s">
         <v>139</v>
       </c>
       <c r="I71" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J71" t="s">
         <v>21</v>
@@ -4958,7 +4956,7 @@
         <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
@@ -4982,26 +4980,26 @@
         <v>2024</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J72" t="s">
         <v>21</v>
@@ -5010,17 +5008,17 @@
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
       </c>
       <c r="N72"/>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="s">
         <v>24</v>
@@ -5034,26 +5032,26 @@
         <v>2024</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H73" t="s">
         <v>142</v>
       </c>
       <c r="I73" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
@@ -5062,17 +5060,17 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M73" t="b">
         <v>0</v>
       </c>
       <c r="N73"/>
       <c r="O73" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P73" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q73" t="s">
         <v>24</v>
@@ -5086,26 +5084,26 @@
         <v>2024</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I74" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
@@ -5114,17 +5112,17 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q74" t="s">
         <v>24</v>
@@ -5138,26 +5136,26 @@
         <v>2024</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H75" t="s">
         <v>145</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -5166,17 +5164,17 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M75" t="b">
         <v>0</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P75" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q75" t="s">
         <v>24</v>
@@ -5190,26 +5188,26 @@
         <v>2024</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I76" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
@@ -5218,23 +5216,23 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M76" t="b">
         <v>0</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P76" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5242,26 +5240,26 @@
         <v>2024</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H77" t="s">
         <v>148</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
@@ -5270,17 +5268,17 @@
         <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="s">
         <v>24</v>
@@ -5294,43 +5292,43 @@
         <v>2024</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J78" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
       </c>
-      <c r="N78" t="n">
+      <c r="N78"/>
+      <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="O78"/>
       <c r="P78" t="n">
         <v>1</v>
       </c>
@@ -5346,45 +5344,45 @@
         <v>2024</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H79" t="s">
         <v>151</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J79" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
       </c>
-      <c r="N79" t="n">
-        <v>50</v>
-      </c>
-      <c r="O79"/>
+      <c r="N79"/>
+      <c r="O79" t="n">
+        <v>7</v>
+      </c>
       <c r="P79" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="Q79" t="s">
         <v>24</v>
@@ -5398,45 +5396,45 @@
         <v>2024</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H80" t="s">
         <v>151</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J80" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
       </c>
-      <c r="N80" t="n">
-        <v>50</v>
-      </c>
-      <c r="O80"/>
+      <c r="N80"/>
+      <c r="O80" t="n">
+        <v>23</v>
+      </c>
       <c r="P80" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="Q80" t="s">
         <v>24</v>
@@ -5450,45 +5448,45 @@
         <v>2024</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H81" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J81" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
       </c>
-      <c r="N81" t="n">
-        <v>50</v>
-      </c>
-      <c r="O81"/>
+      <c r="N81"/>
+      <c r="O81" t="n">
+        <v>43</v>
+      </c>
       <c r="P81" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q81" t="s">
         <v>24</v>
@@ -5506,41 +5504,41 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H82" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J82" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
         <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
       </c>
-      <c r="N82" t="n">
-        <v>50</v>
-      </c>
-      <c r="O82"/>
+      <c r="N82"/>
+      <c r="O82" t="n">
+        <v>14</v>
+      </c>
       <c r="P82" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="Q82" t="s">
         <v>24</v>
@@ -5558,41 +5556,41 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H83" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
       </c>
-      <c r="N83" t="n">
-        <v>50</v>
-      </c>
-      <c r="O83"/>
+      <c r="N83"/>
+      <c r="O83" t="n">
+        <v>18</v>
+      </c>
       <c r="P83" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q83" t="s">
         <v>24</v>
@@ -5606,45 +5604,45 @@
         <v>2024</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H84" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M84" t="b">
         <v>0</v>
       </c>
-      <c r="N84" t="n">
-        <v>8</v>
-      </c>
-      <c r="O84"/>
+      <c r="N84"/>
+      <c r="O84" t="n">
+        <v>4</v>
+      </c>
       <c r="P84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q84" t="s">
         <v>24</v>
@@ -5658,45 +5656,45 @@
         <v>2024</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K85" t="s">
         <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
       </c>
-      <c r="N85"/>
-      <c r="O85" t="n">
-        <v>29</v>
-      </c>
+      <c r="N85" t="n">
+        <v>50</v>
+      </c>
+      <c r="O85"/>
       <c r="P85" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="Q85" t="s">
         <v>24</v>
@@ -5710,51 +5708,51 @@
         <v>2024</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K86" t="s">
         <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
       </c>
-      <c r="N86"/>
-      <c r="O86" t="n">
-        <v>3</v>
-      </c>
+      <c r="N86" t="n">
+        <v>50</v>
+      </c>
+      <c r="O86"/>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="Q86" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -5762,45 +5760,45 @@
         <v>2024</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K87" t="s">
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
       </c>
-      <c r="N87"/>
-      <c r="O87" t="n">
-        <v>3</v>
-      </c>
+      <c r="N87" t="n">
+        <v>50</v>
+      </c>
+      <c r="O87"/>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="Q87" t="s">
         <v>24</v>
@@ -5818,47 +5816,47 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J88" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K88" t="s">
         <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
       </c>
-      <c r="N88"/>
-      <c r="O88" t="n">
+      <c r="N88" t="n">
+        <v>12</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>29</v>
+      </c>
+      <c r="R88" t="n">
         <v>1</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -5870,22 +5868,22 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H89" t="s">
         <v>165</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
@@ -5901,10 +5899,10 @@
       </c>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="P89" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="Q89" t="s">
         <v>24</v>
@@ -5922,22 +5920,22 @@
       </c>
       <c r="C90"/>
       <c r="D90" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H90" t="s">
         <v>165</v>
       </c>
       <c r="I90" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
@@ -5946,17 +5944,17 @@
         <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M90" t="b">
         <v>0</v>
       </c>
       <c r="N90"/>
       <c r="O90" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q90" t="s">
         <v>24</v>
@@ -5974,22 +5972,22 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G91" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H91" t="s">
         <v>168</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J91" t="s">
         <v>21</v>
@@ -5998,17 +5996,17 @@
         <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M91" t="b">
         <v>0</v>
       </c>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P91" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Q91" t="s">
         <v>24</v>
@@ -6026,22 +6024,22 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G92" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H92" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J92" t="s">
         <v>21</v>
@@ -6057,10 +6055,10 @@
       </c>
       <c r="N92"/>
       <c r="O92" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="P92" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="s">
         <v>24</v>
@@ -6074,26 +6072,26 @@
         <v>2024</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G93" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H93" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
@@ -6102,17 +6100,17 @@
         <v>22</v>
       </c>
       <c r="L93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
       </c>
       <c r="N93"/>
       <c r="O93" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P93" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q93" t="s">
         <v>24</v>
@@ -6126,26 +6124,26 @@
         <v>2024</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I94" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J94" t="s">
         <v>21</v>
@@ -6161,10 +6159,10 @@
       </c>
       <c r="N94"/>
       <c r="O94" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="P94" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q94" t="s">
         <v>24</v>
@@ -6178,26 +6176,26 @@
         <v>2024</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s">
         <v>21</v>
@@ -6206,17 +6204,17 @@
         <v>22</v>
       </c>
       <c r="L95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M95" t="b">
         <v>0</v>
       </c>
       <c r="N95"/>
       <c r="O95" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P95" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q95" t="s">
         <v>24</v>
@@ -6230,29 +6228,29 @@
         <v>2024</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J96" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K96" t="s">
         <v>22</v>
@@ -6263,12 +6261,12 @@
       <c r="M96" t="b">
         <v>0</v>
       </c>
-      <c r="N96"/>
-      <c r="O96" t="n">
-        <v>8</v>
-      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96"/>
       <c r="P96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q96" t="s">
         <v>24</v>
@@ -6282,43 +6280,43 @@
         <v>2024</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I97" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J97" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K97" t="s">
         <v>22</v>
       </c>
       <c r="L97" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M97" t="b">
         <v>0</v>
       </c>
-      <c r="N97"/>
-      <c r="O97" t="n">
+      <c r="N97" t="n">
         <v>50</v>
       </c>
+      <c r="O97"/>
       <c r="P97" t="n">
         <v>50</v>
       </c>
@@ -6338,41 +6336,41 @@
       </c>
       <c r="C98"/>
       <c r="D98" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I98" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K98" t="s">
         <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M98" t="b">
         <v>0</v>
       </c>
-      <c r="N98"/>
-      <c r="O98" t="n">
-        <v>6</v>
-      </c>
+      <c r="N98" t="n">
+        <v>18</v>
+      </c>
+      <c r="O98"/>
       <c r="P98" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q98" t="s">
         <v>24</v>
@@ -6390,19 +6388,19 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I99" t="s">
         <v>37</v>
@@ -6414,17 +6412,17 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M99" t="b">
         <v>0</v>
       </c>
       <c r="N99"/>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P99" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q99" t="s">
         <v>24</v>
@@ -6438,23 +6436,23 @@
         <v>2024</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I100" t="s">
         <v>37</v>
@@ -6466,23 +6464,23 @@
         <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M100" t="b">
         <v>0</v>
       </c>
       <c r="N100"/>
       <c r="O100" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="P100" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="Q100" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -6494,19 +6492,19 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I101" t="s">
         <v>37</v>
@@ -6518,17 +6516,17 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
       </c>
       <c r="N101"/>
       <c r="O101" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P101" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q101" t="s">
         <v>24</v>
@@ -6542,26 +6540,26 @@
         <v>2024</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G102" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I102" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J102" t="s">
         <v>21</v>
@@ -6577,10 +6575,10 @@
       </c>
       <c r="N102"/>
       <c r="O102" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P102" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q102" t="s">
         <v>24</v>
@@ -6598,22 +6596,22 @@
       </c>
       <c r="C103"/>
       <c r="D103" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G103" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I103" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J103" t="s">
         <v>21</v>
@@ -6622,17 +6620,17 @@
         <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
       </c>
       <c r="N103"/>
       <c r="O103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q103" t="s">
         <v>24</v>
@@ -6650,22 +6648,22 @@
       </c>
       <c r="C104"/>
       <c r="D104" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H104" t="s">
         <v>187</v>
       </c>
       <c r="I104" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J104" t="s">
         <v>21</v>
@@ -6681,10 +6679,10 @@
       </c>
       <c r="N104"/>
       <c r="O104" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q104" t="s">
         <v>24</v>
@@ -6702,22 +6700,22 @@
       </c>
       <c r="C105"/>
       <c r="D105" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G105" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H105" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I105" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J105" t="s">
         <v>21</v>
@@ -6726,7 +6724,7 @@
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
@@ -6750,26 +6748,26 @@
         <v>2024</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G106" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I106" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J106" t="s">
         <v>21</v>
@@ -6778,17 +6776,17 @@
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
       </c>
       <c r="N106"/>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q106" t="s">
         <v>24</v>
@@ -6806,22 +6804,22 @@
       </c>
       <c r="C107"/>
       <c r="D107" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H107" t="s">
         <v>192</v>
       </c>
       <c r="I107" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J107" t="s">
         <v>21</v>
@@ -6837,10 +6835,10 @@
       </c>
       <c r="N107"/>
       <c r="O107" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="Q107" t="s">
         <v>24</v>
@@ -6858,41 +6856,41 @@
       </c>
       <c r="C108"/>
       <c r="D108" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G108" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I108" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J108" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K108" t="s">
         <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
       </c>
-      <c r="N108" t="n">
-        <v>16</v>
-      </c>
-      <c r="O108"/>
+      <c r="N108"/>
+      <c r="O108" t="n">
+        <v>50</v>
+      </c>
       <c r="P108" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="Q108" t="s">
         <v>24</v>
@@ -6906,26 +6904,26 @@
         <v>2024</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G109" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H109" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I109" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J109" t="s">
         <v>21</v>
@@ -6941,16 +6939,16 @@
       </c>
       <c r="N109"/>
       <c r="O109" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="P109" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="Q109" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -6958,26 +6956,26 @@
         <v>2024</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H110" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I110" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J110" t="s">
         <v>21</v>
@@ -6986,23 +6984,23 @@
         <v>22</v>
       </c>
       <c r="L110" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
       </c>
       <c r="N110"/>
       <c r="O110" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="P110" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="Q110" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -7010,26 +7008,26 @@
         <v>2024</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C111"/>
       <c r="D111" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G111" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H111" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I111" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J111" t="s">
         <v>21</v>
@@ -7045,10 +7043,10 @@
       </c>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q111" t="s">
         <v>24</v>
@@ -7062,26 +7060,26 @@
         <v>2024</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G112" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H112" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I112" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
@@ -7090,17 +7088,17 @@
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
       </c>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P112" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q112" t="s">
         <v>24</v>
@@ -7114,45 +7112,45 @@
         <v>2024</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C113"/>
       <c r="D113" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I113" t="s">
         <v>80</v>
       </c>
       <c r="J113" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K113" t="s">
         <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M113" t="b">
         <v>0</v>
       </c>
-      <c r="N113" t="n">
-        <v>17</v>
-      </c>
-      <c r="O113"/>
+      <c r="N113"/>
+      <c r="O113" t="n">
+        <v>9</v>
+      </c>
       <c r="P113" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q113" t="s">
         <v>24</v>
@@ -7166,26 +7164,26 @@
         <v>2024</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C114"/>
       <c r="D114" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H114" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I114" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="J114" t="s">
         <v>21</v>
@@ -7194,17 +7192,17 @@
         <v>22</v>
       </c>
       <c r="L114" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
       </c>
       <c r="N114"/>
       <c r="O114" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P114" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q114" t="s">
         <v>24</v>
@@ -7218,26 +7216,26 @@
         <v>2024</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C115"/>
       <c r="D115" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H115" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I115" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="J115" t="s">
         <v>21</v>
@@ -7246,17 +7244,17 @@
         <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M115" t="b">
         <v>0</v>
       </c>
       <c r="N115"/>
       <c r="O115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q115" t="s">
         <v>24</v>
@@ -7270,23 +7268,23 @@
         <v>2024</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C116"/>
       <c r="D116" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H116" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I116" t="s">
         <v>80</v>
@@ -7298,17 +7296,17 @@
         <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M116" t="b">
         <v>0</v>
       </c>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q116" t="s">
         <v>24</v>
@@ -7322,23 +7320,23 @@
         <v>2024</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C117"/>
       <c r="D117" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H117" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I117" t="s">
         <v>80</v>
@@ -7350,7 +7348,7 @@
         <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M117" t="b">
         <v>0</v>
@@ -7374,23 +7372,23 @@
         <v>2024</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H118" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I118" t="s">
         <v>80</v>
@@ -7402,17 +7400,17 @@
         <v>22</v>
       </c>
       <c r="L118" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M118" t="b">
         <v>0</v>
       </c>
       <c r="N118"/>
       <c r="O118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q118" t="s">
         <v>24</v>
@@ -7426,26 +7424,26 @@
         <v>2024</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C119"/>
       <c r="D119" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G119" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H119" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I119" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J119" t="s">
         <v>21</v>
@@ -7454,17 +7452,17 @@
         <v>22</v>
       </c>
       <c r="L119" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M119" t="b">
         <v>0</v>
       </c>
       <c r="N119"/>
       <c r="O119" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P119" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q119" t="s">
         <v>24</v>
@@ -7478,26 +7476,26 @@
         <v>2024</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G120" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I120" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="J120" t="s">
         <v>21</v>
@@ -7506,17 +7504,17 @@
         <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M120" t="b">
         <v>0</v>
       </c>
       <c r="N120"/>
       <c r="O120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q120" t="s">
         <v>24</v>
@@ -7530,45 +7528,45 @@
         <v>2024</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H121" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I121" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="J121" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K121" t="s">
         <v>22</v>
       </c>
       <c r="L121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M121" t="b">
         <v>0</v>
       </c>
-      <c r="N121"/>
-      <c r="O121" t="n">
-        <v>3</v>
-      </c>
+      <c r="N121" t="n">
+        <v>46</v>
+      </c>
+      <c r="O121"/>
       <c r="P121" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="Q121" t="s">
         <v>24</v>
@@ -7582,26 +7580,26 @@
         <v>2024</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H122" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I122" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="J122" t="s">
         <v>21</v>
@@ -7617,10 +7615,10 @@
       </c>
       <c r="N122"/>
       <c r="O122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q122" t="s">
         <v>24</v>
@@ -7634,26 +7632,26 @@
         <v>2024</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H123" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I123" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="J123" t="s">
         <v>21</v>
@@ -7662,17 +7660,17 @@
         <v>22</v>
       </c>
       <c r="L123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M123" t="b">
         <v>0</v>
       </c>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q123" t="s">
         <v>24</v>
@@ -7686,26 +7684,26 @@
         <v>2024</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C124"/>
       <c r="D124" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H124" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I124" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J124" t="s">
         <v>21</v>
@@ -7721,10 +7719,10 @@
       </c>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P124" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q124" t="s">
         <v>24</v>
@@ -7738,26 +7736,26 @@
         <v>2024</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>45519</v>
+        <v>45525</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H125" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I125" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="J125" t="s">
         <v>21</v>
@@ -7766,17 +7764,17 @@
         <v>22</v>
       </c>
       <c r="L125" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M125" t="b">
         <v>0</v>
       </c>
       <c r="N125"/>
       <c r="O125" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P125" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q125" t="s">
         <v>24</v>
@@ -7790,26 +7788,26 @@
         <v>2024</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C126"/>
       <c r="D126" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I126" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="J126" t="s">
         <v>21</v>
@@ -7818,17 +7816,17 @@
         <v>22</v>
       </c>
       <c r="L126" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
       </c>
       <c r="N126"/>
       <c r="O126" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P126" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q126" t="s">
         <v>24</v>
@@ -7842,26 +7840,26 @@
         <v>2024</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C127"/>
       <c r="D127" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H127" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I127" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J127" t="s">
         <v>21</v>
@@ -7870,17 +7868,17 @@
         <v>22</v>
       </c>
       <c r="L127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
       </c>
       <c r="N127"/>
       <c r="O127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q127" t="s">
         <v>24</v>
@@ -7894,45 +7892,45 @@
         <v>2024</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C128"/>
       <c r="D128" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H128" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I128" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J128" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K128" t="s">
         <v>22</v>
       </c>
       <c r="L128" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
       </c>
-      <c r="N128" t="n">
-        <v>19</v>
-      </c>
-      <c r="O128"/>
+      <c r="N128"/>
+      <c r="O128" t="n">
+        <v>2</v>
+      </c>
       <c r="P128" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Q128" t="s">
         <v>24</v>
@@ -7946,45 +7944,45 @@
         <v>2024</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H129" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I129" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="J129" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K129" t="s">
         <v>22</v>
       </c>
       <c r="L129" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
       </c>
-      <c r="N129"/>
-      <c r="O129" t="n">
-        <v>1</v>
-      </c>
+      <c r="N129" t="n">
+        <v>36</v>
+      </c>
+      <c r="O129"/>
       <c r="P129" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="Q129" t="s">
         <v>24</v>
@@ -7998,26 +7996,26 @@
         <v>2024</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H130" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I130" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="J130" t="s">
         <v>21</v>
@@ -8026,17 +8024,17 @@
         <v>22</v>
       </c>
       <c r="L130" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
       </c>
       <c r="N130"/>
       <c r="O130" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P130" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q130" t="s">
         <v>24</v>
@@ -8050,26 +8048,26 @@
         <v>2024</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H131" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I131" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="J131" t="s">
         <v>21</v>
@@ -8078,17 +8076,17 @@
         <v>22</v>
       </c>
       <c r="L131" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M131" t="b">
         <v>0</v>
       </c>
       <c r="N131"/>
       <c r="O131" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P131" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q131" t="s">
         <v>24</v>
@@ -8102,26 +8100,26 @@
         <v>2024</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H132" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I132" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J132" t="s">
         <v>21</v>
@@ -8130,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="L132" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M132" t="b">
         <v>0</v>
@@ -8154,26 +8152,26 @@
         <v>2024</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C133"/>
       <c r="D133" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H133" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I133" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J133" t="s">
         <v>21</v>
@@ -8182,17 +8180,17 @@
         <v>22</v>
       </c>
       <c r="L133" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M133" t="b">
         <v>0</v>
       </c>
       <c r="N133"/>
       <c r="O133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q133" t="s">
         <v>24</v>
@@ -8206,26 +8204,26 @@
         <v>2024</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C134"/>
       <c r="D134" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H134" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I134" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J134" t="s">
         <v>21</v>
@@ -8234,7 +8232,7 @@
         <v>22</v>
       </c>
       <c r="L134" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M134" t="b">
         <v>0</v>
@@ -8258,45 +8256,45 @@
         <v>2024</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C135"/>
       <c r="D135" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H135" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I135" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J135" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K135" t="s">
         <v>22</v>
       </c>
       <c r="L135" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M135" t="b">
         <v>0</v>
       </c>
-      <c r="N135" t="n">
-        <v>19</v>
-      </c>
-      <c r="O135"/>
+      <c r="N135"/>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
       <c r="P135" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Q135" t="s">
         <v>24</v>
@@ -8310,26 +8308,26 @@
         <v>2024</v>
       </c>
       <c r="B136" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H136" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I136" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J136" t="s">
         <v>21</v>
@@ -8338,17 +8336,17 @@
         <v>22</v>
       </c>
       <c r="L136" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M136" t="b">
         <v>0</v>
       </c>
       <c r="N136"/>
       <c r="O136" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P136" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q136" t="s">
         <v>24</v>
@@ -8362,50 +8360,206 @@
         <v>2024</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C137"/>
       <c r="D137" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H137" t="s">
+        <v>238</v>
+      </c>
+      <c r="I137" t="s">
+        <v>217</v>
+      </c>
+      <c r="J137" t="s">
+        <v>84</v>
+      </c>
+      <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" t="s">
+        <v>39</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>23</v>
+      </c>
+      <c r="O137"/>
+      <c r="P137" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>29</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B138" t="s">
+        <v>239</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138" t="n">
+        <v>34</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="F138" t="s">
+        <v>60</v>
+      </c>
+      <c r="G138" t="s">
+        <v>64</v>
+      </c>
+      <c r="H138" t="s">
         <v>240</v>
       </c>
-      <c r="I137" t="s">
-        <v>205</v>
-      </c>
-      <c r="J137" t="s">
-        <v>21</v>
-      </c>
-      <c r="K137" t="s">
-        <v>22</v>
-      </c>
-      <c r="L137" t="s">
-        <v>41</v>
-      </c>
-      <c r="M137" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137" t="n">
-        <v>4</v>
-      </c>
-      <c r="P137" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>24</v>
-      </c>
-      <c r="R137" t="n">
+      <c r="I138" t="s">
+        <v>217</v>
+      </c>
+      <c r="J138" t="s">
+        <v>21</v>
+      </c>
+      <c r="K138" t="s">
+        <v>22</v>
+      </c>
+      <c r="L138" t="s">
+        <v>23</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138"/>
+      <c r="O138" t="n">
+        <v>2</v>
+      </c>
+      <c r="P138" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>24</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B139" t="s">
+        <v>241</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139" t="n">
+        <v>34</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="F139" t="s">
+        <v>60</v>
+      </c>
+      <c r="G139" t="s">
+        <v>64</v>
+      </c>
+      <c r="H139" t="s">
+        <v>242</v>
+      </c>
+      <c r="I139" t="s">
+        <v>217</v>
+      </c>
+      <c r="J139" t="s">
+        <v>21</v>
+      </c>
+      <c r="K139" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139" t="s">
+        <v>23</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139" t="n">
+        <v>14</v>
+      </c>
+      <c r="P139" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>24</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140" t="n">
+        <v>34</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="F140" t="s">
+        <v>60</v>
+      </c>
+      <c r="G140" t="s">
+        <v>64</v>
+      </c>
+      <c r="H140" t="s">
+        <v>242</v>
+      </c>
+      <c r="I140" t="s">
+        <v>217</v>
+      </c>
+      <c r="J140" t="s">
+        <v>21</v>
+      </c>
+      <c r="K140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140" t="s">
+        <v>39</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140"/>
+      <c r="O140" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>24</v>
+      </c>
+      <c r="R140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8425,34 +8579,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
@@ -8460,13 +8614,13 @@
         <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>4.78</v>
+        <v>5.44</v>
       </c>
       <c r="C2" t="n">
-        <v>6.44</v>
+        <v>5.44</v>
       </c>
       <c r="D2" t="n">
-        <v>11.22</v>
+        <v>10.88</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -8489,162 +8643,162 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>31.7</v>
+        <v>23.3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0102</v>
+        <v>0.0144</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00273501577287066</v>
+        <v>0.0135064377682403</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0867</v>
+        <v>0.1051</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2096</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0867</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
-        <v>4.6</v>
+        <v>8.71</v>
       </c>
       <c r="C4" t="n">
-        <v>18.07</v>
+        <v>11.64</v>
       </c>
       <c r="D4" t="n">
-        <v>22.67</v>
+        <v>20.35</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0027</v>
+        <v>0.0099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00054697838553153</v>
+        <v>0.00423587223587224</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0124</v>
+        <v>0.0862</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0124</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B5" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="C5" t="n">
-        <v>4.44</v>
+        <v>4.33</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5.66</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.0342</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.00803886925795053</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="n">
-        <v>4.91</v>
+        <v>6.1</v>
       </c>
       <c r="C6" t="n">
-        <v>13.98</v>
+        <v>9.79</v>
       </c>
       <c r="D6" t="n">
-        <v>18.89</v>
+        <v>15.89</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0045</v>
+        <v>0.011</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00116993118051879</v>
+        <v>0.00730018879798616</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0221</v>
+        <v>0.0671</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.0489</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0221</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
-        <v>5.17</v>
+        <v>10.33</v>
       </c>
       <c r="C7" t="n">
-        <v>41.5</v>
+        <v>48.83</v>
       </c>
       <c r="D7" t="n">
-        <v>46.67</v>
+        <v>59.16</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.0076</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.00627281947261663</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.3711</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.3711</v>
       </c>
     </row>
     <row r="8">
@@ -8652,31 +8806,31 @@
         <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>9.7</v>
+        <v>14.4</v>
       </c>
       <c r="C8" t="n">
-        <v>37.6</v>
+        <v>21.5</v>
       </c>
       <c r="D8" t="n">
-        <v>47.3</v>
+        <v>35.9</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0055</v>
+        <v>0.0049</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00437209302325581</v>
+        <v>0.00586350974930362</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1051</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2068</v>
+        <v>0.1054</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2068</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="9">
@@ -8685,26 +8839,26 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>27.2</v>
+        <v>10.6</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2</v>
+        <v>10.6</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.0079</v>
+        <v>0.0188</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00790073529411765</v>
+        <v>0.0188018867924528</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2149</v>
+        <v>0.1993</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2149</v>
+        <v>0.1993</v>
       </c>
     </row>
   </sheetData>
@@ -8723,55 +8877,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
@@ -9353,35 +9507,51 @@
       <c r="A13" t="n">
         <v>34</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="n">
         <v>0.1416</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="n">
+        <v>0.3147</v>
+      </c>
       <c r="E13" t="n">
         <v>0.253166666666667</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" t="n">
+        <v>0.0862</v>
+      </c>
       <c r="G13" t="n">
         <v>0.241122222222222</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" t="n">
+        <v>0.0455</v>
+      </c>
       <c r="I13" t="n">
         <v>0.168722222222222</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" t="n">
+        <v>0.116</v>
+      </c>
       <c r="K13" t="n">
         <v>0.211422222222222</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="n">
+        <v>0.3711</v>
+      </c>
       <c r="M13" t="n">
         <v>0.182622222222222</v>
       </c>
-      <c r="N13"/>
+      <c r="N13" t="n">
+        <v>0.2105</v>
+      </c>
       <c r="O13" t="n">
         <v>0.407728571428571</v>
       </c>
-      <c r="P13"/>
+      <c r="P13" t="n">
+        <v>0.1993</v>
+      </c>
       <c r="Q13" t="n">
         <v>0.0643</v>
       </c>
@@ -9507,28 +9677,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -9536,155 +9706,155 @@
         <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>4.78</v>
+        <v>5.44</v>
       </c>
       <c r="G2" t="n">
-        <v>6.44</v>
+        <v>5.44</v>
       </c>
       <c r="H2" t="n">
-        <v>11.22</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="G3" t="n">
-        <v>23.2</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>31.7</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>8.71</v>
       </c>
       <c r="G4" t="n">
-        <v>18.07</v>
+        <v>11.64</v>
       </c>
       <c r="H4" t="n">
-        <v>22.67</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>4.44</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="n">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="C6" t="n">
-        <v>601</v>
+        <v>411</v>
       </c>
       <c r="D6" t="n">
-        <v>812</v>
+        <v>667</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>4.91</v>
+        <v>6.1</v>
       </c>
       <c r="G6" t="n">
-        <v>13.98</v>
+        <v>9.79</v>
       </c>
       <c r="H6" t="n">
-        <v>18.89</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D7" t="n">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>5.17</v>
+        <v>10.33</v>
       </c>
       <c r="G7" t="n">
-        <v>41.5</v>
+        <v>48.83</v>
       </c>
       <c r="H7" t="n">
-        <v>46.67</v>
+        <v>59.16</v>
       </c>
     </row>
     <row r="8">
@@ -9692,25 +9862,25 @@
         <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C8" t="n">
-        <v>376</v>
+        <v>215</v>
       </c>
       <c r="D8" t="n">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>9.7</v>
+        <v>14.4</v>
       </c>
       <c r="G8" t="n">
-        <v>37.6</v>
+        <v>21.5</v>
       </c>
       <c r="H8" t="n">
-        <v>47.3</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="9">
@@ -9721,20 +9891,20 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>27.2</v>
+        <v>10.6</v>
       </c>
       <c r="H9" t="n">
-        <v>27.2</v>
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>
@@ -9753,55 +9923,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -10383,35 +10553,51 @@
       <c r="A13" t="n">
         <v>34</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>10.88</v>
+      </c>
       <c r="C13" t="n">
         <v>23.3955555555556</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="n">
+        <v>23.3</v>
+      </c>
       <c r="E13" t="n">
         <v>55.5888888888889</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" t="n">
+        <v>20.35</v>
+      </c>
       <c r="G13" t="n">
         <v>31.0088888888889</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" t="n">
+        <v>5.66</v>
+      </c>
       <c r="I13" t="n">
         <v>19.5922222222222</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" t="n">
+        <v>15.89</v>
+      </c>
       <c r="K13" t="n">
         <v>32.7422222222222</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="n">
+        <v>59.16</v>
+      </c>
       <c r="M13" t="n">
         <v>46.0177777777778</v>
       </c>
-      <c r="N13"/>
+      <c r="N13" t="n">
+        <v>35.9</v>
+      </c>
       <c r="O13" t="n">
         <v>28.2571428571429</v>
       </c>
-      <c r="P13"/>
+      <c r="P13" t="n">
+        <v>10.6</v>
+      </c>
       <c r="Q13" t="n">
         <v>20.77</v>
       </c>
@@ -10537,43 +10723,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
@@ -10581,22 +10767,22 @@
         <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -10619,207 +10805,207 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="n">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="C3" t="n">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="D3" t="n">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>10.2</v>
+        <v>14.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="M3" t="n">
-        <v>2.73501577287066</v>
+        <v>13.5064377682403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C4" t="n">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>631</v>
+        <v>492</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.7</v>
+        <v>9.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.546978385531539</v>
+        <v>4.23587223587224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8.03886925795053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="n">
-        <v>680</v>
+        <v>961</v>
       </c>
       <c r="C6" t="n">
-        <v>604</v>
+        <v>413</v>
       </c>
       <c r="D6" t="n">
-        <v>1284</v>
+        <v>1374</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16993118051879</v>
+        <v>7.30018879798616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D7" t="n">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.27281947261663</v>
       </c>
     </row>
     <row r="8">
@@ -10827,40 +11013,40 @@
         <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C8" t="n">
-        <v>376</v>
+        <v>215</v>
       </c>
       <c r="D8" t="n">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="M8" t="n">
-        <v>4.37209302325581</v>
+        <v>5.86350974930362</v>
       </c>
     </row>
     <row r="9">
@@ -10871,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10896,10 +11082,10 @@
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>7.9</v>
+        <v>18.8</v>
       </c>
       <c r="M9" t="n">
-        <v>7.90073529411765</v>
+        <v>18.8018867924528</v>
       </c>
     </row>
   </sheetData>
@@ -10918,55 +11104,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
@@ -11548,35 +11734,51 @@
       <c r="A13" t="n">
         <v>34</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="n">
         <v>6.90447857975253</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="n">
+        <v>13.5064377682403</v>
+      </c>
       <c r="E13" t="n">
         <v>6.0786766543837</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" t="n">
+        <v>4.23587223587224</v>
+      </c>
       <c r="G13" t="n">
         <v>8.75116115772201</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" t="n">
+        <v>8.03886925795053</v>
+      </c>
       <c r="I13" t="n">
         <v>6.04427380410593</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" t="n">
+        <v>7.30018879798616</v>
+      </c>
       <c r="K13" t="n">
         <v>7.31357526901295</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="n">
+        <v>6.27281947261663</v>
+      </c>
       <c r="M13" t="n">
         <v>3.81183074386803</v>
       </c>
-      <c r="N13"/>
+      <c r="N13" t="n">
+        <v>5.86350974930362</v>
+      </c>
       <c r="O13" t="n">
         <v>10.7851310687666</v>
       </c>
-      <c r="P13"/>
+      <c r="P13" t="n">
+        <v>18.8018867924528</v>
+      </c>
       <c r="Q13" t="n">
         <v>1.59990047275442</v>
       </c>

--- a/data_output/weekly_report_output.xlsx
+++ b/data_output/weekly_report_output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Test Code (CSU Enters)</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00251</t>
+    <t xml:space="preserve">BOU-00256</t>
   </si>
   <si>
     <t xml:space="preserve">BC</t>
@@ -95,607 +95,430 @@
     <t xml:space="preserve">Negative</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00252</t>
+    <t xml:space="preserve">BOU-00257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOU-00258</t>
   </si>
   <si>
     <t xml:space="preserve">Pipiens</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOU-00254</t>
+    <t xml:space="preserve">BOU-00259</t>
   </si>
   <si>
     <t xml:space="preserve">BC-26</t>
   </si>
   <si>
-    <t xml:space="preserve">BOU-00255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larimer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC-206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22916</t>
+    <t xml:space="preserve">BOU-00260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23025</t>
   </si>
   <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22920</t>
-  </si>
-  <si>
     <t xml:space="preserve">FC</t>
   </si>
   <si>
+    <t xml:space="preserve">FC-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-090GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-063GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23045</t>
+  </si>
+  <si>
     <t xml:space="preserve">FC-038</t>
   </si>
   <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22922</t>
+    <t xml:space="preserve">CSU-23046</t>
   </si>
   <si>
     <t xml:space="preserve">FC-069</t>
   </si>
   <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22925</t>
+    <t xml:space="preserve">CSU-23047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-091GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23054</t>
   </si>
   <si>
     <t xml:space="preserve">FC-040GR</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22927</t>
+    <t xml:space="preserve">CSU-23055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-092GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-066GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23060</t>
   </si>
   <si>
     <t xml:space="preserve">FC-014</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-092GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22936</t>
+    <t xml:space="preserve">CSU-23061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23062</t>
   </si>
   <si>
     <t xml:space="preserve">FC-072</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-091GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22939</t>
+    <t xml:space="preserve">CSU-23063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23064</t>
   </si>
   <si>
     <t xml:space="preserve">FC-066</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-066GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22949</t>
+    <t xml:space="preserve">CSU-23065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-029GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-089GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23078</t>
   </si>
   <si>
     <t xml:space="preserve">FC-039</t>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22950</t>
+    <t xml:space="preserve">CSU-23079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23083</t>
   </si>
   <si>
     <t xml:space="preserve">FC-064</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22954</t>
+    <t xml:space="preserve">CSU-23084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23085</t>
   </si>
   <si>
     <t xml:space="preserve">FC-075GR</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22957</t>
+    <t xml:space="preserve">CSU-23086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23098</t>
   </si>
   <si>
     <t xml:space="preserve">FC-046</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU-22958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22959</t>
+    <t xml:space="preserve">CSU-23099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC-047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSU-23101</t>
   </si>
   <si>
     <t xml:space="preserve">FC-088GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-090GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WC-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-063GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-22999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-029GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-089GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSU-23024</t>
   </si>
   <si>
     <t xml:space="preserve">zone</t>
@@ -1316,10 +1139,10 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1370,10 +1193,10 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1382,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -1394,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -1403,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -1424,10 +1247,10 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1436,7 +1259,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -1448,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -1457,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="s">
         <v>24</v>
@@ -1478,10 +1301,10 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1511,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -1532,10 +1355,10 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1544,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -1556,7 +1379,7 @@
         <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -1565,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -1582,24 +1405,26 @@
         <v>2024</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7"/>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -1608,17 +1433,17 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -1632,24 +1457,26 @@
         <v>2024</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8"/>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1658,15 +1485,15 @@
         <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8"/>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="O8"/>
       <c r="P8" t="n">
         <v>1</v>
       </c>
@@ -1682,24 +1509,26 @@
         <v>2024</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9"/>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1715,10 +1544,10 @@
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1732,24 +1561,26 @@
         <v>2024</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10"/>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -1758,17 +1589,17 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10"/>
+      <c r="N10"/>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
@@ -1782,24 +1613,26 @@
         <v>2024</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11"/>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -1808,17 +1641,17 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
@@ -1832,24 +1665,26 @@
         <v>2024</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12"/>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -1858,7 +1693,7 @@
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1882,24 +1717,26 @@
         <v>2024</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13"/>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -1908,17 +1745,17 @@
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="s">
         <v>24</v>
@@ -1932,24 +1769,26 @@
         <v>2024</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14"/>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1958,17 +1797,17 @@
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q14" t="s">
         <v>24</v>
@@ -1982,29 +1821,29 @@
         <v>2024</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -2015,10 +1854,10 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15"/>
-      <c r="O15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
+      <c r="O15"/>
       <c r="P15" t="n">
         <v>1</v>
       </c>
@@ -2034,45 +1873,45 @@
         <v>2024</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N16"/>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
+      <c r="N16" t="n">
+        <v>50</v>
+      </c>
+      <c r="O16"/>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q16" t="s">
         <v>24</v>
@@ -2086,26 +1925,26 @@
         <v>2024</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -2114,7 +1953,7 @@
         <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -2138,26 +1977,26 @@
         <v>2024</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -2166,17 +2005,17 @@
         <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="s">
         <v>24</v>
@@ -2190,26 +2029,26 @@
         <v>2024</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -2225,10 +2064,10 @@
       </c>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="s">
         <v>24</v>
@@ -2242,26 +2081,26 @@
         <v>2024</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -2270,17 +2109,17 @@
         <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="s">
         <v>24</v>
@@ -2294,48 +2133,48 @@
         <v>2024</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
         <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
-      <c r="N21"/>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
+      <c r="N21" t="n">
+        <v>50</v>
+      </c>
+      <c r="O21"/>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Q21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
@@ -2346,51 +2185,51 @@
         <v>2024</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
-      <c r="N22"/>
-      <c r="O22" t="n">
+      <c r="N22" t="n">
+        <v>50</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" t="n">
         <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2398,51 +2237,51 @@
         <v>2024</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
-      <c r="N23"/>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23"/>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2450,45 +2289,45 @@
         <v>2024</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
-      <c r="N24" t="n">
-        <v>50</v>
-      </c>
-      <c r="O24"/>
+      <c r="N24"/>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
       <c r="P24" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="s">
         <v>24</v>
@@ -2506,41 +2345,41 @@
       </c>
       <c r="C25"/>
       <c r="D25" t="n">
+        <v>36</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
       </c>
-      <c r="N25" t="n">
-        <v>33</v>
-      </c>
-      <c r="O25"/>
+      <c r="N25"/>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
       <c r="P25" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="s">
         <v>24</v>
@@ -2558,22 +2397,22 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="n">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
       </c>
       <c r="H26" t="s">
         <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -2606,26 +2445,26 @@
         <v>2024</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" t="s">
-        <v>55</v>
-      </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
@@ -2634,17 +2473,17 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="s">
         <v>24</v>
@@ -2658,26 +2497,26 @@
         <v>2024</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
@@ -2693,10 +2532,10 @@
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="s">
         <v>24</v>
@@ -2710,26 +2549,26 @@
         <v>2024</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
@@ -2738,17 +2577,17 @@
         <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="s">
         <v>24</v>
@@ -2762,26 +2601,26 @@
         <v>2024</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
@@ -2790,17 +2629,17 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q30" t="s">
         <v>24</v>
@@ -2814,26 +2653,26 @@
         <v>2024</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>55</v>
-      </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -2842,17 +2681,17 @@
         <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
         <v>24</v>
@@ -2866,26 +2705,26 @@
         <v>2024</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -2894,17 +2733,17 @@
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="s">
         <v>24</v>
@@ -2918,26 +2757,26 @@
         <v>2024</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
@@ -2946,17 +2785,17 @@
         <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="s">
         <v>24</v>
@@ -2970,51 +2809,51 @@
         <v>2024</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="n">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
         <v>35</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>83</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
-      <c r="N34" t="n">
-        <v>30</v>
-      </c>
-      <c r="O34"/>
+      <c r="N34"/>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
       <c r="P34" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3022,51 +2861,51 @@
         <v>2024</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="n">
+        <v>36</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s">
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
-      <c r="N35"/>
-      <c r="O35" t="n">
-        <v>5</v>
-      </c>
+      <c r="N35" t="n">
+        <v>20</v>
+      </c>
+      <c r="O35"/>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q35" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3074,51 +2913,51 @@
         <v>2024</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
       <c r="H36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
-      <c r="N36"/>
-      <c r="O36" t="n">
-        <v>7</v>
-      </c>
+      <c r="N36" t="n">
+        <v>50</v>
+      </c>
+      <c r="O36"/>
       <c r="P36" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Q36" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3126,51 +2965,51 @@
         <v>2024</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
         <v>35</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
       </c>
       <c r="H37" t="s">
         <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s">
         <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q37" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3178,26 +3017,26 @@
         <v>2024</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
@@ -3213,10 +3052,10 @@
       </c>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="s">
         <v>24</v>
@@ -3230,26 +3069,26 @@
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
       <c r="H39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
         <v>21</v>
@@ -3258,17 +3097,17 @@
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39"/>
       <c r="O39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q39" t="s">
         <v>24</v>
@@ -3282,45 +3121,45 @@
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
-      <c r="N40"/>
-      <c r="O40" t="n">
-        <v>3</v>
-      </c>
+      <c r="N40" t="n">
+        <v>41</v>
+      </c>
+      <c r="O40"/>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="Q40" t="s">
         <v>24</v>
@@ -3334,48 +3173,48 @@
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="n">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s">
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
-      <c r="N41"/>
-      <c r="O41" t="n">
-        <v>7</v>
-      </c>
+      <c r="N41" t="n">
+        <v>22</v>
+      </c>
+      <c r="O41"/>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Q41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R41" t="n">
         <v>1</v>
@@ -3386,45 +3225,45 @@
         <v>2024</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="n">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
       <c r="H42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J42" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
       </c>
-      <c r="N42" t="n">
-        <v>5</v>
-      </c>
-      <c r="O42"/>
+      <c r="N42"/>
+      <c r="O42" t="n">
+        <v>4</v>
+      </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="s">
         <v>24</v>
@@ -3438,26 +3277,26 @@
         <v>2024</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
         <v>35</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
       </c>
       <c r="H43" t="s">
         <v>98</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
         <v>21</v>
@@ -3466,17 +3305,17 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q43" t="s">
         <v>24</v>
@@ -3490,26 +3329,26 @@
         <v>2024</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="n">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
@@ -3518,17 +3357,17 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="s">
         <v>24</v>
@@ -3542,26 +3381,26 @@
         <v>2024</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
         <v>35</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s">
-        <v>48</v>
       </c>
       <c r="H45" t="s">
         <v>101</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J45" t="s">
         <v>21</v>
@@ -3570,17 +3409,17 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="P45" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q45" t="s">
         <v>24</v>
@@ -3594,26 +3433,26 @@
         <v>2024</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
+        <v>36</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
-        <v>48</v>
-      </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J46" t="s">
         <v>21</v>
@@ -3622,17 +3461,17 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="P46" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="Q46" t="s">
         <v>24</v>
@@ -3646,26 +3485,26 @@
         <v>2024</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
+        <v>36</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
         <v>35</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s">
-        <v>48</v>
       </c>
       <c r="H47" t="s">
         <v>104</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
@@ -3674,17 +3513,17 @@
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Q47" t="s">
         <v>24</v>
@@ -3698,26 +3537,26 @@
         <v>2024</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="n">
+        <v>36</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>45539</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="J48" t="s">
         <v>21</v>
@@ -3726,17 +3565,17 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="P48" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Q48" t="s">
         <v>24</v>
@@ -3750,26 +3589,26 @@
         <v>2024</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="n">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s">
-        <v>55</v>
-      </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I49" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
@@ -3778,17 +3617,17 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="s">
         <v>24</v>
@@ -3802,26 +3641,26 @@
         <v>2024</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" t="s">
-        <v>55</v>
-      </c>
       <c r="H50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
@@ -3830,17 +3669,17 @@
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="s">
         <v>24</v>
@@ -3854,26 +3693,26 @@
         <v>2024</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
+        <v>36</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s">
-        <v>55</v>
-      </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J51" t="s">
         <v>21</v>
@@ -3882,17 +3721,17 @@
         <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="s">
         <v>24</v>
@@ -3910,22 +3749,22 @@
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
+        <v>36</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I52" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
@@ -3934,7 +3773,7 @@
         <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
@@ -3958,45 +3797,45 @@
         <v>2024</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="n">
+        <v>36</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s">
-        <v>55</v>
-      </c>
       <c r="H53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I53" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J53" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s">
         <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q53" t="s">
         <v>24</v>
@@ -4010,26 +3849,26 @@
         <v>2024</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="n">
+        <v>36</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I54" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
@@ -4038,17 +3877,17 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="s">
         <v>24</v>
@@ -4062,26 +3901,26 @@
         <v>2024</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
+        <v>36</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I55" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
@@ -4090,17 +3929,17 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="s">
         <v>24</v>
@@ -4114,26 +3953,26 @@
         <v>2024</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
         <v>35</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>55</v>
       </c>
       <c r="H56" t="s">
         <v>120</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
@@ -4142,17 +3981,17 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="s">
         <v>24</v>
@@ -4166,45 +4005,45 @@
         <v>2024</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="n">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s">
-        <v>55</v>
-      </c>
       <c r="H57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I57" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s">
         <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
       </c>
-      <c r="N57"/>
-      <c r="O57" t="n">
-        <v>10</v>
-      </c>
+      <c r="N57" t="n">
+        <v>11</v>
+      </c>
+      <c r="O57"/>
       <c r="P57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q57" t="s">
         <v>24</v>
@@ -4218,45 +4057,45 @@
         <v>2024</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
       <c r="H58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I58" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
         <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
       </c>
-      <c r="N58" t="n">
-        <v>50</v>
-      </c>
-      <c r="O58"/>
+      <c r="N58"/>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
       <c r="P58" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="s">
         <v>24</v>
@@ -4270,45 +4109,45 @@
         <v>2024</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="n">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" t="s">
-        <v>55</v>
-      </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
       </c>
-      <c r="N59" t="n">
-        <v>50</v>
-      </c>
-      <c r="O59"/>
+      <c r="N59"/>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
       <c r="P59" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="s">
         <v>24</v>
@@ -4322,45 +4161,45 @@
         <v>2024</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="n">
+        <v>36</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I60" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J60" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
         <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
       </c>
-      <c r="N60" t="n">
-        <v>23</v>
-      </c>
-      <c r="O60"/>
+      <c r="N60"/>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
       <c r="P60" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="s">
         <v>24</v>
@@ -4374,26 +4213,26 @@
         <v>2024</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="n">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" t="s">
-        <v>55</v>
-      </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
@@ -4409,10 +4248,10 @@
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P61" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q61" t="s">
         <v>24</v>
@@ -4426,26 +4265,26 @@
         <v>2024</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="n">
+        <v>36</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
       <c r="H62" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I62" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -4454,7 +4293,7 @@
         <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -4478,26 +4317,26 @@
         <v>2024</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
+        <v>36</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F63" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" t="s">
-        <v>55</v>
-      </c>
       <c r="H63" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I63" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
@@ -4513,10 +4352,10 @@
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="s">
         <v>24</v>
@@ -4530,26 +4369,26 @@
         <v>2024</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="n">
+        <v>36</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
       <c r="H64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I64" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
@@ -4558,17 +4397,17 @@
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M64" t="b">
         <v>0</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P64" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q64" t="s">
         <v>24</v>
@@ -4582,26 +4421,26 @@
         <v>2024</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="n">
+        <v>36</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F65" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" t="s">
-        <v>55</v>
-      </c>
       <c r="H65" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I65" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
@@ -4617,10 +4456,10 @@
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="s">
         <v>24</v>
@@ -4634,26 +4473,26 @@
         <v>2024</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="n">
+        <v>36</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" t="s">
-        <v>55</v>
-      </c>
       <c r="H66" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
@@ -4662,17 +4501,17 @@
         <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M66" t="b">
         <v>0</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P66" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q66" t="s">
         <v>24</v>
@@ -4686,45 +4525,45 @@
         <v>2024</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="n">
+        <v>36</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G67" t="s">
-        <v>55</v>
-      </c>
       <c r="H67" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s">
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
       </c>
-      <c r="N67"/>
-      <c r="O67" t="n">
-        <v>8</v>
-      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67"/>
       <c r="P67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="s">
         <v>24</v>
@@ -4738,26 +4577,26 @@
         <v>2024</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="n">
+        <v>36</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" t="s">
-        <v>55</v>
-      </c>
       <c r="H68" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I68" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
@@ -4766,17 +4605,17 @@
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="P68" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="s">
         <v>24</v>
@@ -4790,26 +4629,26 @@
         <v>2024</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
+        <v>36</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" t="s">
-        <v>55</v>
-      </c>
       <c r="H69" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I69" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
@@ -4818,17 +4657,17 @@
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
       </c>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P69" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q69" t="s">
         <v>24</v>
@@ -4842,26 +4681,26 @@
         <v>2024</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="n">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F70" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" t="s">
-        <v>55</v>
-      </c>
       <c r="H70" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -4870,17 +4709,17 @@
         <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
       </c>
       <c r="N70"/>
       <c r="O70" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P70" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q70" t="s">
         <v>24</v>
@@ -4894,26 +4733,26 @@
         <v>2024</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
+        <v>36</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" t="s">
-        <v>55</v>
-      </c>
       <c r="H71" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J71" t="s">
         <v>21</v>
@@ -4922,17 +4761,17 @@
         <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
       </c>
       <c r="N71"/>
       <c r="O71" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="P71" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q71" t="s">
         <v>24</v>
@@ -4946,26 +4785,26 @@
         <v>2024</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
+        <v>36</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" t="s">
-        <v>55</v>
-      </c>
       <c r="H72" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I72" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J72" t="s">
         <v>21</v>
@@ -4974,17 +4813,17 @@
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
       </c>
       <c r="N72"/>
       <c r="O72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="s">
         <v>24</v>
@@ -4998,26 +4837,26 @@
         <v>2024</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
+        <v>36</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G73" t="s">
-        <v>55</v>
-      </c>
       <c r="H73" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I73" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
@@ -5026,17 +4865,17 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M73" t="b">
         <v>0</v>
       </c>
       <c r="N73"/>
       <c r="O73" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P73" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q73" t="s">
         <v>24</v>
@@ -5050,26 +4889,26 @@
         <v>2024</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="n">
+        <v>36</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="F74" t="s">
-        <v>47</v>
-      </c>
-      <c r="G74" t="s">
-        <v>55</v>
-      </c>
       <c r="H74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
@@ -5078,17 +4917,17 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="s">
         <v>24</v>
@@ -5102,26 +4941,26 @@
         <v>2024</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
+        <v>36</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F75" t="s">
-        <v>47</v>
-      </c>
-      <c r="G75" t="s">
-        <v>55</v>
-      </c>
       <c r="H75" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I75" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -5154,26 +4993,26 @@
         <v>2024</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="n">
+        <v>36</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
-      <c r="G76" t="s">
-        <v>55</v>
-      </c>
       <c r="H76" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I76" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
@@ -5182,17 +5021,17 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M76" t="b">
         <v>0</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q76" t="s">
         <v>24</v>
@@ -5206,26 +5045,26 @@
         <v>2024</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
+        <v>36</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F77" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F77" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" t="s">
-        <v>55</v>
-      </c>
       <c r="H77" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I77" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
@@ -5234,17 +5073,17 @@
         <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q77" t="s">
         <v>24</v>
@@ -5258,26 +5097,26 @@
         <v>2024</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
+        <v>36</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F78" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G78" t="s">
-        <v>55</v>
-      </c>
       <c r="H78" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I78" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J78" t="s">
         <v>21</v>
@@ -5286,17 +5125,17 @@
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="s">
         <v>24</v>
@@ -5310,26 +5149,26 @@
         <v>2024</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="n">
+        <v>36</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-      <c r="G79" t="s">
-        <v>55</v>
-      </c>
       <c r="H79" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I79" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J79" t="s">
         <v>21</v>
@@ -5338,17 +5177,17 @@
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
       </c>
       <c r="N79"/>
       <c r="O79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q79" t="s">
         <v>24</v>
@@ -5362,45 +5201,45 @@
         <v>2024</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="n">
+        <v>36</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" t="s">
-        <v>55</v>
-      </c>
       <c r="H80" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I80" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J80" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
       </c>
-      <c r="N80" t="n">
-        <v>37</v>
-      </c>
-      <c r="O80"/>
+      <c r="N80"/>
+      <c r="O80" t="n">
+        <v>3</v>
+      </c>
       <c r="P80" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="s">
         <v>24</v>
@@ -5414,26 +5253,26 @@
         <v>2024</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
+        <v>36</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F81" t="s">
-        <v>47</v>
-      </c>
-      <c r="G81" t="s">
-        <v>55</v>
-      </c>
       <c r="H81" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I81" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J81" t="s">
         <v>21</v>
@@ -5449,10 +5288,10 @@
       </c>
       <c r="N81"/>
       <c r="O81" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P81" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q81" t="s">
         <v>24</v>
@@ -5466,26 +5305,26 @@
         <v>2024</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
+        <v>36</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82" t="s">
-        <v>55</v>
-      </c>
       <c r="H82" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I82" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
@@ -5494,23 +5333,23 @@
         <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
       </c>
       <c r="N82"/>
       <c r="O82" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P82" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q82" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -5518,2131 +5357,51 @@
         <v>2024</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
+        <v>36</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F83" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" t="s">
-        <v>48</v>
-      </c>
       <c r="H83" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
       </c>
-      <c r="N83"/>
-      <c r="O83" t="n">
-        <v>27</v>
-      </c>
+      <c r="N83" t="n">
+        <v>13</v>
+      </c>
+      <c r="O83"/>
       <c r="P83" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q83" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B84" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84"/>
-      <c r="D84" t="n">
-        <v>35</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" t="s">
-        <v>48</v>
-      </c>
-      <c r="H84" t="s">
-        <v>161</v>
-      </c>
-      <c r="I84" t="s">
-        <v>48</v>
-      </c>
-      <c r="J84" t="s">
-        <v>21</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" t="s">
-        <v>26</v>
-      </c>
-      <c r="M84" t="b">
-        <v>0</v>
-      </c>
-      <c r="N84"/>
-      <c r="O84" t="n">
-        <v>6</v>
-      </c>
-      <c r="P84" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>24</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85" t="n">
-        <v>35</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F85" t="s">
-        <v>47</v>
-      </c>
-      <c r="G85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" t="s">
-        <v>164</v>
-      </c>
-      <c r="I85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J85" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" t="s">
-        <v>23</v>
-      </c>
-      <c r="M85" t="b">
-        <v>0</v>
-      </c>
-      <c r="N85"/>
-      <c r="O85" t="n">
-        <v>10</v>
-      </c>
-      <c r="P85" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B86" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86" t="n">
-        <v>35</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G86" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" t="s">
-        <v>164</v>
-      </c>
-      <c r="I86" t="s">
-        <v>35</v>
-      </c>
-      <c r="J86" t="s">
-        <v>21</v>
-      </c>
-      <c r="K86" t="s">
-        <v>22</v>
-      </c>
-      <c r="L86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M86" t="b">
-        <v>0</v>
-      </c>
-      <c r="N86"/>
-      <c r="O86" t="n">
-        <v>13</v>
-      </c>
-      <c r="P86" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>24</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B87" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87"/>
-      <c r="D87" t="n">
-        <v>35</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" t="s">
-        <v>167</v>
-      </c>
-      <c r="I87" t="s">
-        <v>35</v>
-      </c>
-      <c r="J87" t="s">
-        <v>21</v>
-      </c>
-      <c r="K87" t="s">
-        <v>22</v>
-      </c>
-      <c r="L87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M87" t="b">
-        <v>0</v>
-      </c>
-      <c r="N87"/>
-      <c r="O87" t="n">
-        <v>4</v>
-      </c>
-      <c r="P87" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>24</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88"/>
-      <c r="D88" t="n">
-        <v>35</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F88" t="s">
-        <v>47</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" t="s">
-        <v>167</v>
-      </c>
-      <c r="I88" t="s">
-        <v>35</v>
-      </c>
-      <c r="J88" t="s">
-        <v>21</v>
-      </c>
-      <c r="K88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L88" t="s">
-        <v>26</v>
-      </c>
-      <c r="M88" t="b">
-        <v>0</v>
-      </c>
-      <c r="N88"/>
-      <c r="O88" t="n">
         <v>1</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B89" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89"/>
-      <c r="D89" t="n">
-        <v>35</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-      <c r="G89" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" t="s">
-        <v>170</v>
-      </c>
-      <c r="I89" t="s">
-        <v>35</v>
-      </c>
-      <c r="J89" t="s">
-        <v>21</v>
-      </c>
-      <c r="K89" t="s">
-        <v>22</v>
-      </c>
-      <c r="L89" t="s">
-        <v>23</v>
-      </c>
-      <c r="M89" t="b">
-        <v>0</v>
-      </c>
-      <c r="N89"/>
-      <c r="O89" t="n">
-        <v>5</v>
-      </c>
-      <c r="P89" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>24</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90"/>
-      <c r="D90" t="n">
-        <v>35</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F90" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" t="s">
-        <v>170</v>
-      </c>
-      <c r="I90" t="s">
-        <v>35</v>
-      </c>
-      <c r="J90" t="s">
-        <v>21</v>
-      </c>
-      <c r="K90" t="s">
-        <v>22</v>
-      </c>
-      <c r="L90" t="s">
-        <v>26</v>
-      </c>
-      <c r="M90" t="b">
-        <v>0</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90" t="n">
-        <v>1</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>24</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91"/>
-      <c r="D91" t="n">
-        <v>35</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F91" t="s">
-        <v>47</v>
-      </c>
-      <c r="G91" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" t="s">
-        <v>173</v>
-      </c>
-      <c r="I91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J91" t="s">
-        <v>21</v>
-      </c>
-      <c r="K91" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" t="s">
-        <v>23</v>
-      </c>
-      <c r="M91" t="b">
-        <v>0</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91" t="n">
-        <v>5</v>
-      </c>
-      <c r="P91" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>24</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B92" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92"/>
-      <c r="D92" t="n">
-        <v>35</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F92" t="s">
-        <v>47</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s">
-        <v>173</v>
-      </c>
-      <c r="I92" t="s">
-        <v>35</v>
-      </c>
-      <c r="J92" t="s">
-        <v>21</v>
-      </c>
-      <c r="K92" t="s">
-        <v>22</v>
-      </c>
-      <c r="L92" t="s">
-        <v>26</v>
-      </c>
-      <c r="M92" t="b">
-        <v>0</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92" t="n">
-        <v>14</v>
-      </c>
-      <c r="P92" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>24</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B93" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93"/>
-      <c r="D93" t="n">
-        <v>35</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F93" t="s">
-        <v>47</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" t="s">
-        <v>176</v>
-      </c>
-      <c r="I93" t="s">
-        <v>35</v>
-      </c>
-      <c r="J93" t="s">
-        <v>21</v>
-      </c>
-      <c r="K93" t="s">
-        <v>22</v>
-      </c>
-      <c r="L93" t="s">
-        <v>23</v>
-      </c>
-      <c r="M93" t="b">
-        <v>0</v>
-      </c>
-      <c r="N93"/>
-      <c r="O93" t="n">
-        <v>7</v>
-      </c>
-      <c r="P93" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>24</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B94" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94"/>
-      <c r="D94" t="n">
-        <v>35</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F94" t="s">
-        <v>47</v>
-      </c>
-      <c r="G94" t="s">
-        <v>55</v>
-      </c>
-      <c r="H94" t="s">
-        <v>178</v>
-      </c>
-      <c r="I94" t="s">
-        <v>80</v>
-      </c>
-      <c r="J94" t="s">
-        <v>21</v>
-      </c>
-      <c r="K94" t="s">
-        <v>22</v>
-      </c>
-      <c r="L94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M94" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94"/>
-      <c r="O94" t="n">
-        <v>4</v>
-      </c>
-      <c r="P94" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>24</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B95" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95"/>
-      <c r="D95" t="n">
-        <v>35</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F95" t="s">
-        <v>47</v>
-      </c>
-      <c r="G95" t="s">
-        <v>55</v>
-      </c>
-      <c r="H95" t="s">
-        <v>180</v>
-      </c>
-      <c r="I95" t="s">
-        <v>80</v>
-      </c>
-      <c r="J95" t="s">
-        <v>21</v>
-      </c>
-      <c r="K95" t="s">
-        <v>22</v>
-      </c>
-      <c r="L95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M95" t="b">
-        <v>0</v>
-      </c>
-      <c r="N95"/>
-      <c r="O95" t="n">
-        <v>4</v>
-      </c>
-      <c r="P95" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>24</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B96" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96"/>
-      <c r="D96" t="n">
-        <v>35</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F96" t="s">
-        <v>47</v>
-      </c>
-      <c r="G96" t="s">
-        <v>55</v>
-      </c>
-      <c r="H96" t="s">
-        <v>180</v>
-      </c>
-      <c r="I96" t="s">
-        <v>80</v>
-      </c>
-      <c r="J96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" t="s">
-        <v>22</v>
-      </c>
-      <c r="L96" t="s">
-        <v>26</v>
-      </c>
-      <c r="M96" t="b">
-        <v>0</v>
-      </c>
-      <c r="N96"/>
-      <c r="O96" t="n">
-        <v>2</v>
-      </c>
-      <c r="P96" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>24</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B97" t="s">
-        <v>182</v>
-      </c>
-      <c r="C97"/>
-      <c r="D97" t="n">
-        <v>35</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F97" t="s">
-        <v>47</v>
-      </c>
-      <c r="G97" t="s">
-        <v>55</v>
-      </c>
-      <c r="H97" t="s">
-        <v>183</v>
-      </c>
-      <c r="I97" t="s">
-        <v>80</v>
-      </c>
-      <c r="J97" t="s">
-        <v>67</v>
-      </c>
-      <c r="K97" t="s">
-        <v>22</v>
-      </c>
-      <c r="L97" t="s">
-        <v>23</v>
-      </c>
-      <c r="M97" t="b">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-      <c r="O97"/>
-      <c r="P97" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>24</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C98"/>
-      <c r="D98" t="n">
-        <v>35</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F98" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" t="s">
-        <v>55</v>
-      </c>
-      <c r="H98" t="s">
-        <v>183</v>
-      </c>
-      <c r="I98" t="s">
-        <v>80</v>
-      </c>
-      <c r="J98" t="s">
-        <v>67</v>
-      </c>
-      <c r="K98" t="s">
-        <v>22</v>
-      </c>
-      <c r="L98" t="s">
-        <v>26</v>
-      </c>
-      <c r="M98" t="b">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>40</v>
-      </c>
-      <c r="O98"/>
-      <c r="P98" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>24</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B99" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99"/>
-      <c r="D99" t="n">
-        <v>35</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F99" t="s">
-        <v>47</v>
-      </c>
-      <c r="G99" t="s">
-        <v>55</v>
-      </c>
-      <c r="H99" t="s">
-        <v>186</v>
-      </c>
-      <c r="I99" t="s">
-        <v>187</v>
-      </c>
-      <c r="J99" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" t="s">
-        <v>22</v>
-      </c>
-      <c r="L99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M99" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99" t="n">
-        <v>4</v>
-      </c>
-      <c r="P99" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>24</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B100" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100"/>
-      <c r="D100" t="n">
-        <v>35</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F100" t="s">
-        <v>47</v>
-      </c>
-      <c r="G100" t="s">
-        <v>55</v>
-      </c>
-      <c r="H100" t="s">
-        <v>186</v>
-      </c>
-      <c r="I100" t="s">
-        <v>187</v>
-      </c>
-      <c r="J100" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" t="s">
-        <v>22</v>
-      </c>
-      <c r="L100" t="s">
-        <v>26</v>
-      </c>
-      <c r="M100" t="b">
-        <v>0</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100" t="n">
-        <v>14</v>
-      </c>
-      <c r="P100" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>24</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B101" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101" t="n">
-        <v>35</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F101" t="s">
-        <v>47</v>
-      </c>
-      <c r="G101" t="s">
-        <v>55</v>
-      </c>
-      <c r="H101" t="s">
-        <v>190</v>
-      </c>
-      <c r="I101" t="s">
-        <v>187</v>
-      </c>
-      <c r="J101" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" t="s">
-        <v>22</v>
-      </c>
-      <c r="L101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M101" t="b">
-        <v>0</v>
-      </c>
-      <c r="N101"/>
-      <c r="O101" t="n">
-        <v>2</v>
-      </c>
-      <c r="P101" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>24</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B102" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102"/>
-      <c r="D102" t="n">
-        <v>35</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F102" t="s">
-        <v>47</v>
-      </c>
-      <c r="G102" t="s">
-        <v>55</v>
-      </c>
-      <c r="H102" t="s">
-        <v>190</v>
-      </c>
-      <c r="I102" t="s">
-        <v>187</v>
-      </c>
-      <c r="J102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" t="s">
-        <v>22</v>
-      </c>
-      <c r="L102" t="s">
-        <v>26</v>
-      </c>
-      <c r="M102" t="b">
-        <v>0</v>
-      </c>
-      <c r="N102"/>
-      <c r="O102" t="n">
-        <v>1</v>
-      </c>
-      <c r="P102" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>24</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B103" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103"/>
-      <c r="D103" t="n">
-        <v>35</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F103" t="s">
-        <v>47</v>
-      </c>
-      <c r="G103" t="s">
-        <v>55</v>
-      </c>
-      <c r="H103" t="s">
-        <v>193</v>
-      </c>
-      <c r="I103" t="s">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s">
-        <v>21</v>
-      </c>
-      <c r="K103" t="s">
-        <v>22</v>
-      </c>
-      <c r="L103" t="s">
-        <v>23</v>
-      </c>
-      <c r="M103" t="b">
-        <v>0</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103" t="n">
-        <v>2</v>
-      </c>
-      <c r="P103" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>24</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B104" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104"/>
-      <c r="D104" t="n">
-        <v>35</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F104" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104" t="s">
-        <v>55</v>
-      </c>
-      <c r="H104" t="s">
-        <v>195</v>
-      </c>
-      <c r="I104" t="s">
-        <v>80</v>
-      </c>
-      <c r="J104" t="s">
-        <v>21</v>
-      </c>
-      <c r="K104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L104" t="s">
-        <v>23</v>
-      </c>
-      <c r="M104" t="b">
-        <v>0</v>
-      </c>
-      <c r="N104"/>
-      <c r="O104" t="n">
-        <v>3</v>
-      </c>
-      <c r="P104" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>24</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B105" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105"/>
-      <c r="D105" t="n">
-        <v>35</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="F105" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105" t="s">
-        <v>55</v>
-      </c>
-      <c r="H105" t="s">
-        <v>195</v>
-      </c>
-      <c r="I105" t="s">
-        <v>80</v>
-      </c>
-      <c r="J105" t="s">
-        <v>21</v>
-      </c>
-      <c r="K105" t="s">
-        <v>22</v>
-      </c>
-      <c r="L105" t="s">
-        <v>26</v>
-      </c>
-      <c r="M105" t="b">
-        <v>0</v>
-      </c>
-      <c r="N105"/>
-      <c r="O105" t="n">
-        <v>2</v>
-      </c>
-      <c r="P105" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>24</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B106" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106"/>
-      <c r="D106" t="n">
-        <v>35</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F106" t="s">
-        <v>47</v>
-      </c>
-      <c r="G106" t="s">
-        <v>55</v>
-      </c>
-      <c r="H106" t="s">
-        <v>198</v>
-      </c>
-      <c r="I106" t="s">
-        <v>107</v>
-      </c>
-      <c r="J106" t="s">
-        <v>21</v>
-      </c>
-      <c r="K106" t="s">
-        <v>22</v>
-      </c>
-      <c r="L106" t="s">
-        <v>23</v>
-      </c>
-      <c r="M106" t="b">
-        <v>0</v>
-      </c>
-      <c r="N106"/>
-      <c r="O106" t="n">
-        <v>3</v>
-      </c>
-      <c r="P106" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>24</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B107" t="s">
-        <v>199</v>
-      </c>
-      <c r="C107"/>
-      <c r="D107" t="n">
-        <v>35</v>
-      </c>
-      <c r="E107" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F107" t="s">
-        <v>47</v>
-      </c>
-      <c r="G107" t="s">
-        <v>55</v>
-      </c>
-      <c r="H107" t="s">
-        <v>200</v>
-      </c>
-      <c r="I107" t="s">
-        <v>187</v>
-      </c>
-      <c r="J107" t="s">
-        <v>21</v>
-      </c>
-      <c r="K107" t="s">
-        <v>22</v>
-      </c>
-      <c r="L107" t="s">
-        <v>23</v>
-      </c>
-      <c r="M107" t="b">
-        <v>0</v>
-      </c>
-      <c r="N107"/>
-      <c r="O107" t="n">
-        <v>7</v>
-      </c>
-      <c r="P107" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>24</v>
-      </c>
-      <c r="R107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B108" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108"/>
-      <c r="D108" t="n">
-        <v>35</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F108" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" t="s">
-        <v>55</v>
-      </c>
-      <c r="H108" t="s">
-        <v>200</v>
-      </c>
-      <c r="I108" t="s">
-        <v>187</v>
-      </c>
-      <c r="J108" t="s">
-        <v>21</v>
-      </c>
-      <c r="K108" t="s">
-        <v>22</v>
-      </c>
-      <c r="L108" t="s">
-        <v>26</v>
-      </c>
-      <c r="M108" t="b">
-        <v>0</v>
-      </c>
-      <c r="N108"/>
-      <c r="O108" t="n">
-        <v>3</v>
-      </c>
-      <c r="P108" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>24</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B109" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109"/>
-      <c r="D109" t="n">
-        <v>35</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F109" t="s">
-        <v>47</v>
-      </c>
-      <c r="G109" t="s">
-        <v>55</v>
-      </c>
-      <c r="H109" t="s">
-        <v>203</v>
-      </c>
-      <c r="I109" t="s">
-        <v>107</v>
-      </c>
-      <c r="J109" t="s">
-        <v>21</v>
-      </c>
-      <c r="K109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L109" t="s">
-        <v>23</v>
-      </c>
-      <c r="M109" t="b">
-        <v>0</v>
-      </c>
-      <c r="N109"/>
-      <c r="O109" t="n">
-        <v>11</v>
-      </c>
-      <c r="P109" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>24</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B110" t="s">
-        <v>204</v>
-      </c>
-      <c r="C110"/>
-      <c r="D110" t="n">
-        <v>35</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F110" t="s">
-        <v>47</v>
-      </c>
-      <c r="G110" t="s">
-        <v>55</v>
-      </c>
-      <c r="H110" t="s">
-        <v>203</v>
-      </c>
-      <c r="I110" t="s">
-        <v>107</v>
-      </c>
-      <c r="J110" t="s">
-        <v>21</v>
-      </c>
-      <c r="K110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L110" t="s">
-        <v>26</v>
-      </c>
-      <c r="M110" t="b">
-        <v>0</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110" t="n">
-        <v>7</v>
-      </c>
-      <c r="P110" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>24</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B111" t="s">
-        <v>205</v>
-      </c>
-      <c r="C111"/>
-      <c r="D111" t="n">
-        <v>35</v>
-      </c>
-      <c r="E111" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F111" t="s">
-        <v>47</v>
-      </c>
-      <c r="G111" t="s">
-        <v>55</v>
-      </c>
-      <c r="H111" t="s">
-        <v>206</v>
-      </c>
-      <c r="I111" t="s">
-        <v>107</v>
-      </c>
-      <c r="J111" t="s">
-        <v>67</v>
-      </c>
-      <c r="K111" t="s">
-        <v>22</v>
-      </c>
-      <c r="L111" t="s">
-        <v>26</v>
-      </c>
-      <c r="M111" t="b">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>19</v>
-      </c>
-      <c r="O111"/>
-      <c r="P111" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>24</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B112" t="s">
-        <v>207</v>
-      </c>
-      <c r="C112"/>
-      <c r="D112" t="n">
-        <v>35</v>
-      </c>
-      <c r="E112" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F112" t="s">
-        <v>47</v>
-      </c>
-      <c r="G112" t="s">
-        <v>55</v>
-      </c>
-      <c r="H112" t="s">
-        <v>208</v>
-      </c>
-      <c r="I112" t="s">
-        <v>187</v>
-      </c>
-      <c r="J112" t="s">
-        <v>21</v>
-      </c>
-      <c r="K112" t="s">
-        <v>22</v>
-      </c>
-      <c r="L112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M112" t="b">
-        <v>0</v>
-      </c>
-      <c r="N112"/>
-      <c r="O112" t="n">
-        <v>2</v>
-      </c>
-      <c r="P112" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>24</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B113" t="s">
-        <v>209</v>
-      </c>
-      <c r="C113"/>
-      <c r="D113" t="n">
-        <v>35</v>
-      </c>
-      <c r="E113" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113" t="s">
-        <v>55</v>
-      </c>
-      <c r="H113" t="s">
-        <v>208</v>
-      </c>
-      <c r="I113" t="s">
-        <v>187</v>
-      </c>
-      <c r="J113" t="s">
-        <v>21</v>
-      </c>
-      <c r="K113" t="s">
-        <v>22</v>
-      </c>
-      <c r="L113" t="s">
-        <v>26</v>
-      </c>
-      <c r="M113" t="b">
-        <v>0</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>24</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B114" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114"/>
-      <c r="D114" t="n">
-        <v>35</v>
-      </c>
-      <c r="E114" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F114" t="s">
-        <v>47</v>
-      </c>
-      <c r="G114" t="s">
-        <v>55</v>
-      </c>
-      <c r="H114" t="s">
-        <v>211</v>
-      </c>
-      <c r="I114" t="s">
-        <v>187</v>
-      </c>
-      <c r="J114" t="s">
-        <v>21</v>
-      </c>
-      <c r="K114" t="s">
-        <v>22</v>
-      </c>
-      <c r="L114" t="s">
-        <v>23</v>
-      </c>
-      <c r="M114" t="b">
-        <v>0</v>
-      </c>
-      <c r="N114"/>
-      <c r="O114" t="n">
-        <v>2</v>
-      </c>
-      <c r="P114" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>24</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B115" t="s">
-        <v>212</v>
-      </c>
-      <c r="C115"/>
-      <c r="D115" t="n">
-        <v>35</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F115" t="s">
-        <v>47</v>
-      </c>
-      <c r="G115" t="s">
-        <v>55</v>
-      </c>
-      <c r="H115" t="s">
-        <v>211</v>
-      </c>
-      <c r="I115" t="s">
-        <v>187</v>
-      </c>
-      <c r="J115" t="s">
-        <v>21</v>
-      </c>
-      <c r="K115" t="s">
-        <v>22</v>
-      </c>
-      <c r="L115" t="s">
-        <v>26</v>
-      </c>
-      <c r="M115" t="b">
-        <v>0</v>
-      </c>
-      <c r="N115"/>
-      <c r="O115" t="n">
-        <v>5</v>
-      </c>
-      <c r="P115" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>24</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B116" t="s">
-        <v>213</v>
-      </c>
-      <c r="C116"/>
-      <c r="D116" t="n">
-        <v>35</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116" t="s">
-        <v>55</v>
-      </c>
-      <c r="H116" t="s">
-        <v>214</v>
-      </c>
-      <c r="I116" t="s">
-        <v>187</v>
-      </c>
-      <c r="J116" t="s">
-        <v>67</v>
-      </c>
-      <c r="K116" t="s">
-        <v>22</v>
-      </c>
-      <c r="L116" t="s">
-        <v>26</v>
-      </c>
-      <c r="M116" t="b">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>30</v>
-      </c>
-      <c r="O116"/>
-      <c r="P116" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>24</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B117" t="s">
-        <v>215</v>
-      </c>
-      <c r="C117"/>
-      <c r="D117" t="n">
-        <v>35</v>
-      </c>
-      <c r="E117" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F117" t="s">
-        <v>47</v>
-      </c>
-      <c r="G117" t="s">
-        <v>55</v>
-      </c>
-      <c r="H117" t="s">
-        <v>216</v>
-      </c>
-      <c r="I117" t="s">
-        <v>187</v>
-      </c>
-      <c r="J117" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117" t="s">
-        <v>22</v>
-      </c>
-      <c r="L117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M117" t="b">
-        <v>0</v>
-      </c>
-      <c r="N117"/>
-      <c r="O117" t="n">
-        <v>2</v>
-      </c>
-      <c r="P117" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>24</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B118" t="s">
-        <v>217</v>
-      </c>
-      <c r="C118"/>
-      <c r="D118" t="n">
-        <v>35</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F118" t="s">
-        <v>47</v>
-      </c>
-      <c r="G118" t="s">
-        <v>55</v>
-      </c>
-      <c r="H118" t="s">
-        <v>218</v>
-      </c>
-      <c r="I118" t="s">
-        <v>187</v>
-      </c>
-      <c r="J118" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118" t="s">
-        <v>22</v>
-      </c>
-      <c r="L118" t="s">
-        <v>23</v>
-      </c>
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-      <c r="N118"/>
-      <c r="O118" t="n">
-        <v>20</v>
-      </c>
-      <c r="P118" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>24</v>
-      </c>
-      <c r="R118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B119" t="s">
-        <v>219</v>
-      </c>
-      <c r="C119"/>
-      <c r="D119" t="n">
-        <v>35</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F119" t="s">
-        <v>47</v>
-      </c>
-      <c r="G119" t="s">
-        <v>55</v>
-      </c>
-      <c r="H119" t="s">
-        <v>218</v>
-      </c>
-      <c r="I119" t="s">
-        <v>187</v>
-      </c>
-      <c r="J119" t="s">
-        <v>21</v>
-      </c>
-      <c r="K119" t="s">
-        <v>22</v>
-      </c>
-      <c r="L119" t="s">
-        <v>26</v>
-      </c>
-      <c r="M119" t="b">
-        <v>0</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119" t="n">
-        <v>9</v>
-      </c>
-      <c r="P119" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>24</v>
-      </c>
-      <c r="R119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B120" t="s">
-        <v>220</v>
-      </c>
-      <c r="C120"/>
-      <c r="D120" t="n">
-        <v>35</v>
-      </c>
-      <c r="E120" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F120" t="s">
-        <v>47</v>
-      </c>
-      <c r="G120" t="s">
-        <v>55</v>
-      </c>
-      <c r="H120" t="s">
-        <v>221</v>
-      </c>
-      <c r="I120" t="s">
-        <v>187</v>
-      </c>
-      <c r="J120" t="s">
-        <v>21</v>
-      </c>
-      <c r="K120" t="s">
-        <v>22</v>
-      </c>
-      <c r="L120" t="s">
-        <v>23</v>
-      </c>
-      <c r="M120" t="b">
-        <v>0</v>
-      </c>
-      <c r="N120"/>
-      <c r="O120" t="n">
-        <v>3</v>
-      </c>
-      <c r="P120" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>24</v>
-      </c>
-      <c r="R120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B121" t="s">
-        <v>222</v>
-      </c>
-      <c r="C121"/>
-      <c r="D121" t="n">
-        <v>35</v>
-      </c>
-      <c r="E121" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F121" t="s">
-        <v>47</v>
-      </c>
-      <c r="G121" t="s">
-        <v>55</v>
-      </c>
-      <c r="H121" t="s">
-        <v>221</v>
-      </c>
-      <c r="I121" t="s">
-        <v>187</v>
-      </c>
-      <c r="J121" t="s">
-        <v>21</v>
-      </c>
-      <c r="K121" t="s">
-        <v>22</v>
-      </c>
-      <c r="L121" t="s">
-        <v>26</v>
-      </c>
-      <c r="M121" t="b">
-        <v>0</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121" t="n">
-        <v>11</v>
-      </c>
-      <c r="P121" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>24</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B122" t="s">
-        <v>223</v>
-      </c>
-      <c r="C122"/>
-      <c r="D122" t="n">
-        <v>35</v>
-      </c>
-      <c r="E122" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F122" t="s">
-        <v>47</v>
-      </c>
-      <c r="G122" t="s">
-        <v>55</v>
-      </c>
-      <c r="H122" t="s">
-        <v>224</v>
-      </c>
-      <c r="I122" t="s">
-        <v>187</v>
-      </c>
-      <c r="J122" t="s">
-        <v>21</v>
-      </c>
-      <c r="K122" t="s">
-        <v>22</v>
-      </c>
-      <c r="L122" t="s">
-        <v>23</v>
-      </c>
-      <c r="M122" t="b">
-        <v>0</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122" t="n">
-        <v>3</v>
-      </c>
-      <c r="P122" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>24</v>
-      </c>
-      <c r="R122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C123"/>
-      <c r="D123" t="n">
-        <v>35</v>
-      </c>
-      <c r="E123" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="F123" t="s">
-        <v>47</v>
-      </c>
-      <c r="G123" t="s">
-        <v>55</v>
-      </c>
-      <c r="H123" t="s">
-        <v>224</v>
-      </c>
-      <c r="I123" t="s">
-        <v>187</v>
-      </c>
-      <c r="J123" t="s">
-        <v>21</v>
-      </c>
-      <c r="K123" t="s">
-        <v>22</v>
-      </c>
-      <c r="L123" t="s">
-        <v>26</v>
-      </c>
-      <c r="M123" t="b">
-        <v>0</v>
-      </c>
-      <c r="N123"/>
-      <c r="O123" t="n">
-        <v>1</v>
-      </c>
-      <c r="P123" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>24</v>
-      </c>
-      <c r="R123" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7661,144 +5420,144 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="J1" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>5.44</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3.11</v>
+        <v>0.78</v>
       </c>
       <c r="D2" t="n">
-        <v>8.55</v>
+        <v>3.78</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0206</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0163492063492063</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.0618</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>13.4</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>17.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0106</v>
+        <v>0.0115</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0504</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0250727272727273</v>
+        <v>0.00870621468926554</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0742</v>
+        <v>0.1541</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2016</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2758</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="n">
-        <v>7.53</v>
+        <v>5.4</v>
       </c>
       <c r="C4" t="n">
-        <v>10.87</v>
+        <v>3.67</v>
       </c>
       <c r="D4" t="n">
-        <v>18.4</v>
+        <v>9.07</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0104189636163175</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0945</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1.44</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0.67</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>2.11</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -7821,48 +5580,48 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>6.44</v>
+        <v>5.93</v>
       </c>
       <c r="C6" t="n">
-        <v>6.42</v>
+        <v>2.58</v>
       </c>
       <c r="D6" t="n">
-        <v>12.86</v>
+        <v>8.51</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003</v>
+        <v>0.0154</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00504665629860031</v>
+        <v>0.0107285546415981</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0193</v>
+        <v>0.0913</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0456</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0649</v>
+        <v>0.0913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>8.67</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>22.17</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -7880,70 +5639,6 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7963,55 +5658,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="K1" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="L1" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="M1" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="N1" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="O1" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="P1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="Q1" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -8699,23 +6394,33 @@
       <c r="A15" t="n">
         <v>36</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>0.0618</v>
+      </c>
       <c r="C15" t="n">
         <v>0.022575</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="n">
+        <v>0.1541</v>
+      </c>
       <c r="E15" t="n">
         <v>0.0669625</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" t="n">
+        <v>0.0945</v>
+      </c>
       <c r="G15" t="n">
         <v>0.0523375</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" t="n">
         <v>0.0264</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="n">
+        <v>0.0913</v>
+      </c>
       <c r="K15" t="n">
         <v>0.050425</v>
       </c>
@@ -8725,7 +6430,9 @@
       </c>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15"/>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
@@ -8779,236 +6486,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>5.44</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.11</v>
+        <v>0.78</v>
       </c>
       <c r="H2" t="n">
-        <v>8.55</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>13.4</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>7.53</v>
+        <v>5.4</v>
       </c>
       <c r="G4" t="n">
-        <v>10.87</v>
+        <v>3.67</v>
       </c>
       <c r="H4" t="n">
-        <v>18.4</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0.67</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C6" t="n">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
-        <v>553</v>
+        <v>366</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>6.44</v>
+        <v>5.93</v>
       </c>
       <c r="G6" t="n">
-        <v>6.42</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>12.86</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.5</v>
-      </c>
       <c r="H7" t="n">
-        <v>22.17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>63</v>
-      </c>
-      <c r="D8" t="n">
-        <v>115</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11.67</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -9027,55 +6682,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="K1" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="L1" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="N1" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="O1" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="P1" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Q1" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
@@ -9763,23 +7418,33 @@
       <c r="A15" t="n">
         <v>36</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>3.78</v>
+      </c>
       <c r="C15" t="n">
         <v>10.8625</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="n">
+        <v>17.7</v>
+      </c>
       <c r="E15" t="n">
         <v>35.8625</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" t="n">
+        <v>9.07</v>
+      </c>
       <c r="G15" t="n">
         <v>13.0925</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" t="n">
+        <v>2.11</v>
+      </c>
       <c r="I15" t="n">
         <v>5.01375</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K15" t="n">
         <v>16.23</v>
       </c>
@@ -9789,7 +7454,9 @@
       </c>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15"/>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
       <c r="Q15" t="n">
         <v>3.95333333333333</v>
       </c>
@@ -9843,189 +7510,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="L1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="M1" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.3492063492063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B3" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>10.6</v>
+        <v>11.5</v>
       </c>
       <c r="L3" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.0727272727273</v>
+        <v>8.70621468926554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="n">
-        <v>274</v>
+        <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>437</v>
+        <v>175</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10.4189636163175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -10048,67 +7715,67 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C6" t="n">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>947</v>
+        <v>749</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>15.4</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5.04665629860031</v>
+        <v>10.7285546415981</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -10125,88 +7792,6 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>63</v>
-      </c>
-      <c r="D8" t="n">
-        <v>115</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10226,55 +7811,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" t="s">
         <v>236</v>
       </c>
-      <c r="B1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O1" t="s">
-        <v>295</v>
-      </c>
       <c r="P1" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="Q1" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
@@ -10962,23 +8547,33 @@
       <c r="A15" t="n">
         <v>36</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>16.3492063492063</v>
+      </c>
       <c r="C15" t="n">
         <v>4.66408324297663</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="n">
+        <v>8.70621468926554</v>
+      </c>
       <c r="E15" t="n">
         <v>1.27833112662494</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" t="n">
+        <v>10.4189636163175</v>
+      </c>
       <c r="G15" t="n">
         <v>3.93117638486874</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" t="n">
         <v>7.87113325872875</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="n">
+        <v>10.7285546415981</v>
+      </c>
       <c r="K15" t="n">
         <v>2.82311749695775</v>
       </c>
@@ -10988,7 +8583,9 @@
       </c>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15"/>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
